--- a/data/UI自动化用测试用例.xlsx
+++ b/data/UI自动化用测试用例.xlsx
@@ -453,9 +453,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -499,14 +499,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,6 +528,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -528,8 +581,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -537,6 +598,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -550,74 +627,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -626,17 +635,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -651,145 +651,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,37 +831,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,6 +842,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -864,7 +879,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -873,7 +903,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -885,30 +915,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -928,17 +934,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -950,10 +950,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -962,133 +962,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1473,8 +1473,8 @@
   <sheetPr/>
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data/UI自动化用测试用例.xlsx
+++ b/data/UI自动化用测试用例.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="136">
   <si>
     <t>用例编号</t>
   </si>
@@ -445,7 +445,13 @@
     <t>34</t>
   </si>
   <si>
+    <t>领取优惠卷回退页面再次领取失败</t>
+  </si>
+  <si>
     <t>35</t>
+  </si>
+  <si>
+    <t>不进行验证注册失败</t>
   </si>
 </sst>
 </file>
@@ -453,10 +459,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -499,14 +505,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,6 +533,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -528,36 +571,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -589,20 +602,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -611,6 +610,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -651,187 +657,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,6 +890,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -895,15 +910,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -950,10 +956,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -962,19 +968,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -986,49 +992,49 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1037,58 +1043,58 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1473,8 +1479,8 @@
   <sheetPr/>
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2275,14 +2281,44 @@
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" ht="27" spans="1:7">
       <c r="A35" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" ht="27" spans="1:5">
       <c r="A36" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/data/UI自动化用测试用例.xlsx
+++ b/data/UI自动化用测试用例.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="172">
   <si>
     <t>用例编号</t>
   </si>
@@ -283,16 +283,6 @@
 password=A123456789123456</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>密码为17位注册失败</t>
-  </si>
-  <si>
-    <t>useraccount=a883774917@163.com
-password=a1234567891234567</t>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
@@ -452,6 +442,134 @@
   </si>
   <si>
     <t>不进行验证注册失败</t>
+  </si>
+  <si>
+    <t>css selector=body &gt; div.ant-message &gt; span &gt; div &gt; div &gt; div &gt; span</t>
+  </si>
+  <si>
+    <t>Please press the slider and drag to the far right</t>
+  </si>
+  <si>
+    <t>输入正确内容修改密码成功</t>
+  </si>
+  <si>
+    <t>忘记密码</t>
+  </si>
+  <si>
+    <t>页面在忘记密码页面</t>
+  </si>
+  <si>
+    <t>useraccount=a979172251@163.com
+newpassword=</t>
+  </si>
+  <si>
+    <t>css selector=#app &gt; div &gt; div.global-header &gt; div &gt; div.menu-content &gt; div.menu-right.flex &gt; div:nth-child(1) &gt; span</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>不输入邮箱修下一步置灰</t>
+  </si>
+  <si>
+    <t>useraccount=
+newpassword=</t>
+  </si>
+  <si>
+    <t>class name=atn-btn-orange.ant-btn.ant-btn-lg.ant-btn-block</t>
+  </si>
+  <si>
+    <t>不输入验证码下一步置灰</t>
+  </si>
+  <si>
+    <t>不输入邮箱号点击发送验证码失败</t>
+  </si>
+  <si>
+    <t>No such user information！</t>
+  </si>
+  <si>
+    <t>输入错误邮箱发送验证码失败</t>
+  </si>
+  <si>
+    <t>useraccount=sdasdsa
+newpassword=</t>
+  </si>
+  <si>
+    <t>输入过期验证码点击下一步失败</t>
+  </si>
+  <si>
+    <t>输入空密码修改失败</t>
+  </si>
+  <si>
+    <t>页面在验证码通过后修改页面</t>
+  </si>
+  <si>
+    <t xml:space="preserve">useraccount=a979172251@163.com
+newpassword=  </t>
+  </si>
+  <si>
+    <t>css selector=#app &gt; div &gt; div.login-form-wrap &gt; div.login-form.margin-bottom &gt; form &gt; div:nth-child(3) &gt; div &gt; div &gt; span &gt; span:nth-child(2)</t>
+  </si>
+  <si>
+    <t>输入7位纯数字修改失败</t>
+  </si>
+  <si>
+    <t>useraccount=a979172251@163.com
+newpassword=1234567</t>
+  </si>
+  <si>
+    <t>输入7位英文小写密码修改失败</t>
+  </si>
+  <si>
+    <t>useraccount=a979172251@163.com
+newpassword=aaaaaaa</t>
+  </si>
+  <si>
+    <t>输入7位英文大写密码修改失败</t>
+  </si>
+  <si>
+    <t>useraccount=a979172251@163.com
+newpassword=AAAAAAA</t>
+  </si>
+  <si>
+    <t>输入7位特殊字符密码修改失败</t>
+  </si>
+  <si>
+    <t>useraccount=a979172251@163.com
+newpassword=!!!!!!!</t>
+  </si>
+  <si>
+    <t>输入6位字母+数字密码更改成功</t>
+  </si>
+  <si>
+    <t>useraccount=a979172251@163.com
+newpassword=a123456</t>
+  </si>
+  <si>
+    <t>输入16位字母+数字更改成功</t>
+  </si>
+  <si>
+    <t>useraccount=a979172251@163.com
+newpassword=a123456789123456</t>
+  </si>
+  <si>
+    <t>输入5位字母+数字更改失败</t>
+  </si>
+  <si>
+    <t>useraccount=a979172251@163.com
+newpassword=a1234</t>
+  </si>
+  <si>
+    <t>更改密码成功后回退重新输入验证码</t>
+  </si>
+  <si>
+    <t>更改密码成功</t>
+  </si>
+  <si>
+    <t>css selector=#app &gt; div &gt; div.login-form-wrap &gt; div.login-form.margin-bottom &gt; form &gt; div:nth-child(1) &gt; div &gt; div &gt; span &gt; div &gt; div:nth-child(2) &gt; a</t>
+  </si>
+  <si>
+    <t>Send verification code to email</t>
   </si>
 </sst>
 </file>
@@ -459,10 +577,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -504,8 +622,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -513,6 +632,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -534,14 +667,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -555,19 +696,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -604,21 +745,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -633,22 +759,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -657,67 +775,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,115 +949,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -848,6 +972,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -862,6 +1001,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -899,21 +1062,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -924,30 +1072,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -956,10 +1080,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -968,143 +1092,146 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1127,6 +1254,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1477,848 +1616,1131 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="37.75" style="3" customWidth="1"/>
-    <col min="6" max="6" width="41.875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="16.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="29" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="37.75" style="4" customWidth="1"/>
+    <col min="6" max="6" width="41.875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="15.375" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="28.5" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" ht="71.25" spans="1:7">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" ht="71.25" spans="1:7">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" ht="71.25" spans="1:7">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" ht="71.25" spans="1:7">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" ht="71.25" spans="1:7">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" ht="27" spans="1:7">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" ht="27" spans="1:11">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" ht="42.75" spans="1:8">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="7"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" ht="54" spans="1:7">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:7">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="3" t="b">
+      <c r="G12" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="13" ht="27" spans="1:7">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" ht="27" spans="1:7">
-      <c r="A15" s="2" t="s">
+    <row r="15" s="2" customFormat="1" ht="27" spans="1:7">
+      <c r="A15" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="16" ht="67.5" spans="1:7">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="17" ht="54" spans="1:7">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="18" ht="67.5" spans="1:7">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="19" ht="54" spans="1:7">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="20" ht="67.5" spans="1:7">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="21" ht="67.5" spans="1:7">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="22" ht="67.5" spans="1:7">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="23" ht="67.5" spans="1:7">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="24" ht="67.5" spans="1:7">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="25" ht="67.5" spans="1:7">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="26" ht="67.5" spans="1:7">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="27" ht="67.5" spans="1:7">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="28" ht="67.5" spans="1:7">
-      <c r="A28" s="2" t="s">
+    <row r="28" ht="54" spans="1:7">
+      <c r="A28" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" ht="54" spans="1:7">
+      <c r="A29" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" ht="54" spans="1:7">
+      <c r="A30" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" ht="67.5" spans="1:7">
+      <c r="A31" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G31" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="29" ht="54" spans="1:7">
-      <c r="A29" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C29" s="7" t="s">
+    <row r="32" ht="54" spans="1:7">
+      <c r="A32" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D32" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="E32" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G32" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="30" ht="54" spans="1:7">
-      <c r="A30" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C30" s="7" t="s">
+    <row r="33" ht="27" spans="1:7">
+      <c r="A33" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" ht="54" spans="1:7">
-      <c r="A31" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C31" s="7" t="s">
+      <c r="D33" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" ht="27" spans="1:7">
+      <c r="A34" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" ht="67.5" spans="1:7">
-      <c r="A32" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C32" s="7" t="s">
+      <c r="D34" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" ht="54" spans="1:7">
+      <c r="A35" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G32" s="3" t="s">
+      <c r="D35" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" ht="54" spans="2:7">
+      <c r="B36" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" ht="28.5" spans="2:7">
+      <c r="B37" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" ht="28.5" spans="2:7">
+      <c r="B38" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" ht="28.5" spans="2:7">
+      <c r="B39" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" ht="28.5" spans="2:7">
+      <c r="B40" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" ht="28.5" spans="2:7">
+      <c r="B41" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" ht="67.5" spans="2:7">
+      <c r="B42" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G42" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="33" ht="54" spans="1:7">
-      <c r="A33" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" ht="27" spans="1:7">
-      <c r="A34" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="35" ht="27" spans="1:7">
-      <c r="A35" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="36" ht="27" spans="1:5">
-      <c r="A36" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>129</v>
+    <row r="43" ht="67.5" spans="2:7">
+      <c r="B43" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" ht="67.5" spans="2:7">
+      <c r="B44" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" ht="67.5" spans="2:7">
+      <c r="B45" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" ht="67.5" spans="2:7">
+      <c r="B46" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" ht="54" spans="2:7">
+      <c r="B47" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" ht="54" spans="2:7">
+      <c r="B48" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" ht="67.5" spans="2:7">
+      <c r="B49" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" ht="54" spans="2:7">
+      <c r="B50" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/data/UI自动化用测试用例.xlsx
+++ b/data/UI自动化用测试用例.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="251">
   <si>
     <t>用例编号</t>
   </si>
@@ -283,7 +283,7 @@
 password=A123456789123456</t>
   </si>
   <si>
-    <t>20</t>
+    <t>19</t>
   </si>
   <si>
     <t>密码为纯数字注册失败</t>
@@ -293,7 +293,7 @@
 password=123456789</t>
   </si>
   <si>
-    <t>21</t>
+    <t>20</t>
   </si>
   <si>
     <t>密码为纯小写字母注册失败</t>
@@ -303,7 +303,7 @@
 password=asdfghjkl</t>
   </si>
   <si>
-    <t>22</t>
+    <t>21</t>
   </si>
   <si>
     <t>密码为纯大写字母注册失败</t>
@@ -313,7 +313,7 @@
 password=ASDFGHJKL</t>
   </si>
   <si>
-    <t>23</t>
+    <t>22</t>
   </si>
   <si>
     <t>密码为纯特殊字符注册失败</t>
@@ -323,7 +323,7 @@
 password=~！@#￥%……&amp;**</t>
   </si>
   <si>
-    <t>24</t>
+    <t>23</t>
   </si>
   <si>
     <t>密码为数字+特殊字符注册失败</t>
@@ -333,7 +333,7 @@
 password=12345！@#￥</t>
   </si>
   <si>
-    <t>25</t>
+    <t>24</t>
   </si>
   <si>
     <t>密码为小写字母+大写字母注册失败</t>
@@ -343,7 +343,7 @@
 password=asdfGHJKKLL</t>
   </si>
   <si>
-    <t>26</t>
+    <t>25</t>
   </si>
   <si>
     <t>密码为小写字母+特殊字符注册失败</t>
@@ -353,7 +353,7 @@
 password=asdf！@#￥</t>
   </si>
   <si>
-    <t>27</t>
+    <t>26</t>
   </si>
   <si>
     <t>密码为大写字母+特殊字符注册失败</t>
@@ -363,7 +363,7 @@
 password=ASDF!@#$</t>
   </si>
   <si>
-    <t>28</t>
+    <t>27</t>
   </si>
   <si>
     <t>密码为数字+小写字母+大写字母注册成功</t>
@@ -373,7 +373,7 @@
 password=123asdFGH</t>
   </si>
   <si>
-    <t>29</t>
+    <t>28</t>
   </si>
   <si>
     <t>密码为数字+小写字母+特殊字符注册成功</t>
@@ -383,7 +383,7 @@
 password=123asd！@#</t>
   </si>
   <si>
-    <t>30</t>
+    <t>29</t>
   </si>
   <si>
     <t>密码为数字+大写字母+特殊字符注册成功</t>
@@ -393,7 +393,7 @@
 password=123ASD！@#</t>
   </si>
   <si>
-    <t>31</t>
+    <t>30</t>
   </si>
   <si>
     <t>密码为小写字母+大写字母+特殊字符注册失败</t>
@@ -403,7 +403,7 @@
 password=asdASD!@#</t>
   </si>
   <si>
-    <t>32</t>
+    <t>31</t>
   </si>
   <si>
     <t>密码为数字+小写字母+大写字母与+特殊字符注册成功</t>
@@ -413,7 +413,7 @@
 password=123asdASD!@#</t>
   </si>
   <si>
-    <t>33</t>
+    <t>32</t>
   </si>
   <si>
     <t>注册完成后领取优惠卷成功</t>
@@ -432,22 +432,25 @@
     <t>My discount coupon (4)</t>
   </si>
   <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>领取优惠卷回退页面再次领取失败</t>
+  </si>
+  <si>
     <t>34</t>
   </si>
   <si>
-    <t>领取优惠卷回退页面再次领取失败</t>
+    <t>不进行验证注册失败</t>
+  </si>
+  <si>
+    <t>css selector=body &gt; div.ant-message &gt; span &gt; div &gt; div &gt; div &gt; span</t>
+  </si>
+  <si>
+    <t>Please press the slider and drag to the far right</t>
   </si>
   <si>
     <t>35</t>
-  </si>
-  <si>
-    <t>不进行验证注册失败</t>
-  </si>
-  <si>
-    <t>css selector=body &gt; div.ant-message &gt; span &gt; div &gt; div &gt; div &gt; span</t>
-  </si>
-  <si>
-    <t>Please press the slider and drag to the far right</t>
   </si>
   <si>
     <t>输入正确内容修改密码成功</t>
@@ -469,6 +472,9 @@
     <t>Login</t>
   </si>
   <si>
+    <t>36</t>
+  </si>
+  <si>
     <t>不输入邮箱修下一步置灰</t>
   </si>
   <si>
@@ -479,13 +485,22 @@
     <t>class name=atn-btn-orange.ant-btn.ant-btn-lg.ant-btn-block</t>
   </si>
   <si>
+    <t>37</t>
+  </si>
+  <si>
     <t>不输入验证码下一步置灰</t>
   </si>
   <si>
+    <t>38</t>
+  </si>
+  <si>
     <t>不输入邮箱号点击发送验证码失败</t>
   </si>
   <si>
     <t>No such user information！</t>
+  </si>
+  <si>
+    <t>39</t>
   </si>
   <si>
     <t>输入错误邮箱发送验证码失败</t>
@@ -495,7 +510,13 @@
 newpassword=</t>
   </si>
   <si>
+    <t>40</t>
+  </si>
+  <si>
     <t>输入过期验证码点击下一步失败</t>
+  </si>
+  <si>
+    <t>41</t>
   </si>
   <si>
     <t>输入空密码修改失败</t>
@@ -511,6 +532,9 @@
     <t>css selector=#app &gt; div &gt; div.login-form-wrap &gt; div.login-form.margin-bottom &gt; form &gt; div:nth-child(3) &gt; div &gt; div &gt; span &gt; span:nth-child(2)</t>
   </si>
   <si>
+    <t>42</t>
+  </si>
+  <si>
     <t>输入7位纯数字修改失败</t>
   </si>
   <si>
@@ -518,6 +542,9 @@
 newpassword=1234567</t>
   </si>
   <si>
+    <t>43</t>
+  </si>
+  <si>
     <t>输入7位英文小写密码修改失败</t>
   </si>
   <si>
@@ -525,6 +552,9 @@
 newpassword=aaaaaaa</t>
   </si>
   <si>
+    <t>44</t>
+  </si>
+  <si>
     <t>输入7位英文大写密码修改失败</t>
   </si>
   <si>
@@ -532,6 +562,9 @@
 newpassword=AAAAAAA</t>
   </si>
   <si>
+    <t>45</t>
+  </si>
+  <si>
     <t>输入7位特殊字符密码修改失败</t>
   </si>
   <si>
@@ -539,6 +572,9 @@
 newpassword=!!!!!!!</t>
   </si>
   <si>
+    <t>46</t>
+  </si>
+  <si>
     <t>输入6位字母+数字密码更改成功</t>
   </si>
   <si>
@@ -546,6 +582,9 @@
 newpassword=a123456</t>
   </si>
   <si>
+    <t>47</t>
+  </si>
+  <si>
     <t>输入16位字母+数字更改成功</t>
   </si>
   <si>
@@ -553,6 +592,9 @@
 newpassword=a123456789123456</t>
   </si>
   <si>
+    <t>48</t>
+  </si>
+  <si>
     <t>输入5位字母+数字更改失败</t>
   </si>
   <si>
@@ -560,6 +602,9 @@
 newpassword=a1234</t>
   </si>
   <si>
+    <t>49</t>
+  </si>
+  <si>
     <t>更改密码成功后回退重新输入验证码</t>
   </si>
   <si>
@@ -570,6 +615,202 @@
   </si>
   <si>
     <t>Send verification code to email</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>输入修改过的密码更改失败</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>网站左上角存在帮助中心入口</t>
+  </si>
+  <si>
+    <t>帮助中心</t>
+  </si>
+  <si>
+    <t>存在帮助中心按钮</t>
+  </si>
+  <si>
+    <t>css selector=#app &gt; div &gt; div.global-header &gt; div &gt; div.top-menu &gt; a:nth-child(3)</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>点击帮助中心页面成功跳转</t>
+  </si>
+  <si>
+    <t>css selector=#app &gt; div &gt; div.ui-container &gt; div.content.page-help-content &gt; div:nth-child(1) &gt; div.text-tit-lg</t>
+  </si>
+  <si>
+    <t>Self-Service</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>点击Retrieve Password页面跳转到登录页面</t>
+  </si>
+  <si>
+    <t>存在Retrieve Password入口</t>
+  </si>
+  <si>
+    <t>Sign-In</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>登录状态点击Retrieve Password页面跳转到修改密码页面</t>
+  </si>
+  <si>
+    <t>Enter a new password</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>点击Change Email Address(Need to log in first)页面成功跳转至登录页面</t>
+  </si>
+  <si>
+    <t>存在Change Email Address(Need to log in first)入口</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>登录状态点击Change Email Address(Need to log in first)页面成功跳转至邮箱修改页面</t>
+  </si>
+  <si>
+    <t>Modify email</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>点击Auction payment balance页面正确跳转至登录页面</t>
+  </si>
+  <si>
+    <t>存在Auction payment balance入口</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>登录状态点击点击Auction payment balance页面正确跳转至拍卖页面</t>
+  </si>
+  <si>
+    <t>class name=text-tit-lg.margin-right-xs</t>
+  </si>
+  <si>
+    <t>View Auction List</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>点击 Order without payment页面正确跳转至登录页面</t>
+  </si>
+  <si>
+    <t>存在购物车入口</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>登录状态点击 Order without payment页面正确跳转至购物车页面</t>
+  </si>
+  <si>
+    <t>xpath=//*[@id="app"]/div/div/div[2]/div[1]/a</t>
+  </si>
+  <si>
+    <t>The shopping cart is still empty for the time being, go pick a few items right away</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>存在意见反馈模块</t>
+  </si>
+  <si>
+    <t>页面在帮助中心页面</t>
+  </si>
+  <si>
+    <t>css selector=#app &gt; div.page-myCenter.page-help.transparent-header.transparent &gt; div.ui-container &gt; div.content.page-help-content &gt; div.site-message.clearfix &gt; div.text-tit-lg.margin-bottom-xs</t>
+  </si>
+  <si>
+    <t>Site Message</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>登录状态意见反馈不输入任何内容发送失败</t>
+  </si>
+  <si>
+    <t>title=
+descript=</t>
+  </si>
+  <si>
+    <t>please enter the title</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>登录状态意见反馈不输入标题发送失败</t>
+  </si>
+  <si>
+    <t>title=
+descript=aaaaaaaaaaaaaaaaaaaaaa</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>登录状态意见反馈不输入内容发送失败</t>
+  </si>
+  <si>
+    <t>title=aaaaaaaaaaaaa
+descript=</t>
+  </si>
+  <si>
+    <t>please enter the content</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>登录状态意见反馈输入正确内容发送成功</t>
+  </si>
+  <si>
+    <t>title=aaaaaaaaaaaaa
+descript=aaaaaaaaaa</t>
+  </si>
+  <si>
+    <t>send success</t>
+  </si>
+  <si>
+    <t>点击导航栏导航栏伸缩成功</t>
+  </si>
+  <si>
+    <t>导航栏</t>
+  </si>
+  <si>
+    <t>首页</t>
+  </si>
+  <si>
+    <t>点击Full catalog进入所有类别页面</t>
+  </si>
+  <si>
+    <t>每个类存在相应的产品</t>
   </si>
 </sst>
 </file>
@@ -577,9 +818,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -624,7 +865,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -638,7 +886,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -652,22 +900,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -681,8 +921,16 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -690,7 +938,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -704,21 +952,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -727,11 +960,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -745,7 +978,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -753,37 +986,33 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -793,19 +1022,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -817,13 +1040,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,79 +1100,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,13 +1124,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -943,7 +1160,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -961,7 +1178,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -975,17 +1210,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1014,17 +1245,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1048,27 +1273,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1080,10 +1315,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1092,150 +1327,147 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1250,19 +1482,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1616,44 +1842,44 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="29" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="37.75" style="4" customWidth="1"/>
-    <col min="6" max="6" width="41.875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="4"/>
+    <col min="2" max="2" width="29" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="37.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="41.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.375" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1661,22 +1887,22 @@
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1684,22 +1910,22 @@
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1707,22 +1933,22 @@
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1730,22 +1956,22 @@
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1753,22 +1979,22 @@
       <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1776,22 +2002,22 @@
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1799,22 +2025,22 @@
       <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="8" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1822,25 +2048,25 @@
       <c r="A9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="2" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1848,46 +2074,46 @@
       <c r="A10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="8"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" ht="54" spans="1:7">
       <c r="A11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="2" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1895,22 +2121,22 @@
       <c r="A12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="4" t="b">
+      <c r="G12" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1918,22 +2144,22 @@
       <c r="A13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1941,36 +2167,36 @@
       <c r="A14" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="9" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" ht="27" spans="1:7">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="7" t="s">
         <v>55</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -1987,22 +2213,22 @@
       <c r="A16" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2010,22 +2236,22 @@
       <c r="A17" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="2" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2033,22 +2259,22 @@
       <c r="A18" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2056,22 +2282,22 @@
       <c r="A19" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="2" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2079,22 +2305,22 @@
       <c r="A20" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2102,22 +2328,22 @@
       <c r="A21" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2125,22 +2351,22 @@
       <c r="A22" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2148,22 +2374,22 @@
       <c r="A23" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2171,22 +2397,22 @@
       <c r="A24" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2194,22 +2420,22 @@
       <c r="A25" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2217,22 +2443,22 @@
       <c r="A26" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2240,22 +2466,22 @@
       <c r="A27" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2263,22 +2489,22 @@
       <c r="A28" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="2" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2286,22 +2512,22 @@
       <c r="A29" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="2" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2309,22 +2535,22 @@
       <c r="A30" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="2" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2332,22 +2558,22 @@
       <c r="A31" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2355,22 +2581,22 @@
       <c r="A32" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="2" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2378,22 +2604,22 @@
       <c r="A33" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" s="2" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2401,22 +2627,22 @@
       <c r="A34" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G34" s="2" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2424,323 +2650,727 @@
       <c r="A35" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G35" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="36" ht="54" spans="2:7">
-      <c r="B36" s="4" t="s">
+    <row r="36" ht="54" spans="1:7">
+      <c r="A36" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="B36" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="C36" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="D36" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="E36" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="F36" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="37" ht="28.5" spans="2:7">
-      <c r="B37" s="8" t="s">
+      <c r="G36" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D37" s="8" t="s">
+    </row>
+    <row r="37" ht="28.5" spans="1:7">
+      <c r="A37" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>143</v>
+      <c r="D37" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" ht="28.5" spans="2:7">
-      <c r="B38" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D38" s="8" t="s">
+    <row r="38" ht="28.5" spans="1:7">
+      <c r="A38" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="D38" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F38" s="4" t="s">
-        <v>143</v>
+      <c r="E38" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" ht="28.5" spans="2:7">
-      <c r="B39" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D39" s="8" t="s">
+    <row r="39" ht="28.5" spans="1:7">
+      <c r="A39" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F39" s="4" t="s">
+      <c r="D39" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G39" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="40" ht="28.5" spans="2:7">
-      <c r="B40" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D40" s="8" t="s">
+      <c r="G39" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" ht="28.5" spans="1:7">
+      <c r="A40" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E40" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="F40" s="4" t="s">
+      <c r="D40" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G40" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="41" ht="28.5" spans="2:7">
-      <c r="B41" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D41" s="13" t="s">
+      <c r="G40" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" ht="28.5" spans="1:7">
+      <c r="A41" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="D41" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="E41" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G41" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" ht="67.5" spans="2:7">
-      <c r="B42" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="G42" s="4" t="s">
+    <row r="42" ht="67.5" spans="1:7">
+      <c r="A42" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="43" ht="67.5" spans="2:7">
-      <c r="B43" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="G43" s="4" t="s">
+    <row r="43" ht="67.5" spans="1:7">
+      <c r="A43" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="44" ht="67.5" spans="2:7">
-      <c r="B44" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="G44" s="4" t="s">
+    <row r="44" ht="67.5" spans="1:7">
+      <c r="A44" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="45" ht="67.5" spans="2:7">
-      <c r="B45" s="14" t="s">
+    <row r="45" ht="67.5" spans="1:7">
+      <c r="A45" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C45" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="G45" s="4" t="s">
+      <c r="E45" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="46" ht="67.5" spans="2:7">
-      <c r="B46" s="14" t="s">
+    <row r="46" ht="67.5" spans="1:7">
+      <c r="A46" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C46" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="G46" s="4" t="s">
+      <c r="G46" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="47" ht="54" spans="2:7">
-      <c r="B47" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G47" s="4" t="s">
+    <row r="47" ht="54" spans="1:7">
+      <c r="A47" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="48" ht="54" spans="2:7">
-      <c r="B48" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G48" s="4" t="s">
+      <c r="G47" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="48" ht="54" spans="1:7">
+      <c r="A48" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="49" ht="67.5" spans="2:7">
-      <c r="B49" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="G49" s="4" t="s">
+      <c r="G48" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" ht="67.5" spans="1:7">
+      <c r="A49" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="50" ht="54" spans="2:7">
-      <c r="B50" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>171</v>
+    <row r="50" ht="54" spans="1:7">
+      <c r="A50" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="51" ht="54" spans="1:7">
+      <c r="A51" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="52" ht="40.5" spans="1:7">
+      <c r="A52" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="53" ht="40.5" spans="1:7">
+      <c r="A53" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="54" ht="28.5" spans="1:7">
+      <c r="A54" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="55" ht="42.75" spans="1:7">
+      <c r="A55" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="56" ht="42.75" spans="1:7">
+      <c r="A56" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="57" ht="54" spans="1:7">
+      <c r="A57" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="58" ht="40.5" spans="1:7">
+      <c r="A58" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="59" ht="40.5" spans="1:7">
+      <c r="A59" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="60" ht="27" spans="1:7">
+      <c r="A60" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="61" ht="94.5" spans="1:7">
+      <c r="A61" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="62" ht="81" spans="1:7">
+      <c r="A62" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="63" ht="28.5" spans="1:9">
+      <c r="A63" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+    </row>
+    <row r="64" ht="28.5" spans="1:7">
+      <c r="A64" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="65" ht="28.5" spans="1:7">
+      <c r="A65" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="66" ht="28.5" spans="1:7">
+      <c r="A66" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="67" ht="14.25" spans="2:4">
+      <c r="B67" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="68" ht="28.5" spans="2:4">
+      <c r="B68" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/data/UI自动化用测试用例.xlsx
+++ b/data/UI自动化用测试用例.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="280">
   <si>
     <t>用例编号</t>
   </si>
@@ -798,6 +798,9 @@
     <t>send success</t>
   </si>
   <si>
+    <t>66</t>
+  </si>
+  <si>
     <t>点击导航栏导航栏伸缩成功</t>
   </si>
   <si>
@@ -807,10 +810,94 @@
     <t>首页</t>
   </si>
   <si>
+    <t>67</t>
+  </si>
+  <si>
     <t>点击Full catalog进入所有类别页面</t>
   </si>
   <si>
     <t>每个类存在相应的产品</t>
+  </si>
+  <si>
+    <t>css selector=#app &gt; div &gt; div.ui-container &gt; div.content.category-content &gt; div.ant-breadcrumb &gt; span:nth-child(1) &gt; span.ant-breadcrumb-separator</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>鼠标悬停至导航栏相应类别中，显示该类别所包含的品牌信息成功</t>
+  </si>
+  <si>
+    <t>页面在首页，存在类型、品牌</t>
+  </si>
+  <si>
+    <t>css selector=#app &gt; div &gt; div.global-header &gt; div &gt; div.menu-content &gt; div.menu-left &gt; div.menu-out &gt; div.menu-lv-1.text-xs.border-radius-sm &gt; ul &gt; li:nth-child(1) &gt; div &gt; div.lv-2-list &gt; div &gt; div:nth-child(1) &gt; a</t>
+  </si>
+  <si>
+    <t>PRX</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>点击二级分类商品品牌跳转至该品牌页中，且商品成功显示</t>
+  </si>
+  <si>
+    <t>页面存在首页，存在类别、品牌、商品</t>
+  </si>
+  <si>
+    <t>css selector=#app &gt; div &gt; div.ui-container &gt; div.content.search-content &gt; div.result-list-out &gt; div &gt; div:nth-child(1) &gt; div.info &gt; div.title.text-black.margin-bottom-xs &gt; a</t>
+  </si>
+  <si>
+    <t>Schneider Soft S-1591</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>该品牌下无商品，品牌页面正确显示</t>
+  </si>
+  <si>
+    <t>页面存在首页、存在类别、品牌、该品牌不存在商品</t>
+  </si>
+  <si>
+    <t>xpath=//*[@id="app"]/div/div[2]/div[1]/div[2]/div</t>
+  </si>
+  <si>
+    <t>Haven't any goods</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>All Categories 页面可以点击类别快速移动到该类别所在页面位置</t>
+  </si>
+  <si>
+    <t>页面在ALL Categories页面</t>
+  </si>
+  <si>
+    <t>xpath=//*[@id="type7"]/div[2]/div[44]/a</t>
+  </si>
+  <si>
+    <t>PENTAIR</t>
+  </si>
+  <si>
+    <t>点击Manage recipient information跳转到地址管理页面成功</t>
+  </si>
+  <si>
+    <t>地址管理</t>
+  </si>
+  <si>
+    <t>登陆状态</t>
+  </si>
+  <si>
+    <t>css selector=#app &gt; div &gt; div.ui-container &gt; div.content.flex.space-between &gt; div &gt; div.title-1.flex.align-center &gt; span</t>
+  </si>
+  <si>
+    <t>Set as Default address</t>
   </si>
 </sst>
 </file>
@@ -1457,7 +1544,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1489,6 +1576,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1842,10 +1932,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K68"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3351,26 +3441,135 @@
         <v>245</v>
       </c>
     </row>
-    <row r="67" ht="14.25" spans="2:4">
+    <row r="67" ht="14.25" spans="1:4">
+      <c r="A67" s="3" t="s">
+        <v>246</v>
+      </c>
       <c r="B67" s="11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D67" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="68" ht="54" spans="1:7">
+      <c r="A68" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="C68" s="11" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="68" ht="28.5" spans="2:4">
-      <c r="B68" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>247</v>
-      </c>
       <c r="D68" s="11" t="s">
-        <v>250</v>
+        <v>252</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="69" ht="81" spans="1:7">
+      <c r="A69" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="70" ht="67.5" spans="1:7">
+      <c r="A70" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="71" ht="42.75" spans="1:7">
+      <c r="A71" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="72" ht="28.5" spans="1:7">
+      <c r="A72" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="73" ht="54" spans="2:7">
+      <c r="B73" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/data/UI自动化用测试用例.xlsx
+++ b/data/UI自动化用测试用例.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="376">
   <si>
     <t>用例编号</t>
   </si>
@@ -885,6 +885,9 @@
     <t>PENTAIR</t>
   </si>
   <si>
+    <t>72</t>
+  </si>
+  <si>
     <t>点击Manage recipient information跳转到地址管理页面成功</t>
   </si>
   <si>
@@ -898,6 +901,291 @@
   </si>
   <si>
     <t>Set as Default address</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>点击新增地址输入正确信息新增成功</t>
+  </si>
+  <si>
+    <t>登陆状态，地址管理页面</t>
+  </si>
+  <si>
+    <t>{"fistname":"fistname","lastname":"lastname","contactnumber":"contactnumber","coordinated_area1":"coordinated_area1","coordinated_area2":"coordinated_area2","coordinated_area3":"C2","coordinated_postalCode":"coordinated_postalCode","coordinated_addressLine":"coordinated_addressLine"}</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>点击set the address 设置默认地址成功</t>
+  </si>
+  <si>
+    <t>change success</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Address中provice不输入新增失败</t>
+  </si>
+  <si>
+    <t>{"fistname":"fistname","lastname":"lastname","contactnumber":"contactnumber","coordinated_area1":"","coordinated_area2":"coordinated_area2","coordinated_area3":"C2","coordinated_postalCode":"coordinated_postalCode","coordinated_addressLine":"coordinated_addressLine"}</t>
+  </si>
+  <si>
+    <t>class name=ant-form-explain</t>
+  </si>
+  <si>
+    <t>Please input province!</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>address中city不输入新增失败</t>
+  </si>
+  <si>
+    <t>{"fistname":"fistname","lastname":"lastname","contactnumber":"contactnumber","coordinated_area1":"coordinated_area1","coordinated_area2":"","coordinated_area3":"C2","coordinated_postalCode":"coordinated_postalCode","coordinated_addressLine":"coordinated_addressLine"}</t>
+  </si>
+  <si>
+    <t>Please input city!</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>address中country不选择新增失败</t>
+  </si>
+  <si>
+    <t>{"fistname":"fistname","lastname":"lastname","contactnumber":"contactnumber","coordinated_area1":"coordinated_area1","coordinated_area2":"coordinated_area2","coordinated_area3":"","coordinated_postalCode":"coordinated_postalCode","coordinated_addressLine":"coordinated_addressLine"}</t>
+  </si>
+  <si>
+    <t>Please input country!</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>post code不输入新增失败</t>
+  </si>
+  <si>
+    <t>{"fistname":"fistname","lastname":"lastname","contactnumber":"contactnumber","coordinated_area1":"coordinated_area1","coordinated_area2":"coordinated_area2","coordinated_area3":"C2","coordinated_postalCode":"","coordinated_addressLine":"coordinated_addressLine"}</t>
+  </si>
+  <si>
+    <t>Please input post code!</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>address details 不输入新增失败</t>
+  </si>
+  <si>
+    <t>{"fistname":"fistname","lastname":"lastname","contactnumber":"contactnumber","coordinated_area1":"coordinated_area1","coordinated_area2":"coordinated_area2","coordinated_area3":"C2","coordinated_postalCode":"coordinated_postalCode","coordinated_addressLine":""}</t>
+  </si>
+  <si>
+    <t>Please input Address details!</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>不输入firstname新增失败</t>
+  </si>
+  <si>
+    <t>{"fistname":"","lastname":"lastname","contactnumber":"contactnumber","coordinated_area1":"coordinated_area1","coordinated_area2":"coordinated_area2","coordinated_area3":"C2","coordinated_postalCode":"coordinated_postalCode","coordinated_addressLine":"coordinated_addressLine"}</t>
+  </si>
+  <si>
+    <t>Please input your first Name!</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>不输入lastname新增失败</t>
+  </si>
+  <si>
+    <t>{"fistname":"fistname","lastname":"","contactnumber":"contactnumber","coordinated_area1":"coordinated_area1","coordinated_area2":"coordinated_area2","coordinated_area3":"C2","coordinated_postalCode":"coordinated_postalCode","coordinated_addressLine":"coordinated_addressLine"}</t>
+  </si>
+  <si>
+    <t>Please input your first last Name!</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>都为空新增失败</t>
+  </si>
+  <si>
+    <t>{"fistname":"","lastname":"","contactnumber":"","coordinated_area1":"","coordinated_area2":"","coordinated_area3":"","coordinated_postalCode":"","coordinated_addressLine":""}</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>点击垃圾桶删除地址成功</t>
+  </si>
+  <si>
+    <t>delete success</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>点击 Edit address 输入正确信息修改地址成功</t>
+  </si>
+  <si>
+    <t>[{"fistname":"fistname","lastname":"lastname","contactnumber":"contactnumber","coordinated_area1":"coordinated_area1","coordinated_area2":"coordinated_area2","coordinated_area3":"C2","coordinated_postalCode":"coordinated_postalCode","coordinated_addressLine":"coordinated_addressLine"},{"fistname":"2","lastname":"2","contactnumber":"2","coordinated_area1":"2","coordinated_area2":"2","coordinated_area3":"C2","coordinated_postalCode":"2","coordinated_addressLine":"2"}]</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>不输入任何内容修改地址修改失败</t>
+  </si>
+  <si>
+    <t>[{"fistname":"fistname","lastname":"lastname","contactnumber":"contactnumber","coordinated_area1":"coordinated_area1","coordinated_area2":"coordinated_area2","coordinated_area3":"C2","coordinated_postalCode":"coordinated_postalCode","coordinated_addressLine":"coordinated_addressLine"},{"fistname":"","lastname":"","contactnumber":"","coordinated_area1":"","coordinated_area2":"","coordinated_area3":"","coordinated_postalCode":"","coordinated_addressLine":""}]</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>不输入First Name修改失败</t>
+  </si>
+  <si>
+    <t>[{"fistname":"fistname","lastname":"lastname","contactnumber":"contactnumber","coordinated_area1":"coordinated_area1","coordinated_area2":"coordinated_area2","coordinated_area3":"C2","coordinated_postalCode":"coordinated_postalCode","coordinated_addressLine":"coordinated_addressLine"},{"fistname":"","lastname":"2","contactnumber":"2","coordinated_area1":"2","coordinated_area2":"2","coordinated_area3":"C2","coordinated_postalCode":"2","coordinated_addressLine":"2"}]</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>不输入Last Name修改失败</t>
+  </si>
+  <si>
+    <t>[{"fistname":"fistname","lastname":"lastname","contactnumber":"contactnumber","coordinated_area1":"coordinated_area1","coordinated_area2":"coordinated_area2","coordinated_area3":"C2","coordinated_postalCode":"coordinated_postalCode","coordinated_addressLine":"coordinated_addressLine"},{"fistname":"2","lastname":"","contactnumber":"2","coordinated_area1":"2","coordinated_area2":"2","coordinated_area3":"C2","coordinated_postalCode":"2","coordinated_addressLine":"2"}]</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>不输入Contact number修改失败</t>
+  </si>
+  <si>
+    <t>[{"fistname":"fistname","lastname":"lastname","contactnumber":"contactnumber","coordinated_area1":"coordinated_area1","coordinated_area2":"coordinated_area2","coordinated_area3":"C2","coordinated_postalCode":"coordinated_postalCode","coordinated_addressLine":"coordinated_addressLine"},{"fistname":"2","lastname":"2","contactnumber":"","coordinated_area1":"2","coordinated_area2":"2","coordinated_area3":"C2","coordinated_postalCode":"2","coordinated_addressLine":"2"}]</t>
+  </si>
+  <si>
+    <t>Please input your phone number!</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>Address中provice不输入修改失败</t>
+  </si>
+  <si>
+    <t>[{"fistname":"fistname","lastname":"lastname","contactnumber":"contactnumber","coordinated_area1":"coordinated_area1","coordinated_area2":"coordinated_area2","coordinated_area3":"C2","coordinated_postalCode":"coordinated_postalCode","coordinated_addressLine":"coordinated_addressLine"},{"fistname":"2","lastname":"2","contactnumber":"2","coordinated_area1":"","coordinated_area2":"2","coordinated_area3":"C2","coordinated_postalCode":"2","coordinated_addressLine":"2"}]</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>address中city不输入修改失败</t>
+  </si>
+  <si>
+    <t>[{"fistname":"fistname","lastname":"lastname","contactnumber":"contactnumber","coordinated_area1":"coordinated_area1","coordinated_area2":"coordinated_area2","coordinated_area3":"C2","coordinated_postalCode":"coordinated_postalCode","coordinated_addressLine":"coordinated_addressLine"},{"fistname":"2","lastname":"2","contactnumber":"2","coordinated_area1":"2","coordinated_area2":"","coordinated_area3":"C2","coordinated_postalCode":"2","coordinated_addressLine":"2"}]</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>address中country不选择修改失败</t>
+  </si>
+  <si>
+    <t>[{"fistname":"fistname","lastname":"lastname","contactnumber":"contactnumber","coordinated_area1":"coordinated_area1","coordinated_area2":"coordinated_area2","coordinated_area3":"C2","coordinated_postalCode":"coordinated_postalCode","coordinated_addressLine":"coordinated_addressLine"},{"fistname":"2","lastname":"2","contactnumber":"2","coordinated_area1":"2","coordinated_area2":"2","coordinated_area3":"","coordinated_postalCode":"2","coordinated_addressLine":"2"}]</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>post code不输入修改失败</t>
+  </si>
+  <si>
+    <t>[{"fistname":"fistname","lastname":"lastname","contactnumber":"contactnumber","coordinated_area1":"coordinated_area1","coordinated_area2":"coordinated_area2","coordinated_area3":"C2","coordinated_postalCode":"coordinated_postalCode","coordinated_addressLine":"coordinated_addressLine"},{"fistname":"2","lastname":"2","contactnumber":"2","coordinated_area1":"2","coordinated_area2":"2","coordinated_area3":"C2","coordinated_postalCode":"","coordinated_addressLine":"2"}]</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>address details 不输入修改失败</t>
+  </si>
+  <si>
+    <t>[{"fistname":"fistname","lastname":"lastname","contactnumber":"contactnumber","coordinated_area1":"coordinated_area1","coordinated_area2":"coordinated_area2","coordinated_area3":"C2","coordinated_postalCode":"coordinated_postalCode","coordinated_addressLine":"coordinated_addressLine"},{"fistname":"2","lastname":"2","contactnumber":"2","coordinated_area1":"2","coordinated_area2":"2","coordinated_area3":"C2","coordinated_postalCode":"2","coordinated_addressLine":""}]</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>点击个人中心Order record 订单成功显示</t>
+  </si>
+  <si>
+    <t>订单管理</t>
+  </si>
+  <si>
+    <t>存在订单，登录状态</t>
+  </si>
+  <si>
+    <t>xpath=//*[@id="app"]/div/div[3]/div[1]/div/div[1]/div[2]/div/div[2]/div[1]</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>点击订单中的商品名称跳转商品详情成功</t>
+  </si>
+  <si>
+    <t>存在订单，登录状态，个人信息页面</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>点击查看物流查看成功</t>
+  </si>
+  <si>
+    <t>xpath=//*[@id="rcDialogTitle0"]</t>
+  </si>
+  <si>
+    <t>Logistics Modal</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>未支付订单点击未支付跳转到支付页面</t>
+  </si>
+  <si>
+    <t>存在未支付订单，登录状态，个人信息页面</t>
+  </si>
+  <si>
+    <t>class name=tit.text-center.text-black</t>
+  </si>
+  <si>
+    <t>Pay</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>点击order data可以根据订单时间进行排序</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>点击Total price可以根据订单金额进行排序</t>
   </si>
 </sst>
 </file>
@@ -905,9 +1193,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -950,9 +1238,30 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -966,49 +1275,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1032,15 +1306,30 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1063,6 +1352,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1073,7 +1369,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1081,14 +1377,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1103,7 +1391,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1115,13 +1451,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1133,7 +1499,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1145,13 +1517,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1163,85 +1541,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1253,37 +1565,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1323,11 +1611,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1341,17 +1635,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1402,10 +1690,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1414,137 +1702,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1578,11 +1866,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1932,10 +2226,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3445,13 +3739,13 @@
       <c r="A67" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C67" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="D67" s="11" t="s">
+      <c r="D67" s="7" t="s">
         <v>249</v>
       </c>
     </row>
@@ -3459,13 +3753,13 @@
       <c r="A68" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="B68" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C68" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="D68" s="11" t="s">
+      <c r="D68" s="7" t="s">
         <v>252</v>
       </c>
       <c r="F68" s="2" t="s">
@@ -3479,13 +3773,13 @@
       <c r="A69" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="B69" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C69" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="D69" s="11" t="s">
+      <c r="D69" s="7" t="s">
         <v>257</v>
       </c>
       <c r="F69" s="2" t="s">
@@ -3499,13 +3793,13 @@
       <c r="A70" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="B70" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C70" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="D70" s="11" t="s">
+      <c r="D70" s="7" t="s">
         <v>262</v>
       </c>
       <c r="F70" s="2" t="s">
@@ -3519,13 +3813,13 @@
       <c r="A71" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="B71" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C71" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="D71" s="11" t="s">
+      <c r="D71" s="7" t="s">
         <v>267</v>
       </c>
       <c r="F71" s="2" t="s">
@@ -3542,10 +3836,10 @@
       <c r="B72" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C72" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="D72" s="11" t="s">
+      <c r="D72" s="7" t="s">
         <v>272</v>
       </c>
       <c r="F72" s="2" t="s">
@@ -3555,21 +3849,610 @@
         <v>274</v>
       </c>
     </row>
-    <row r="73" ht="54" spans="2:7">
-      <c r="B73" s="11" t="s">
+    <row r="73" ht="54" spans="1:7">
+      <c r="A73" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="B73" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="D73" s="11" t="s">
+      <c r="C73" s="7" t="s">
         <v>277</v>
       </c>
+      <c r="D73" s="7" t="s">
+        <v>278</v>
+      </c>
       <c r="F73" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="74" ht="28.5" spans="1:7">
+      <c r="A74" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="75" ht="28.5" spans="1:7">
+      <c r="A75" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="76" ht="28.5" spans="1:7">
+      <c r="A76" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="77" ht="28.5" spans="1:7">
+      <c r="A77" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="78" ht="28.5" spans="1:7">
+      <c r="A78" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="79" ht="28.5" spans="1:7">
+      <c r="A79" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="80" ht="40.5" spans="1:7">
+      <c r="A80" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="81" ht="40.5" spans="1:7">
+      <c r="A81" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="82" ht="40.5" spans="1:7">
+      <c r="A82" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="83" ht="40.5" spans="1:7">
+      <c r="A83" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="84" ht="28.5" spans="1:7">
+      <c r="A84" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="85" ht="175.5" spans="1:7">
+      <c r="A85" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="86" ht="175.5" spans="1:7">
+      <c r="A86" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="87" ht="175.5" spans="1:7">
+      <c r="A87" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="88" ht="175.5" spans="1:7">
+      <c r="A88" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="89" ht="175.5" spans="1:7">
+      <c r="A89" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="90" ht="175.5" spans="1:7">
+      <c r="A90" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="91" ht="175.5" spans="1:7">
+      <c r="A91" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="92" ht="175.5" spans="1:7">
+      <c r="A92" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="93" ht="175.5" spans="1:7">
+      <c r="A93" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D93" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="94" ht="175.5" spans="1:7">
+      <c r="A94" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="95" ht="28.5" spans="1:7">
+      <c r="A95" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="D95" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="G95" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" ht="28.5" spans="1:4">
+      <c r="A96" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="97" ht="28.5" spans="1:7">
+      <c r="A97" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="D97" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="98" ht="42.75" spans="1:7">
+      <c r="A98" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="E98"/>
+      <c r="F98" t="s">
+        <v>370</v>
+      </c>
+      <c r="G98" s="14" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="99" ht="28.5" spans="1:4">
+      <c r="A99" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="D99" s="12" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="100" ht="28.5" spans="1:4">
+      <c r="A100" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>362</v>
       </c>
     </row>
   </sheetData>

--- a/data/UI自动化用测试用例.xlsx
+++ b/data/UI自动化用测试用例.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="374">
   <si>
     <t>用例编号</t>
   </si>
@@ -1041,90 +1041,6 @@
     <t>[{"fistname":"fistname","lastname":"lastname","contactnumber":"contactnumber","coordinated_area1":"coordinated_area1","coordinated_area2":"coordinated_area2","coordinated_area3":"C2","coordinated_postalCode":"coordinated_postalCode","coordinated_addressLine":"coordinated_addressLine"},{"fistname":"2","lastname":"2","contactnumber":"2","coordinated_area1":"2","coordinated_area2":"2","coordinated_area3":"C2","coordinated_postalCode":"2","coordinated_addressLine":"2"}]</t>
   </si>
   <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>不输入任何内容修改地址修改失败</t>
-  </si>
-  <si>
-    <t>[{"fistname":"fistname","lastname":"lastname","contactnumber":"contactnumber","coordinated_area1":"coordinated_area1","coordinated_area2":"coordinated_area2","coordinated_area3":"C2","coordinated_postalCode":"coordinated_postalCode","coordinated_addressLine":"coordinated_addressLine"},{"fistname":"","lastname":"","contactnumber":"","coordinated_area1":"","coordinated_area2":"","coordinated_area3":"","coordinated_postalCode":"","coordinated_addressLine":""}]</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>不输入First Name修改失败</t>
-  </si>
-  <si>
-    <t>[{"fistname":"fistname","lastname":"lastname","contactnumber":"contactnumber","coordinated_area1":"coordinated_area1","coordinated_area2":"coordinated_area2","coordinated_area3":"C2","coordinated_postalCode":"coordinated_postalCode","coordinated_addressLine":"coordinated_addressLine"},{"fistname":"","lastname":"2","contactnumber":"2","coordinated_area1":"2","coordinated_area2":"2","coordinated_area3":"C2","coordinated_postalCode":"2","coordinated_addressLine":"2"}]</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>不输入Last Name修改失败</t>
-  </si>
-  <si>
-    <t>[{"fistname":"fistname","lastname":"lastname","contactnumber":"contactnumber","coordinated_area1":"coordinated_area1","coordinated_area2":"coordinated_area2","coordinated_area3":"C2","coordinated_postalCode":"coordinated_postalCode","coordinated_addressLine":"coordinated_addressLine"},{"fistname":"2","lastname":"","contactnumber":"2","coordinated_area1":"2","coordinated_area2":"2","coordinated_area3":"C2","coordinated_postalCode":"2","coordinated_addressLine":"2"}]</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>不输入Contact number修改失败</t>
-  </si>
-  <si>
-    <t>[{"fistname":"fistname","lastname":"lastname","contactnumber":"contactnumber","coordinated_area1":"coordinated_area1","coordinated_area2":"coordinated_area2","coordinated_area3":"C2","coordinated_postalCode":"coordinated_postalCode","coordinated_addressLine":"coordinated_addressLine"},{"fistname":"2","lastname":"2","contactnumber":"","coordinated_area1":"2","coordinated_area2":"2","coordinated_area3":"C2","coordinated_postalCode":"2","coordinated_addressLine":"2"}]</t>
-  </si>
-  <si>
-    <t>Please input your phone number!</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>Address中provice不输入修改失败</t>
-  </si>
-  <si>
-    <t>[{"fistname":"fistname","lastname":"lastname","contactnumber":"contactnumber","coordinated_area1":"coordinated_area1","coordinated_area2":"coordinated_area2","coordinated_area3":"C2","coordinated_postalCode":"coordinated_postalCode","coordinated_addressLine":"coordinated_addressLine"},{"fistname":"2","lastname":"2","contactnumber":"2","coordinated_area1":"","coordinated_area2":"2","coordinated_area3":"C2","coordinated_postalCode":"2","coordinated_addressLine":"2"}]</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>address中city不输入修改失败</t>
-  </si>
-  <si>
-    <t>[{"fistname":"fistname","lastname":"lastname","contactnumber":"contactnumber","coordinated_area1":"coordinated_area1","coordinated_area2":"coordinated_area2","coordinated_area3":"C2","coordinated_postalCode":"coordinated_postalCode","coordinated_addressLine":"coordinated_addressLine"},{"fistname":"2","lastname":"2","contactnumber":"2","coordinated_area1":"2","coordinated_area2":"","coordinated_area3":"C2","coordinated_postalCode":"2","coordinated_addressLine":"2"}]</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>address中country不选择修改失败</t>
-  </si>
-  <si>
-    <t>[{"fistname":"fistname","lastname":"lastname","contactnumber":"contactnumber","coordinated_area1":"coordinated_area1","coordinated_area2":"coordinated_area2","coordinated_area3":"C2","coordinated_postalCode":"coordinated_postalCode","coordinated_addressLine":"coordinated_addressLine"},{"fistname":"2","lastname":"2","contactnumber":"2","coordinated_area1":"2","coordinated_area2":"2","coordinated_area3":"","coordinated_postalCode":"2","coordinated_addressLine":"2"}]</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>post code不输入修改失败</t>
-  </si>
-  <si>
-    <t>[{"fistname":"fistname","lastname":"lastname","contactnumber":"contactnumber","coordinated_area1":"coordinated_area1","coordinated_area2":"coordinated_area2","coordinated_area3":"C2","coordinated_postalCode":"coordinated_postalCode","coordinated_addressLine":"coordinated_addressLine"},{"fistname":"2","lastname":"2","contactnumber":"2","coordinated_area1":"2","coordinated_area2":"2","coordinated_area3":"C2","coordinated_postalCode":"","coordinated_addressLine":"2"}]</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>address details 不输入修改失败</t>
-  </si>
-  <si>
-    <t>[{"fistname":"fistname","lastname":"lastname","contactnumber":"contactnumber","coordinated_area1":"coordinated_area1","coordinated_area2":"coordinated_area2","coordinated_area3":"C2","coordinated_postalCode":"coordinated_postalCode","coordinated_addressLine":"coordinated_addressLine"},{"fistname":"2","lastname":"2","contactnumber":"2","coordinated_area1":"2","coordinated_area2":"2","coordinated_area3":"C2","coordinated_postalCode":"2","coordinated_addressLine":""}]</t>
-  </si>
-  <si>
     <t>94</t>
   </si>
   <si>
@@ -1186,6 +1102,98 @@
   </si>
   <si>
     <t>点击Total price可以根据订单金额进行排序</t>
+  </si>
+  <si>
+    <t>通过关键字及全文查找可以成功查询相同名称的订单</t>
+  </si>
+  <si>
+    <t>已签收订单点击退货申请进入退货页面成功</t>
+  </si>
+  <si>
+    <t>存在已签收订单</t>
+  </si>
+  <si>
+    <t>class name=tuik_top</t>
+  </si>
+  <si>
+    <t>Return application submission</t>
+  </si>
+  <si>
+    <t>退货页面不输入任何内容提交退货单失败</t>
+  </si>
+  <si>
+    <t>在退货单填写页面</t>
+  </si>
+  <si>
+    <t>reason=Quality issues
+text=
+img=null</t>
+  </si>
+  <si>
+    <t>please input your reason</t>
+  </si>
+  <si>
+    <t>Quality issues</t>
+  </si>
+  <si>
+    <t>退货页面不上传图片提交退货单失败</t>
+  </si>
+  <si>
+    <t>reason=Wrong order inform ation
+text=123412412
+img=null</t>
+  </si>
+  <si>
+    <t>Wrong order inform ation</t>
+  </si>
+  <si>
+    <t>退货页面输入正确信息提交退货单成功</t>
+  </si>
+  <si>
+    <t>reason=Model error
+text=123412412
+img=C:\Users\admin\Desktop\Lipton-logo.jpg</t>
+  </si>
+  <si>
+    <t>Model error</t>
+  </si>
+  <si>
+    <t>使用Quality issues提交退货单成功</t>
+  </si>
+  <si>
+    <t>reason=Quality issues
+text=123412412
+img=C:\Users\admin\Desktop\Lipton-logo.jpg</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>使用Wrong order inform 提交退货单成功</t>
+  </si>
+  <si>
+    <t>reason=Wrong order inform ation
+text=123412412
+img=C:\Users\admin\Desktop\Lipton-logo.jpg</t>
+  </si>
+  <si>
+    <t>使用other提交退货单成功</t>
+  </si>
+  <si>
+    <t>reason=other
+text=123412412
+img=C:\Users\admin\Desktop\Lipton-logo.jpg</t>
+  </si>
+  <si>
+    <t>使用视频文件提交退货单失败</t>
+  </si>
+  <si>
+    <t>reason=other
+text=123412412
+img=D:\测试工作文件夹\测试常用文件类型测试\6.mp4</t>
+  </si>
+  <si>
+    <t>fail</t>
   </si>
 </sst>
 </file>
@@ -1238,10 +1246,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1254,21 +1263,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1281,17 +1283,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1306,30 +1306,30 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1345,6 +1345,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1352,8 +1360,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1361,22 +1370,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1391,19 +1399,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1415,31 +1441,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1451,25 +1459,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1487,19 +1483,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1511,7 +1549,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1523,55 +1561,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1587,11 +1595,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1607,6 +1628,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1637,9 +1673,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1647,38 +1685,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1690,10 +1698,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1702,133 +1710,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1869,14 +1877,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2228,8 +2236,8 @@
   <sheetPr/>
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="E105" sqref="E105"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2238,9 +2246,9 @@
     <col min="2" max="2" width="29" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="17.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="37.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="41.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="30.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="55.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="30.375" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -3942,13 +3950,13 @@
       <c r="A77" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="B77" s="12" t="s">
+      <c r="B77" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="C77" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="D77" s="12" t="s">
+      <c r="D77" s="7" t="s">
         <v>283</v>
       </c>
       <c r="E77" s="11" t="s">
@@ -3965,13 +3973,13 @@
       <c r="A78" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="C78" s="12" t="s">
+      <c r="C78" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="D78" s="12" t="s">
+      <c r="D78" s="7" t="s">
         <v>283</v>
       </c>
       <c r="E78" s="11" t="s">
@@ -3988,13 +3996,13 @@
       <c r="A79" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="B79" s="12" t="s">
+      <c r="B79" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="C79" s="12" t="s">
+      <c r="C79" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="D79" s="12" t="s">
+      <c r="D79" s="7" t="s">
         <v>283</v>
       </c>
       <c r="E79" s="11" t="s">
@@ -4014,10 +4022,10 @@
       <c r="B80" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C80" s="12" t="s">
+      <c r="C80" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="D80" s="12" t="s">
+      <c r="D80" s="7" t="s">
         <v>283</v>
       </c>
       <c r="E80" s="11" t="s">
@@ -4037,10 +4045,10 @@
       <c r="B81" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C81" s="12" t="s">
+      <c r="C81" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="D81" s="12" t="s">
+      <c r="D81" s="7" t="s">
         <v>283</v>
       </c>
       <c r="E81" s="11" t="s">
@@ -4060,10 +4068,10 @@
       <c r="B82" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C82" s="12" t="s">
+      <c r="C82" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="D82" s="12" t="s">
+      <c r="D82" s="7" t="s">
         <v>283</v>
       </c>
       <c r="E82" s="11" t="s">
@@ -4083,10 +4091,10 @@
       <c r="B83" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="C83" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="D83" s="12" t="s">
+      <c r="D83" s="7" t="s">
         <v>283</v>
       </c>
       <c r="E83" s="11" t="s">
@@ -4103,13 +4111,13 @@
       <c r="A84" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="B84" s="12" t="s">
+      <c r="B84" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="C84" s="12" t="s">
+      <c r="C84" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="D84" s="12" t="s">
+      <c r="D84" s="7" t="s">
         <v>283</v>
       </c>
       <c r="E84" s="11" t="s">
@@ -4126,13 +4134,13 @@
       <c r="A85" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="B85" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="C85" s="13" t="s">
+      <c r="C85" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="D85" s="12" t="s">
+      <c r="D85" s="7" t="s">
         <v>283</v>
       </c>
       <c r="E85" s="2" t="s">
@@ -4145,314 +4153,287 @@
         <v>285</v>
       </c>
     </row>
-    <row r="86" ht="175.5" spans="1:7">
+    <row r="86" ht="28.5" spans="1:7">
       <c r="A86" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="B86" s="12" t="s">
+      <c r="B86" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="C86" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="D86" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="E86" s="2" t="s">
+      <c r="C86" s="7" t="s">
         <v>329</v>
       </c>
+      <c r="D86" s="7" t="s">
+        <v>330</v>
+      </c>
       <c r="F86" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="87" ht="175.5" spans="1:7">
+        <v>331</v>
+      </c>
+      <c r="G86" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" ht="28.5" spans="1:4">
       <c r="A87" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="B87" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="C87" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="D87" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="E87" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="F87" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="88" ht="175.5" spans="1:7">
+      <c r="B87" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="88" ht="28.5" spans="1:7">
       <c r="A88" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="B88" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="D88" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="C88" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="D88" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>335</v>
-      </c>
       <c r="F88" s="2" t="s">
-        <v>292</v>
+        <v>337</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="89" ht="175.5" spans="1:7">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="89" ht="42.75" spans="1:7">
       <c r="A89" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="B89" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="C89" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="D89" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="G89" s="2" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="90" ht="175.5" spans="1:7">
+      <c r="B89" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="E89"/>
+      <c r="F89" t="s">
+        <v>342</v>
+      </c>
+      <c r="G89" s="12" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="90" ht="28.5" spans="1:4">
       <c r="A90" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C90" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="D90" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="91" ht="175.5" spans="1:7">
+        <v>344</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="91" ht="28.5" spans="1:4">
       <c r="A91" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="B91" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="C91" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="D91" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="92" ht="175.5" spans="1:7">
-      <c r="A92" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B92" s="12" t="s">
+      <c r="B91" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="C92" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="D92" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="E92" s="2" t="s">
+      <c r="C91" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="92" ht="28.5" spans="2:4">
+      <c r="B92" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="F92" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="93" ht="175.5" spans="1:7">
-      <c r="A93" s="3" t="s">
+      <c r="C92" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="93" ht="40.5" spans="2:7">
+      <c r="B93" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="B93" s="12" t="s">
+      <c r="C93" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D93" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="C93" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="D93" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="E93" s="2" t="s">
+      <c r="F93" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F93" s="2" t="s">
-        <v>292</v>
-      </c>
       <c r="G93" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="94" ht="175.5" spans="1:7">
-      <c r="A94" s="3" t="s">
         <v>352</v>
       </c>
+    </row>
+    <row r="94" ht="40.5" spans="2:10">
       <c r="B94" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="C94" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="D94" s="12" t="s">
-        <v>283</v>
+      <c r="C94" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>354</v>
       </c>
       <c r="E94" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F94" t="s">
+        <v>47</v>
+      </c>
+      <c r="G94" t="s">
+        <v>356</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="95" ht="54" spans="2:10">
+      <c r="B95" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C95" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="F94" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="95" ht="28.5" spans="1:7">
-      <c r="A95" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="B95" s="12" t="s">
+      <c r="E95" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F95" t="s">
+        <v>47</v>
+      </c>
+      <c r="G95" t="s">
         <v>356</v>
       </c>
-      <c r="C95" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="D95" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="G95" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" ht="28.5" spans="1:4">
-      <c r="A96" s="3" t="s">
+      <c r="J95" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B96" s="12" t="s">
+    </row>
+    <row r="96" ht="54" spans="2:10">
+      <c r="B96" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C96" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="D96" s="12" t="s">
+      <c r="C96" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="97" ht="28.5" spans="1:7">
-      <c r="A97" s="3" t="s">
+      <c r="F96" t="s">
+        <v>47</v>
+      </c>
+      <c r="G96" t="s">
+        <v>285</v>
+      </c>
+      <c r="J96" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="B97" s="12" t="s">
+    </row>
+    <row r="97" ht="54" spans="2:10">
+      <c r="B97" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C97" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="D97" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="F97" s="2" t="s">
+      <c r="C97" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="G97" s="2" t="s">
+      <c r="F97" t="s">
+        <v>47</v>
+      </c>
+      <c r="G97" t="s">
+        <v>285</v>
+      </c>
+      <c r="J97" s="2" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="98" ht="42.75" spans="1:7">
-      <c r="A98" s="3" t="s">
+    <row r="98" ht="67.5" spans="2:7">
+      <c r="B98" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B98" s="12" t="s">
+      <c r="C98" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C98" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="D98" s="12" t="s">
+      <c r="F98" t="s">
+        <v>47</v>
+      </c>
+      <c r="G98" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="99" ht="54" spans="2:7">
+      <c r="B99" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="E98"/>
-      <c r="F98" t="s">
+      <c r="C99" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="G98" s="14" t="s">
+      <c r="F99" t="s">
+        <v>47</v>
+      </c>
+      <c r="G99" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="100" ht="54" spans="2:7">
+      <c r="B100" s="2" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="99" ht="28.5" spans="1:4">
-      <c r="A99" s="3" t="s">
+      <c r="C100" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="B99" s="12" t="s">
+      <c r="F100" t="s">
+        <v>47</v>
+      </c>
+      <c r="G100" t="s">
         <v>373</v>
-      </c>
-      <c r="C99" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="D99" s="12" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="100" ht="28.5" spans="1:4">
-      <c r="A100" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="B100" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="C100" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="D100" s="12" t="s">
-        <v>362</v>
       </c>
     </row>
   </sheetData>

--- a/data/UI自动化用测试用例.xlsx
+++ b/data/UI自动化用测试用例.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="382">
   <si>
     <t>用例编号</t>
   </si>
@@ -1194,6 +1194,32 @@
   </si>
   <si>
     <t>fail</t>
+  </si>
+  <si>
+    <t>点击账户名称进入个人信息修改页面成功</t>
+  </si>
+  <si>
+    <t>个人信息修改</t>
+  </si>
+  <si>
+    <t>在个人中心页面</t>
+  </si>
+  <si>
+    <t>class name=text-tit-lg.text-center</t>
+  </si>
+  <si>
+    <t>Data modification</t>
+  </si>
+  <si>
+    <t>输入正确信息修改成功</t>
+  </si>
+  <si>
+    <t>first_name=null
+last_name=null
+company=null</t>
+  </si>
+  <si>
+    <t>Success!</t>
   </si>
 </sst>
 </file>
@@ -2234,10 +2260,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K100"/>
+  <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+      <selection activeCell="F102" sqref="F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4434,6 +4460,43 @@
       </c>
       <c r="G100" t="s">
         <v>373</v>
+      </c>
+    </row>
+    <row r="101" ht="27" spans="2:7">
+      <c r="B101" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="102" ht="40.5" spans="2:7">
+      <c r="B102" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>381</v>
       </c>
     </row>
   </sheetData>

--- a/data/UI自动化用测试用例.xlsx
+++ b/data/UI自动化用测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView windowWidth="22488" windowHeight="9227"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="383">
   <si>
     <t>用例编号</t>
   </si>
@@ -1142,6 +1142,9 @@
     <t>reason=Wrong order inform ation
 text=123412412
 img=null</t>
+  </si>
+  <si>
+    <t>please upload the image</t>
   </si>
   <si>
     <t>Wrong order inform ation</t>
@@ -1227,10 +1230,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1272,11 +1275,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1287,16 +1289,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1310,22 +1327,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1334,37 +1336,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1379,7 +1350,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1387,8 +1358,16 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1403,7 +1382,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1411,6 +1406,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1425,43 +1428,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1479,24 +1458,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1509,7 +1470,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1521,7 +1524,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1533,49 +1536,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1593,19 +1560,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1622,23 +1625,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1692,7 +1689,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1708,11 +1705,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1724,10 +1727,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1736,137 +1739,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1905,12 +1908,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2263,18 +2260,18 @@
   <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="F102" sqref="F102"/>
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.3796296296296" style="3" customWidth="1"/>
     <col min="2" max="2" width="29" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.8796296296296" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.6296296296296" style="2" customWidth="1"/>
     <col min="5" max="5" width="30.75" style="2" customWidth="1"/>
     <col min="6" max="6" width="55.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="30.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="30.3796296296296" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -2301,7 +2298,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="28.5" spans="1:7">
+    <row r="2" ht="46.8" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -2324,7 +2321,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" ht="71.25" spans="1:7">
+    <row r="3" ht="62.4" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -2347,7 +2344,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" ht="71.25" spans="1:7">
+    <row r="4" ht="62.4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -2370,7 +2367,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" ht="71.25" spans="1:7">
+    <row r="5" ht="62.4" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -2393,7 +2390,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" ht="71.25" spans="1:7">
+    <row r="6" ht="62.4" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
@@ -2416,7 +2413,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" ht="71.25" spans="1:7">
+    <row r="7" ht="62.4" spans="1:7">
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
@@ -2439,7 +2436,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" ht="27" spans="1:7">
+    <row r="8" ht="31.2" spans="1:7">
       <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
@@ -2462,7 +2459,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" ht="27" spans="1:11">
+    <row r="9" ht="15.6" spans="1:11">
       <c r="A9" s="3" t="s">
         <v>38</v>
       </c>
@@ -2488,7 +2485,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" ht="42.75" spans="1:8">
+    <row r="10" ht="31.2" spans="1:8">
       <c r="A10" s="3" t="s">
         <v>44</v>
       </c>
@@ -2512,7 +2509,7 @@
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" ht="54" spans="1:7">
+    <row r="11" ht="28.8" spans="1:7">
       <c r="A11" s="3" t="s">
         <v>49</v>
       </c>
@@ -2535,7 +2532,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:7">
+    <row r="12" ht="31.2" spans="1:7">
       <c r="A12" s="3" t="s">
         <v>53</v>
       </c>
@@ -2558,7 +2555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="27" spans="1:7">
+    <row r="13" ht="31.2" spans="1:7">
       <c r="A13" s="3" t="s">
         <v>57</v>
       </c>
@@ -2581,7 +2578,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:7">
+    <row r="14" ht="31.2" spans="1:7">
       <c r="A14" s="3" t="s">
         <v>61</v>
       </c>
@@ -2604,7 +2601,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" ht="27" spans="1:7">
+    <row r="15" s="2" customFormat="1" ht="31.2" spans="1:7">
       <c r="A15" s="3" t="s">
         <v>65</v>
       </c>
@@ -2627,7 +2624,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" ht="67.5" spans="1:7">
+    <row r="16" ht="46.8" spans="1:7">
       <c r="A16" s="3" t="s">
         <v>67</v>
       </c>
@@ -2650,7 +2647,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" ht="54" spans="1:7">
+    <row r="17" ht="46.8" spans="1:7">
       <c r="A17" s="3" t="s">
         <v>73</v>
       </c>
@@ -2673,7 +2670,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" ht="67.5" spans="1:7">
+    <row r="18" ht="46.8" spans="1:7">
       <c r="A18" s="3" t="s">
         <v>78</v>
       </c>
@@ -2696,7 +2693,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" ht="54" spans="1:7">
+    <row r="19" ht="46.8" spans="1:7">
       <c r="A19" s="3" t="s">
         <v>81</v>
       </c>
@@ -2719,7 +2716,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" ht="67.5" spans="1:7">
+    <row r="20" ht="46.8" spans="1:7">
       <c r="A20" s="3" t="s">
         <v>84</v>
       </c>
@@ -2742,7 +2739,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" ht="67.5" spans="1:7">
+    <row r="21" ht="46.8" spans="1:7">
       <c r="A21" s="3" t="s">
         <v>87</v>
       </c>
@@ -2765,7 +2762,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" ht="67.5" spans="1:7">
+    <row r="22" ht="46.8" spans="1:7">
       <c r="A22" s="3" t="s">
         <v>90</v>
       </c>
@@ -2788,7 +2785,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" ht="67.5" spans="1:7">
+    <row r="23" ht="46.8" spans="1:7">
       <c r="A23" s="3" t="s">
         <v>93</v>
       </c>
@@ -2811,7 +2808,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" ht="67.5" spans="1:7">
+    <row r="24" ht="46.8" spans="1:7">
       <c r="A24" s="3" t="s">
         <v>96</v>
       </c>
@@ -2834,7 +2831,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" ht="67.5" spans="1:7">
+    <row r="25" ht="46.8" spans="1:7">
       <c r="A25" s="3" t="s">
         <v>99</v>
       </c>
@@ -2857,7 +2854,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" ht="67.5" spans="1:7">
+    <row r="26" ht="46.8" spans="1:7">
       <c r="A26" s="3" t="s">
         <v>102</v>
       </c>
@@ -2880,7 +2877,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" ht="67.5" spans="1:7">
+    <row r="27" ht="46.8" spans="1:7">
       <c r="A27" s="3" t="s">
         <v>105</v>
       </c>
@@ -2903,7 +2900,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" ht="54" spans="1:7">
+    <row r="28" ht="46.8" spans="1:7">
       <c r="A28" s="3" t="s">
         <v>108</v>
       </c>
@@ -2926,7 +2923,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" ht="54" spans="1:7">
+    <row r="29" ht="46.8" spans="1:7">
       <c r="A29" s="3" t="s">
         <v>111</v>
       </c>
@@ -2949,7 +2946,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" ht="54" spans="1:7">
+    <row r="30" ht="46.8" spans="1:7">
       <c r="A30" s="3" t="s">
         <v>114</v>
       </c>
@@ -2972,7 +2969,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" ht="67.5" spans="1:7">
+    <row r="31" ht="46.8" spans="1:7">
       <c r="A31" s="3" t="s">
         <v>117</v>
       </c>
@@ -2995,7 +2992,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" ht="54" spans="1:7">
+    <row r="32" ht="46.8" spans="1:7">
       <c r="A32" s="3" t="s">
         <v>120</v>
       </c>
@@ -3018,7 +3015,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" ht="27" spans="1:7">
+    <row r="33" ht="43.2" spans="1:7">
       <c r="A33" s="3" t="s">
         <v>123</v>
       </c>
@@ -3041,7 +3038,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="34" ht="27" spans="1:7">
+    <row r="34" ht="43.2" spans="1:7">
       <c r="A34" s="3" t="s">
         <v>129</v>
       </c>
@@ -3064,7 +3061,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="35" ht="54" spans="1:7">
+    <row r="35" ht="43.2" spans="1:7">
       <c r="A35" s="3" t="s">
         <v>131</v>
       </c>
@@ -3087,7 +3084,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" ht="54" spans="1:7">
+    <row r="36" ht="43.2" spans="1:7">
       <c r="A36" s="3" t="s">
         <v>135</v>
       </c>
@@ -3110,7 +3107,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="37" ht="28.5" spans="1:7">
+    <row r="37" ht="31.2" spans="1:7">
       <c r="A37" s="3" t="s">
         <v>142</v>
       </c>
@@ -3133,7 +3130,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" ht="28.5" spans="1:7">
+    <row r="38" ht="43.2" spans="1:7">
       <c r="A38" s="3" t="s">
         <v>146</v>
       </c>
@@ -3156,7 +3153,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" ht="28.5" spans="1:7">
+    <row r="39" ht="31.2" spans="1:7">
       <c r="A39" s="3" t="s">
         <v>148</v>
       </c>
@@ -3179,7 +3176,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" ht="28.5" spans="1:7">
+    <row r="40" ht="31.2" spans="1:7">
       <c r="A40" s="3" t="s">
         <v>151</v>
       </c>
@@ -3202,7 +3199,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="41" ht="28.5" spans="1:7">
+    <row r="41" ht="43.2" spans="1:7">
       <c r="A41" s="3" t="s">
         <v>154</v>
       </c>
@@ -3225,7 +3222,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" ht="67.5" spans="1:7">
+    <row r="42" ht="43.2" spans="1:7">
       <c r="A42" s="3" t="s">
         <v>156</v>
       </c>
@@ -3248,7 +3245,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" ht="67.5" spans="1:7">
+    <row r="43" ht="43.2" spans="1:7">
       <c r="A43" s="3" t="s">
         <v>161</v>
       </c>
@@ -3271,7 +3268,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" ht="67.5" spans="1:7">
+    <row r="44" ht="43.2" spans="1:7">
       <c r="A44" s="3" t="s">
         <v>164</v>
       </c>
@@ -3294,7 +3291,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" ht="67.5" spans="1:7">
+    <row r="45" ht="43.2" spans="1:7">
       <c r="A45" s="3" t="s">
         <v>167</v>
       </c>
@@ -3317,7 +3314,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="46" ht="67.5" spans="1:7">
+    <row r="46" ht="43.2" spans="1:7">
       <c r="A46" s="3" t="s">
         <v>170</v>
       </c>
@@ -3340,7 +3337,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" ht="54" spans="1:7">
+    <row r="47" ht="43.2" spans="1:7">
       <c r="A47" s="3" t="s">
         <v>173</v>
       </c>
@@ -3363,7 +3360,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="48" ht="54" spans="1:7">
+    <row r="48" ht="43.2" spans="1:7">
       <c r="A48" s="3" t="s">
         <v>176</v>
       </c>
@@ -3386,7 +3383,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="49" ht="67.5" spans="1:7">
+    <row r="49" ht="43.2" spans="1:7">
       <c r="A49" s="3" t="s">
         <v>179</v>
       </c>
@@ -3409,7 +3406,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" ht="54" spans="1:7">
+    <row r="50" ht="43.2" spans="1:7">
       <c r="A50" s="3" t="s">
         <v>182</v>
       </c>
@@ -3432,7 +3429,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="51" ht="54" spans="1:7">
+    <row r="51" ht="43.2" spans="1:7">
       <c r="A51" s="3" t="s">
         <v>187</v>
       </c>
@@ -3455,7 +3452,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="52" ht="40.5" spans="1:7">
+    <row r="52" ht="31.2" spans="1:7">
       <c r="A52" s="3" t="s">
         <v>189</v>
       </c>
@@ -3475,7 +3472,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="53" ht="40.5" spans="1:7">
+    <row r="53" ht="43.2" spans="1:7">
       <c r="A53" s="3" t="s">
         <v>195</v>
       </c>
@@ -3495,7 +3492,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="54" ht="28.5" spans="1:7">
+    <row r="54" ht="31.2" spans="1:7">
       <c r="A54" s="3" t="s">
         <v>199</v>
       </c>
@@ -3515,7 +3512,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="55" ht="42.75" spans="1:7">
+    <row r="55" ht="46.8" spans="1:7">
       <c r="A55" s="3" t="s">
         <v>203</v>
       </c>
@@ -3535,7 +3532,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="56" ht="42.75" spans="1:7">
+    <row r="56" ht="78" spans="1:7">
       <c r="A56" s="3" t="s">
         <v>206</v>
       </c>
@@ -3555,7 +3552,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="57" ht="54" spans="1:7">
+    <row r="57" ht="78" spans="1:7">
       <c r="A57" s="3" t="s">
         <v>209</v>
       </c>
@@ -3575,7 +3572,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="58" ht="40.5" spans="1:7">
+    <row r="58" ht="43.2" spans="1:7">
       <c r="A58" s="3" t="s">
         <v>212</v>
       </c>
@@ -3595,7 +3592,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="59" ht="40.5" spans="1:7">
+    <row r="59" ht="43.2" spans="1:7">
       <c r="A59" s="3" t="s">
         <v>215</v>
       </c>
@@ -3615,7 +3612,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="60" ht="27" spans="1:7">
+    <row r="60" ht="28.8" spans="1:7">
       <c r="A60" s="3" t="s">
         <v>219</v>
       </c>
@@ -3635,7 +3632,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="61" ht="94.5" spans="1:7">
+    <row r="61" ht="43.2" spans="1:7">
       <c r="A61" s="3" t="s">
         <v>222</v>
       </c>
@@ -3655,7 +3652,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="62" ht="81" spans="1:7">
+    <row r="62" ht="57.6" spans="1:7">
       <c r="A62" s="3" t="s">
         <v>226</v>
       </c>
@@ -3675,7 +3672,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="63" ht="28.5" spans="1:9">
+    <row r="63" ht="31.2" spans="1:9">
       <c r="A63" s="3" t="s">
         <v>231</v>
       </c>
@@ -3700,7 +3697,7 @@
       <c r="H63" s="10"/>
       <c r="I63" s="10"/>
     </row>
-    <row r="64" ht="28.5" spans="1:7">
+    <row r="64" ht="43.2" spans="1:7">
       <c r="A64" s="3" t="s">
         <v>235</v>
       </c>
@@ -3723,7 +3720,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="65" ht="28.5" spans="1:7">
+    <row r="65" ht="31.2" spans="1:7">
       <c r="A65" s="3" t="s">
         <v>238</v>
       </c>
@@ -3746,7 +3743,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="66" ht="28.5" spans="1:7">
+    <row r="66" ht="31.2" spans="1:7">
       <c r="A66" s="3" t="s">
         <v>242</v>
       </c>
@@ -3769,7 +3766,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="67" ht="14.25" spans="1:4">
+    <row r="67" ht="15.6" spans="1:4">
       <c r="A67" s="3" t="s">
         <v>246</v>
       </c>
@@ -3783,7 +3780,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="68" ht="54" spans="1:7">
+    <row r="68" ht="43.2" spans="1:7">
       <c r="A68" s="3" t="s">
         <v>250</v>
       </c>
@@ -3803,7 +3800,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="69" ht="81" spans="1:7">
+    <row r="69" ht="72" spans="1:7">
       <c r="A69" s="3" t="s">
         <v>255</v>
       </c>
@@ -3823,7 +3820,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="70" ht="67.5" spans="1:7">
+    <row r="70" ht="57.6" spans="1:7">
       <c r="A70" s="3" t="s">
         <v>260</v>
       </c>
@@ -3843,7 +3840,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="71" ht="42.75" spans="1:7">
+    <row r="71" ht="62.4" spans="1:7">
       <c r="A71" s="3" t="s">
         <v>265</v>
       </c>
@@ -3863,7 +3860,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="72" ht="28.5" spans="1:7">
+    <row r="72" ht="43.2" spans="1:7">
       <c r="A72" s="3" t="s">
         <v>270</v>
       </c>
@@ -3883,7 +3880,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="73" ht="54" spans="1:7">
+    <row r="73" ht="46.8" spans="1:7">
       <c r="A73" s="3" t="s">
         <v>275</v>
       </c>
@@ -3903,7 +3900,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="74" ht="28.5" spans="1:7">
+    <row r="74" ht="31.2" spans="1:7">
       <c r="A74" s="3" t="s">
         <v>281</v>
       </c>
@@ -3926,7 +3923,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="75" ht="28.5" spans="1:7">
+    <row r="75" ht="31.2" spans="1:7">
       <c r="A75" s="3" t="s">
         <v>286</v>
       </c>
@@ -3949,7 +3946,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="76" ht="28.5" spans="1:7">
+    <row r="76" ht="31.2" spans="1:7">
       <c r="A76" s="3" t="s">
         <v>289</v>
       </c>
@@ -3972,7 +3969,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="77" ht="28.5" spans="1:7">
+    <row r="77" ht="31.2" spans="1:7">
       <c r="A77" s="3" t="s">
         <v>294</v>
       </c>
@@ -3995,7 +3992,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="78" ht="28.5" spans="1:7">
+    <row r="78" ht="31.2" spans="1:7">
       <c r="A78" s="3" t="s">
         <v>298</v>
       </c>
@@ -4018,7 +4015,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="79" ht="28.5" spans="1:7">
+    <row r="79" ht="31.2" spans="1:7">
       <c r="A79" s="3" t="s">
         <v>302</v>
       </c>
@@ -4041,7 +4038,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="80" ht="40.5" spans="1:7">
+    <row r="80" ht="31.2" spans="1:7">
       <c r="A80" s="3" t="s">
         <v>306</v>
       </c>
@@ -4064,7 +4061,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="81" ht="40.5" spans="1:7">
+    <row r="81" ht="31.2" spans="1:7">
       <c r="A81" s="3" t="s">
         <v>310</v>
       </c>
@@ -4087,7 +4084,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="82" ht="40.5" spans="1:7">
+    <row r="82" ht="31.2" spans="1:7">
       <c r="A82" s="3" t="s">
         <v>314</v>
       </c>
@@ -4110,7 +4107,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="83" ht="40.5" spans="1:7">
+    <row r="83" ht="31.2" spans="1:7">
       <c r="A83" s="3" t="s">
         <v>318</v>
       </c>
@@ -4133,7 +4130,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="84" ht="28.5" spans="1:7">
+    <row r="84" ht="31.2" spans="1:7">
       <c r="A84" s="3" t="s">
         <v>321</v>
       </c>
@@ -4156,7 +4153,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="85" ht="175.5" spans="1:7">
+    <row r="85" ht="244.8" spans="1:7">
       <c r="A85" s="3" t="s">
         <v>324</v>
       </c>
@@ -4179,7 +4176,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="86" ht="28.5" spans="1:7">
+    <row r="86" ht="31.2" spans="1:7">
       <c r="A86" s="3" t="s">
         <v>327</v>
       </c>
@@ -4199,7 +4196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" ht="28.5" spans="1:4">
+    <row r="87" ht="46.8" spans="1:4">
       <c r="A87" s="3" t="s">
         <v>332</v>
       </c>
@@ -4213,7 +4210,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="88" ht="28.5" spans="1:7">
+    <row r="88" ht="46.8" spans="1:7">
       <c r="A88" s="3" t="s">
         <v>335</v>
       </c>
@@ -4233,7 +4230,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="89" ht="42.75" spans="1:7">
+    <row r="89" ht="46.8" spans="1:7">
       <c r="A89" s="3" t="s">
         <v>339</v>
       </c>
@@ -4254,7 +4251,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="90" ht="28.5" spans="1:4">
+    <row r="90" ht="46.8" spans="1:4">
       <c r="A90" s="3" t="s">
         <v>344</v>
       </c>
@@ -4268,7 +4265,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="91" ht="28.5" spans="1:4">
+    <row r="91" ht="46.8" spans="1:4">
       <c r="A91" s="3" t="s">
         <v>346</v>
       </c>
@@ -4282,25 +4279,25 @@
         <v>334</v>
       </c>
     </row>
-    <row r="92" ht="28.5" spans="2:4">
+    <row r="92" ht="46.8" spans="2:4">
       <c r="B92" s="2" t="s">
         <v>348</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="D92" s="13" t="s">
+      <c r="D92" s="7" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="93" ht="40.5" spans="2:7">
-      <c r="B93" s="13" t="s">
+    <row r="93" ht="31.2" spans="2:7">
+      <c r="B93" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="C93" s="14" t="s">
+      <c r="C93" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="D93" s="13" t="s">
+      <c r="D93" s="7" t="s">
         <v>350</v>
       </c>
       <c r="F93" s="2" t="s">
@@ -4310,11 +4307,11 @@
         <v>352</v>
       </c>
     </row>
-    <row r="94" ht="40.5" spans="2:10">
+    <row r="94" ht="43.2" spans="2:10">
       <c r="B94" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="C94" s="14" t="s">
+      <c r="C94" s="7" t="s">
         <v>329</v>
       </c>
       <c r="D94" s="2" t="s">
@@ -4333,11 +4330,11 @@
         <v>357</v>
       </c>
     </row>
-    <row r="95" ht="54" spans="2:10">
+    <row r="95" ht="57.6" spans="2:10">
       <c r="B95" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="C95" s="14" t="s">
+      <c r="C95" s="7" t="s">
         <v>329</v>
       </c>
       <c r="D95" s="2" t="s">
@@ -4350,24 +4347,24 @@
         <v>47</v>
       </c>
       <c r="G95" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="96" ht="54" spans="2:10">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="96" ht="57.6" spans="2:10">
       <c r="B96" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C96" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="C96" s="7" t="s">
         <v>329</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>354</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F96" t="s">
         <v>47</v>
@@ -4376,21 +4373,21 @@
         <v>285</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="97" ht="54" spans="2:10">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="97" ht="57.6" spans="2:10">
       <c r="B97" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="C97" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="C97" s="7" t="s">
         <v>329</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>354</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F97" t="s">
         <v>47</v>
@@ -4399,21 +4396,21 @@
         <v>285</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="98" ht="67.5" spans="2:7">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="98" ht="72" spans="2:7">
       <c r="B98" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="C98" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="C98" s="7" t="s">
         <v>329</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>354</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F98" t="s">
         <v>47</v>
@@ -4422,18 +4419,18 @@
         <v>285</v>
       </c>
     </row>
-    <row r="99" ht="54" spans="2:7">
+    <row r="99" ht="57.6" spans="2:7">
       <c r="B99" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="C99" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="C99" s="7" t="s">
         <v>329</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>354</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F99" t="s">
         <v>47</v>
@@ -4442,61 +4439,61 @@
         <v>285</v>
       </c>
     </row>
-    <row r="100" ht="54" spans="2:7">
+    <row r="100" ht="57.6" spans="2:7">
       <c r="B100" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C100" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="C100" s="7" t="s">
         <v>329</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>354</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F100" t="s">
         <v>47</v>
       </c>
       <c r="G100" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="101" ht="27" spans="2:7">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="101" ht="28.8" spans="2:7">
       <c r="B101" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D101" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="102" ht="43.2" spans="2:7">
+      <c r="B102" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="C102" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="F101" s="2" t="s">
+      <c r="D102" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="G101" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="102" ht="40.5" spans="2:7">
-      <c r="B102" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="C102" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="D102" s="13" t="s">
-        <v>376</v>
-      </c>
       <c r="E102" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>133</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -4515,7 +4512,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4532,7 +4529,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data/UI自动化用测试用例.xlsx
+++ b/data/UI自动化用测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22488" windowHeight="9227"/>
+    <workbookView windowWidth="22488" windowHeight="8964"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1155,7 +1155,7 @@
   <si>
     <t>reason=Model error
 text=123412412
-img=C:\Users\admin\Desktop\Lipton-logo.jpg</t>
+img=C:\Users\admin\PycharmProjects\pythonProject\okmarts_ui_test\data\Emblème-LG.jpg</t>
   </si>
   <si>
     <t>Model error</t>
@@ -1166,7 +1166,7 @@
   <si>
     <t>reason=Quality issues
 text=123412412
-img=C:\Users\admin\Desktop\Lipton-logo.jpg</t>
+img=</t>
   </si>
   <si>
     <t>other</t>
@@ -1177,7 +1177,7 @@
   <si>
     <t>reason=Wrong order inform ation
 text=123412412
-img=C:\Users\admin\Desktop\Lipton-logo.jpg</t>
+img=C:\Users\admin\PycharmProjects\pythonProject\okmarts_ui_test\data\Emblème-LG.jpg</t>
   </si>
   <si>
     <t>使用other提交退货单成功</t>
@@ -1185,7 +1185,7 @@
   <si>
     <t>reason=other
 text=123412412
-img=C:\Users\admin\Desktop\Lipton-logo.jpg</t>
+img=C:\Users\admin\PycharmProjects\pythonProject\okmarts_ui_test\data\Emblème-LG.jpg</t>
   </si>
   <si>
     <t>使用视频文件提交退货单失败</t>
@@ -1193,7 +1193,7 @@
   <si>
     <t>reason=other
 text=123412412
-img=D:\测试工作文件夹\测试常用文件类型测试\6.mp4</t>
+img=C:\Users\admin\PycharmProjects\pythonProject\okmarts_ui_test\data\test 8.mp4</t>
   </si>
   <si>
     <t>fail</t>
@@ -1230,10 +1230,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1276,12 +1276,42 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1290,7 +1320,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1305,37 +1343,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1349,11 +1373,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1365,40 +1388,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1413,7 +1405,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1428,7 +1428,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1440,13 +1566,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1458,7 +1578,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1470,37 +1596,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1512,103 +1608,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1619,69 +1619,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1705,6 +1642,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1719,6 +1671,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1727,10 +1727,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1739,133 +1739,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2259,8 +2259,8 @@
   <sheetPr/>
   <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="F102" sqref="F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -4353,7 +4353,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="96" ht="57.6" spans="2:10">
+    <row r="96" ht="72" spans="2:10">
       <c r="B96" s="2" t="s">
         <v>362</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="97" ht="57.6" spans="2:10">
+    <row r="97" ht="43.2" spans="2:10">
       <c r="B97" s="2" t="s">
         <v>365</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="98" ht="72" spans="2:7">
+    <row r="98" ht="86.4" spans="2:7">
       <c r="B98" s="2" t="s">
         <v>368</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="99" ht="57.6" spans="2:7">
+    <row r="99" ht="72" spans="2:7">
       <c r="B99" s="2" t="s">
         <v>370</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="100" ht="57.6" spans="2:7">
+    <row r="100" ht="72" spans="2:7">
       <c r="B100" s="2" t="s">
         <v>372</v>
       </c>

--- a/data/UI自动化用测试用例.xlsx
+++ b/data/UI自动化用测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22488" windowHeight="8964"/>
+    <workbookView windowWidth="22488" windowHeight="9227"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="388">
   <si>
     <t>用例编号</t>
   </si>
@@ -1217,12 +1217,37 @@
     <t>输入正确信息修改成功</t>
   </si>
   <si>
+    <t>first_name=1
+last_name=1
+sex=1
+time=today
+company=12345公司</t>
+  </si>
+  <si>
+    <t>Success!</t>
+  </si>
+  <si>
+    <t>不输入任何内容修改成功</t>
+  </si>
+  <si>
     <t>first_name=null
 last_name=null
-company=null</t>
-  </si>
-  <si>
-    <t>Success!</t>
+sex=2
+time=
+company=</t>
+  </si>
+  <si>
+    <t>性别为screct修改成功</t>
+  </si>
+  <si>
+    <t>first_name=1
+last_name=1
+sex=3
+time=2022-3-11
+company=12345公司</t>
+  </si>
+  <si>
+    <t>勾选订阅成功</t>
   </si>
 </sst>
 </file>
@@ -1283,37 +1308,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1328,7 +1330,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1343,15 +1359,62 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1366,56 +1429,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1428,25 +1453,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1464,7 +1567,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1476,19 +1579,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1500,115 +1621,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1619,26 +1644,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1657,16 +1662,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1690,6 +1695,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1704,21 +1744,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1727,10 +1752,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1739,133 +1764,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2257,10 +2282,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K102"/>
+  <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="F102" sqref="F102"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="F99" sqref="F99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2269,7 +2294,7 @@
     <col min="2" max="2" width="29" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.8796296296296" style="2" customWidth="1"/>
     <col min="4" max="4" width="17.6296296296296" style="2" customWidth="1"/>
-    <col min="5" max="5" width="30.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="83.1111111111111" style="2" customWidth="1"/>
     <col min="6" max="6" width="55.25" style="2" customWidth="1"/>
     <col min="7" max="7" width="30.3796296296296" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
@@ -4476,7 +4501,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="102" ht="43.2" spans="2:7">
+    <row r="102" ht="72" spans="2:7">
       <c r="B102" s="7" t="s">
         <v>380</v>
       </c>
@@ -4494,6 +4519,51 @@
       </c>
       <c r="G102" s="2" t="s">
         <v>382</v>
+      </c>
+    </row>
+    <row r="103" ht="72" spans="2:7">
+      <c r="B103" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="104" ht="72" spans="2:7">
+      <c r="B104" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="2" t="s">
+        <v>387</v>
       </c>
     </row>
   </sheetData>

--- a/data/UI自动化用测试用例.xlsx
+++ b/data/UI自动化用测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22488" windowHeight="9227"/>
+    <workbookView windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="389">
   <si>
     <t>用例编号</t>
   </si>
@@ -1219,7 +1219,7 @@
   <si>
     <t>first_name=1
 last_name=1
-sex=1
+sex=0
 time=today
 company=12345公司</t>
   </si>
@@ -1232,7 +1232,7 @@
   <si>
     <t>first_name=null
 last_name=null
-sex=2
+sex=1
 time=
 company=</t>
   </si>
@@ -1242,12 +1242,15 @@
   <si>
     <t>first_name=1
 last_name=1
-sex=3
-time=2022-3-11
+sex=2
+time=2022-04-13
 company=12345公司</t>
   </si>
   <si>
     <t>勾选订阅成功</t>
+  </si>
+  <si>
+    <t>通过个人中心修改邮箱入口进入成功</t>
   </si>
 </sst>
 </file>
@@ -1255,10 +1258,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1301,27 +1304,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1337,21 +1319,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1366,9 +1341,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1380,25 +1385,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1420,9 +1417,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1435,14 +1446,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1453,7 +1456,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1465,7 +1504,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1477,19 +1600,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1501,139 +1636,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1644,6 +1647,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1686,24 +1704,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1721,6 +1721,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1729,21 +1747,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1752,10 +1755,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1764,133 +1767,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2282,21 +2285,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K105"/>
+  <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="F99" sqref="F99"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.3796296296296" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.3833333333333" style="3" customWidth="1"/>
     <col min="2" max="2" width="29" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.8796296296296" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.6296296296296" style="2" customWidth="1"/>
-    <col min="5" max="5" width="83.1111111111111" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.8833333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.6333333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="83.1083333333333" style="2" customWidth="1"/>
     <col min="6" max="6" width="55.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="30.3796296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="30.3833333333333" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -2323,7 +2326,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="46.8" spans="1:7">
+    <row r="2" ht="28.5" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -2346,7 +2349,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" ht="62.4" spans="1:7">
+    <row r="3" ht="57" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -2369,7 +2372,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" ht="62.4" spans="1:7">
+    <row r="4" ht="57" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -2392,7 +2395,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" ht="62.4" spans="1:7">
+    <row r="5" ht="57" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -2415,7 +2418,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" ht="62.4" spans="1:7">
+    <row r="6" ht="57" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
@@ -2438,7 +2441,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" ht="62.4" spans="1:7">
+    <row r="7" ht="57" spans="1:7">
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
@@ -2461,7 +2464,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" ht="31.2" spans="1:7">
+    <row r="8" ht="27" spans="1:7">
       <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
@@ -2484,7 +2487,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="1:11">
+    <row r="9" ht="14.25" spans="1:11">
       <c r="A9" s="3" t="s">
         <v>38</v>
       </c>
@@ -2510,7 +2513,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" ht="31.2" spans="1:8">
+    <row r="10" ht="28.5" spans="1:8">
       <c r="A10" s="3" t="s">
         <v>44</v>
       </c>
@@ -2534,7 +2537,7 @@
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" ht="28.8" spans="1:7">
+    <row r="11" ht="27" spans="1:7">
       <c r="A11" s="3" t="s">
         <v>49</v>
       </c>
@@ -2557,7 +2560,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" ht="31.2" spans="1:7">
+    <row r="12" ht="14.25" spans="1:7">
       <c r="A12" s="3" t="s">
         <v>53</v>
       </c>
@@ -2580,7 +2583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="31.2" spans="1:7">
+    <row r="13" ht="14.25" spans="1:7">
       <c r="A13" s="3" t="s">
         <v>57</v>
       </c>
@@ -2603,7 +2606,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" ht="31.2" spans="1:7">
+    <row r="14" ht="14.25" spans="1:7">
       <c r="A14" s="3" t="s">
         <v>61</v>
       </c>
@@ -2626,7 +2629,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" ht="31.2" spans="1:7">
+    <row r="15" s="2" customFormat="1" ht="14.25" spans="1:7">
       <c r="A15" s="3" t="s">
         <v>65</v>
       </c>
@@ -2649,7 +2652,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" ht="46.8" spans="1:7">
+    <row r="16" ht="42.75" spans="1:7">
       <c r="A16" s="3" t="s">
         <v>67</v>
       </c>
@@ -2672,7 +2675,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" ht="46.8" spans="1:7">
+    <row r="17" ht="42.75" spans="1:7">
       <c r="A17" s="3" t="s">
         <v>73</v>
       </c>
@@ -2695,7 +2698,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" ht="46.8" spans="1:7">
+    <row r="18" ht="42.75" spans="1:7">
       <c r="A18" s="3" t="s">
         <v>78</v>
       </c>
@@ -2718,7 +2721,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" ht="46.8" spans="1:7">
+    <row r="19" ht="42.75" spans="1:7">
       <c r="A19" s="3" t="s">
         <v>81</v>
       </c>
@@ -2741,7 +2744,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" ht="46.8" spans="1:7">
+    <row r="20" ht="42.75" spans="1:7">
       <c r="A20" s="3" t="s">
         <v>84</v>
       </c>
@@ -2764,7 +2767,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" ht="46.8" spans="1:7">
+    <row r="21" ht="42.75" spans="1:7">
       <c r="A21" s="3" t="s">
         <v>87</v>
       </c>
@@ -2787,7 +2790,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" ht="46.8" spans="1:7">
+    <row r="22" ht="42.75" spans="1:7">
       <c r="A22" s="3" t="s">
         <v>90</v>
       </c>
@@ -2810,7 +2813,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" ht="46.8" spans="1:7">
+    <row r="23" ht="42.75" spans="1:7">
       <c r="A23" s="3" t="s">
         <v>93</v>
       </c>
@@ -2833,7 +2836,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" ht="46.8" spans="1:7">
+    <row r="24" ht="42.75" spans="1:7">
       <c r="A24" s="3" t="s">
         <v>96</v>
       </c>
@@ -2856,7 +2859,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" ht="46.8" spans="1:7">
+    <row r="25" ht="42.75" spans="1:7">
       <c r="A25" s="3" t="s">
         <v>99</v>
       </c>
@@ -2879,7 +2882,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" ht="46.8" spans="1:7">
+    <row r="26" ht="42.75" spans="1:7">
       <c r="A26" s="3" t="s">
         <v>102</v>
       </c>
@@ -2902,7 +2905,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" ht="46.8" spans="1:7">
+    <row r="27" ht="42.75" spans="1:7">
       <c r="A27" s="3" t="s">
         <v>105</v>
       </c>
@@ -2925,7 +2928,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" ht="46.8" spans="1:7">
+    <row r="28" ht="42.75" spans="1:7">
       <c r="A28" s="3" t="s">
         <v>108</v>
       </c>
@@ -2948,7 +2951,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" ht="46.8" spans="1:7">
+    <row r="29" ht="42.75" spans="1:7">
       <c r="A29" s="3" t="s">
         <v>111</v>
       </c>
@@ -2971,7 +2974,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" ht="46.8" spans="1:7">
+    <row r="30" ht="42.75" spans="1:7">
       <c r="A30" s="3" t="s">
         <v>114</v>
       </c>
@@ -2994,7 +2997,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" ht="46.8" spans="1:7">
+    <row r="31" ht="42.75" spans="1:7">
       <c r="A31" s="3" t="s">
         <v>117</v>
       </c>
@@ -3017,7 +3020,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" ht="46.8" spans="1:7">
+    <row r="32" ht="42.75" spans="1:7">
       <c r="A32" s="3" t="s">
         <v>120</v>
       </c>
@@ -3040,7 +3043,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" ht="43.2" spans="1:7">
+    <row r="33" ht="27" spans="1:7">
       <c r="A33" s="3" t="s">
         <v>123</v>
       </c>
@@ -3063,7 +3066,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="34" ht="43.2" spans="1:7">
+    <row r="34" ht="27" spans="1:7">
       <c r="A34" s="3" t="s">
         <v>129</v>
       </c>
@@ -3086,7 +3089,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="35" ht="43.2" spans="1:7">
+    <row r="35" ht="27" spans="1:7">
       <c r="A35" s="3" t="s">
         <v>131</v>
       </c>
@@ -3109,7 +3112,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" ht="43.2" spans="1:7">
+    <row r="36" ht="40.5" spans="1:7">
       <c r="A36" s="3" t="s">
         <v>135</v>
       </c>
@@ -3132,7 +3135,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="37" ht="31.2" spans="1:7">
+    <row r="37" ht="28.5" spans="1:7">
       <c r="A37" s="3" t="s">
         <v>142</v>
       </c>
@@ -3155,7 +3158,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" ht="43.2" spans="1:7">
+    <row r="38" ht="28.5" spans="1:7">
       <c r="A38" s="3" t="s">
         <v>146</v>
       </c>
@@ -3178,7 +3181,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" ht="31.2" spans="1:7">
+    <row r="39" ht="28.5" spans="1:7">
       <c r="A39" s="3" t="s">
         <v>148</v>
       </c>
@@ -3201,7 +3204,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" ht="31.2" spans="1:7">
+    <row r="40" ht="28.5" spans="1:7">
       <c r="A40" s="3" t="s">
         <v>151</v>
       </c>
@@ -3224,7 +3227,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="41" ht="43.2" spans="1:7">
+    <row r="41" ht="28.5" spans="1:7">
       <c r="A41" s="3" t="s">
         <v>154</v>
       </c>
@@ -3247,7 +3250,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" ht="43.2" spans="1:7">
+    <row r="42" ht="40.5" spans="1:7">
       <c r="A42" s="3" t="s">
         <v>156</v>
       </c>
@@ -3270,7 +3273,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" ht="43.2" spans="1:7">
+    <row r="43" ht="40.5" spans="1:7">
       <c r="A43" s="3" t="s">
         <v>161</v>
       </c>
@@ -3293,7 +3296,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" ht="43.2" spans="1:7">
+    <row r="44" ht="40.5" spans="1:7">
       <c r="A44" s="3" t="s">
         <v>164</v>
       </c>
@@ -3316,7 +3319,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" ht="43.2" spans="1:7">
+    <row r="45" ht="40.5" spans="1:7">
       <c r="A45" s="3" t="s">
         <v>167</v>
       </c>
@@ -3339,7 +3342,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="46" ht="43.2" spans="1:7">
+    <row r="46" ht="40.5" spans="1:7">
       <c r="A46" s="3" t="s">
         <v>170</v>
       </c>
@@ -3362,7 +3365,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" ht="43.2" spans="1:7">
+    <row r="47" ht="40.5" spans="1:7">
       <c r="A47" s="3" t="s">
         <v>173</v>
       </c>
@@ -3385,7 +3388,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="48" ht="43.2" spans="1:7">
+    <row r="48" ht="40.5" spans="1:7">
       <c r="A48" s="3" t="s">
         <v>176</v>
       </c>
@@ -3408,7 +3411,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="49" ht="43.2" spans="1:7">
+    <row r="49" ht="40.5" spans="1:7">
       <c r="A49" s="3" t="s">
         <v>179</v>
       </c>
@@ -3431,7 +3434,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" ht="43.2" spans="1:7">
+    <row r="50" ht="40.5" spans="1:7">
       <c r="A50" s="3" t="s">
         <v>182</v>
       </c>
@@ -3454,7 +3457,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="51" ht="43.2" spans="1:7">
+    <row r="51" ht="40.5" spans="1:7">
       <c r="A51" s="3" t="s">
         <v>187</v>
       </c>
@@ -3477,7 +3480,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="52" ht="31.2" spans="1:7">
+    <row r="52" ht="27" spans="1:7">
       <c r="A52" s="3" t="s">
         <v>189</v>
       </c>
@@ -3497,7 +3500,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="53" ht="43.2" spans="1:7">
+    <row r="53" ht="40.5" spans="1:7">
       <c r="A53" s="3" t="s">
         <v>195</v>
       </c>
@@ -3517,7 +3520,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="54" ht="31.2" spans="1:7">
+    <row r="54" ht="28.5" spans="1:7">
       <c r="A54" s="3" t="s">
         <v>199</v>
       </c>
@@ -3537,7 +3540,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="55" ht="46.8" spans="1:7">
+    <row r="55" ht="42.75" spans="1:7">
       <c r="A55" s="3" t="s">
         <v>203</v>
       </c>
@@ -3557,7 +3560,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="56" ht="78" spans="1:7">
+    <row r="56" ht="42.75" spans="1:7">
       <c r="A56" s="3" t="s">
         <v>206</v>
       </c>
@@ -3577,7 +3580,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="57" ht="78" spans="1:7">
+    <row r="57" ht="54" spans="1:7">
       <c r="A57" s="3" t="s">
         <v>209</v>
       </c>
@@ -3597,7 +3600,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="58" ht="43.2" spans="1:7">
+    <row r="58" ht="40.5" spans="1:7">
       <c r="A58" s="3" t="s">
         <v>212</v>
       </c>
@@ -3617,7 +3620,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="59" ht="43.2" spans="1:7">
+    <row r="59" ht="40.5" spans="1:7">
       <c r="A59" s="3" t="s">
         <v>215</v>
       </c>
@@ -3637,7 +3640,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="60" ht="28.8" spans="1:7">
+    <row r="60" ht="27" spans="1:7">
       <c r="A60" s="3" t="s">
         <v>219</v>
       </c>
@@ -3657,7 +3660,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="61" ht="43.2" spans="1:7">
+    <row r="61" ht="40.5" spans="1:7">
       <c r="A61" s="3" t="s">
         <v>222</v>
       </c>
@@ -3677,7 +3680,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="62" ht="57.6" spans="1:7">
+    <row r="62" ht="54" spans="1:7">
       <c r="A62" s="3" t="s">
         <v>226</v>
       </c>
@@ -3697,7 +3700,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="63" ht="31.2" spans="1:9">
+    <row r="63" ht="28.5" spans="1:9">
       <c r="A63" s="3" t="s">
         <v>231</v>
       </c>
@@ -3722,7 +3725,7 @@
       <c r="H63" s="10"/>
       <c r="I63" s="10"/>
     </row>
-    <row r="64" ht="43.2" spans="1:7">
+    <row r="64" ht="28.5" spans="1:7">
       <c r="A64" s="3" t="s">
         <v>235</v>
       </c>
@@ -3745,7 +3748,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="65" ht="31.2" spans="1:7">
+    <row r="65" ht="28.5" spans="1:7">
       <c r="A65" s="3" t="s">
         <v>238</v>
       </c>
@@ -3768,7 +3771,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="66" ht="31.2" spans="1:7">
+    <row r="66" ht="28.5" spans="1:7">
       <c r="A66" s="3" t="s">
         <v>242</v>
       </c>
@@ -3791,7 +3794,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="67" ht="15.6" spans="1:4">
+    <row r="67" ht="14.25" spans="1:4">
       <c r="A67" s="3" t="s">
         <v>246</v>
       </c>
@@ -3805,7 +3808,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="68" ht="43.2" spans="1:7">
+    <row r="68" ht="40.5" spans="1:7">
       <c r="A68" s="3" t="s">
         <v>250</v>
       </c>
@@ -3825,7 +3828,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="69" ht="72" spans="1:7">
+    <row r="69" ht="67.5" spans="1:7">
       <c r="A69" s="3" t="s">
         <v>255</v>
       </c>
@@ -3845,7 +3848,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="70" ht="57.6" spans="1:7">
+    <row r="70" ht="54" spans="1:7">
       <c r="A70" s="3" t="s">
         <v>260</v>
       </c>
@@ -3865,7 +3868,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="71" ht="62.4" spans="1:7">
+    <row r="71" ht="42.75" spans="1:7">
       <c r="A71" s="3" t="s">
         <v>265</v>
       </c>
@@ -3885,7 +3888,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="72" ht="43.2" spans="1:7">
+    <row r="72" ht="28.5" spans="1:7">
       <c r="A72" s="3" t="s">
         <v>270</v>
       </c>
@@ -3905,7 +3908,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="73" ht="46.8" spans="1:7">
+    <row r="73" ht="42.75" spans="1:7">
       <c r="A73" s="3" t="s">
         <v>275</v>
       </c>
@@ -3925,7 +3928,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="74" ht="31.2" spans="1:7">
+    <row r="74" ht="28.5" spans="1:7">
       <c r="A74" s="3" t="s">
         <v>281</v>
       </c>
@@ -3948,7 +3951,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="75" ht="31.2" spans="1:7">
+    <row r="75" ht="28.5" spans="1:7">
       <c r="A75" s="3" t="s">
         <v>286</v>
       </c>
@@ -3971,7 +3974,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="76" ht="31.2" spans="1:7">
+    <row r="76" ht="28.5" spans="1:7">
       <c r="A76" s="3" t="s">
         <v>289</v>
       </c>
@@ -3994,7 +3997,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="77" ht="31.2" spans="1:7">
+    <row r="77" ht="28.5" spans="1:7">
       <c r="A77" s="3" t="s">
         <v>294</v>
       </c>
@@ -4017,7 +4020,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="78" ht="31.2" spans="1:7">
+    <row r="78" ht="28.5" spans="1:7">
       <c r="A78" s="3" t="s">
         <v>298</v>
       </c>
@@ -4040,7 +4043,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="79" ht="31.2" spans="1:7">
+    <row r="79" ht="28.5" spans="1:7">
       <c r="A79" s="3" t="s">
         <v>302</v>
       </c>
@@ -4063,7 +4066,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="80" ht="31.2" spans="1:7">
+    <row r="80" ht="28.5" spans="1:7">
       <c r="A80" s="3" t="s">
         <v>306</v>
       </c>
@@ -4086,7 +4089,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="81" ht="31.2" spans="1:7">
+    <row r="81" ht="28.5" spans="1:7">
       <c r="A81" s="3" t="s">
         <v>310</v>
       </c>
@@ -4109,7 +4112,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="82" ht="31.2" spans="1:7">
+    <row r="82" ht="28.5" spans="1:7">
       <c r="A82" s="3" t="s">
         <v>314</v>
       </c>
@@ -4132,7 +4135,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="83" ht="31.2" spans="1:7">
+    <row r="83" ht="28.5" spans="1:7">
       <c r="A83" s="3" t="s">
         <v>318</v>
       </c>
@@ -4155,7 +4158,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="84" ht="31.2" spans="1:7">
+    <row r="84" ht="28.5" spans="1:7">
       <c r="A84" s="3" t="s">
         <v>321</v>
       </c>
@@ -4178,7 +4181,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="85" ht="244.8" spans="1:7">
+    <row r="85" ht="81" spans="1:7">
       <c r="A85" s="3" t="s">
         <v>324</v>
       </c>
@@ -4201,7 +4204,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="86" ht="31.2" spans="1:7">
+    <row r="86" ht="28.5" spans="1:7">
       <c r="A86" s="3" t="s">
         <v>327</v>
       </c>
@@ -4221,7 +4224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" ht="46.8" spans="1:4">
+    <row r="87" ht="28.5" spans="1:4">
       <c r="A87" s="3" t="s">
         <v>332</v>
       </c>
@@ -4235,7 +4238,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="88" ht="46.8" spans="1:7">
+    <row r="88" ht="28.5" spans="1:7">
       <c r="A88" s="3" t="s">
         <v>335</v>
       </c>
@@ -4255,7 +4258,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="89" ht="46.8" spans="1:7">
+    <row r="89" ht="42.75" spans="1:7">
       <c r="A89" s="3" t="s">
         <v>339</v>
       </c>
@@ -4276,7 +4279,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="90" ht="46.8" spans="1:4">
+    <row r="90" ht="28.5" spans="1:4">
       <c r="A90" s="3" t="s">
         <v>344</v>
       </c>
@@ -4290,7 +4293,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="91" ht="46.8" spans="1:4">
+    <row r="91" ht="28.5" spans="1:4">
       <c r="A91" s="3" t="s">
         <v>346</v>
       </c>
@@ -4304,7 +4307,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="92" ht="46.8" spans="2:4">
+    <row r="92" ht="28.5" spans="2:4">
       <c r="B92" s="2" t="s">
         <v>348</v>
       </c>
@@ -4315,7 +4318,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="93" ht="31.2" spans="2:7">
+    <row r="93" ht="28.5" spans="2:7">
       <c r="B93" s="7" t="s">
         <v>349</v>
       </c>
@@ -4332,7 +4335,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="94" ht="43.2" spans="2:10">
+    <row r="94" ht="40.5" spans="2:10">
       <c r="B94" s="2" t="s">
         <v>353</v>
       </c>
@@ -4355,7 +4358,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="95" ht="57.6" spans="2:10">
+    <row r="95" ht="54" spans="2:10">
       <c r="B95" s="2" t="s">
         <v>358</v>
       </c>
@@ -4378,7 +4381,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="96" ht="72" spans="2:10">
+    <row r="96" ht="54" spans="2:10">
       <c r="B96" s="2" t="s">
         <v>362</v>
       </c>
@@ -4401,7 +4404,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="97" ht="43.2" spans="2:10">
+    <row r="97" ht="40.5" spans="2:10">
       <c r="B97" s="2" t="s">
         <v>365</v>
       </c>
@@ -4424,7 +4427,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="98" ht="86.4" spans="2:7">
+    <row r="98" ht="54" spans="2:7">
       <c r="B98" s="2" t="s">
         <v>368</v>
       </c>
@@ -4444,7 +4447,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="99" ht="72" spans="2:7">
+    <row r="99" ht="54" spans="2:7">
       <c r="B99" s="2" t="s">
         <v>370</v>
       </c>
@@ -4464,7 +4467,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="100" ht="72" spans="2:7">
+    <row r="100" ht="40.5" spans="2:7">
       <c r="B100" s="2" t="s">
         <v>372</v>
       </c>
@@ -4484,7 +4487,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="101" ht="28.8" spans="2:7">
+    <row r="101" ht="27" spans="2:7">
       <c r="B101" s="2" t="s">
         <v>375</v>
       </c>
@@ -4501,7 +4504,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="102" ht="72" spans="2:7">
+    <row r="102" ht="67.5" spans="2:7">
       <c r="B102" s="7" t="s">
         <v>380</v>
       </c>
@@ -4521,7 +4524,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="103" ht="72" spans="2:7">
+    <row r="103" ht="67.5" spans="2:7">
       <c r="B103" s="2" t="s">
         <v>383</v>
       </c>
@@ -4541,7 +4544,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="104" ht="72" spans="2:7">
+    <row r="104" ht="67.5" spans="2:7">
       <c r="B104" s="2" t="s">
         <v>385</v>
       </c>
@@ -4561,9 +4564,39 @@
         <v>382</v>
       </c>
     </row>
-    <row r="105" spans="2:2">
+    <row r="105" ht="14.25" spans="2:7">
       <c r="B105" s="2" t="s">
         <v>387</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="106" ht="27" spans="2:7">
+      <c r="B106" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" t="s">
+        <v>41</v>
+      </c>
+      <c r="G106" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -4582,7 +4615,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4599,7 +4632,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data/UI自动化用测试用例.xlsx
+++ b/data/UI自动化用测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView windowWidth="22488" windowHeight="9227"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="431">
   <si>
     <t>用例编号</t>
   </si>
@@ -1251,6 +1251,132 @@
   </si>
   <si>
     <t>通过个人中心修改邮箱入口进入成功</t>
+  </si>
+  <si>
+    <t>首页显示购物车图标，点击购物车，页面跳转到购物车页面</t>
+  </si>
+  <si>
+    <t>购物车</t>
+  </si>
+  <si>
+    <t>页面正确显示</t>
+  </si>
+  <si>
+    <t>未登录状态下点击购物车页面跳转到登录页面成功</t>
+  </si>
+  <si>
+    <t>未登录状态，存在购物车按钮</t>
+  </si>
+  <si>
+    <t>登录状态下点击购物车跳转到购物车详情成功</t>
+  </si>
+  <si>
+    <t>登录状态，存在购物车按钮</t>
+  </si>
+  <si>
+    <t>当购物车内无商品时显示正确无误</t>
+  </si>
+  <si>
+    <t>登录状态，购物车无商品</t>
+  </si>
+  <si>
+    <t>购物车内无商品时点击相关文字跳转到首页成功</t>
+  </si>
+  <si>
+    <t>购物车内包含商品时，购物车图标显示正确</t>
+  </si>
+  <si>
+    <t>登录状态，购物车包含商品</t>
+  </si>
+  <si>
+    <t>购物车数量大于99时，购物车略缩图显示99+</t>
+  </si>
+  <si>
+    <t>登录状态，购物车数量超过99个</t>
+  </si>
+  <si>
+    <t>在商品详情页点击ADD Car添加到购物车成功</t>
+  </si>
+  <si>
+    <t>登录状态，存在商品</t>
+  </si>
+  <si>
+    <t>购物车包含相关商品时，在该商品详情页点击ADDCar 商品数量+1</t>
+  </si>
+  <si>
+    <t>登录状态，购物车存在相关商品</t>
+  </si>
+  <si>
+    <t>通过搜索出商品时，点击ADD Car添加到购物车成功</t>
+  </si>
+  <si>
+    <t>登录状态，存在相关商品</t>
+  </si>
+  <si>
+    <t>当购物车添加的商品等于商品库存时再次点击ADDcar,添加失败</t>
+  </si>
+  <si>
+    <t>登录状态，购物车内该商品数量已达商品库存数量</t>
+  </si>
+  <si>
+    <t>当该商品库存不足的时候添加到购物车失败</t>
+  </si>
+  <si>
+    <t>登录状态，该商品库存为0</t>
+  </si>
+  <si>
+    <t>当购物车存在商品时点击+商品数量+1</t>
+  </si>
+  <si>
+    <t>登录状态，购物车存在该商品</t>
+  </si>
+  <si>
+    <t>当购物车存在商品时点击- 商品数量-1</t>
+  </si>
+  <si>
+    <t>点击 数量栏输入数字快速添加商品数量成功</t>
+  </si>
+  <si>
+    <t>点击数量栏输入非数字添加商品数量失败</t>
+  </si>
+  <si>
+    <t>当商品添加数量等于商品库存时再次点击+号添加失败</t>
+  </si>
+  <si>
+    <t>登录状态，购物车商品数量等于改商品库存数量</t>
+  </si>
+  <si>
+    <t>当商品添加数量为1时无法点击-号</t>
+  </si>
+  <si>
+    <t>登录状态，购物车存在商品且数量为1</t>
+  </si>
+  <si>
+    <t>添加到购物车的商品无货时正确显示</t>
+  </si>
+  <si>
+    <t>购物车存在无货商品</t>
+  </si>
+  <si>
+    <t>添加到购物车的商品下架时正确的显示</t>
+  </si>
+  <si>
+    <t>购物车存在下架商品</t>
+  </si>
+  <si>
+    <t>勾选多个商品批量结算成功</t>
+  </si>
+  <si>
+    <t>购物车存在多件商品</t>
+  </si>
+  <si>
+    <t>勾选多个商品时价格显示正确</t>
+  </si>
+  <si>
+    <t>勾选多个商品点击删除批量删除成功</t>
+  </si>
+  <si>
+    <t>点击ALL Choices 所有商品被勾选</t>
   </si>
 </sst>
 </file>
@@ -1258,10 +1384,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1304,59 +1430,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1369,11 +1443,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1393,9 +1467,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1403,15 +1483,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1426,12 +1498,51 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1446,6 +1557,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1453,6 +1579,78 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1468,7 +1666,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1480,103 +1744,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1588,55 +1756,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1647,6 +1773,48 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1680,30 +1848,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1715,24 +1859,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1755,10 +1881,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1767,137 +1893,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1936,6 +2062,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2285,21 +2420,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K106"/>
+  <dimension ref="A1:K130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107:D130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.3833333333333" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.3796296296296" style="3" customWidth="1"/>
     <col min="2" max="2" width="29" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.8833333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.6333333333333" style="2" customWidth="1"/>
-    <col min="5" max="5" width="83.1083333333333" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.8796296296296" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.6296296296296" style="2" customWidth="1"/>
+    <col min="5" max="5" width="83.1111111111111" style="2" customWidth="1"/>
     <col min="6" max="6" width="55.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="30.3833333333333" style="2" customWidth="1"/>
+    <col min="7" max="7" width="30.3796296296296" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -2326,7 +2461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="28.5" spans="1:7">
+    <row r="2" ht="31.2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -2349,7 +2484,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" ht="57" spans="1:7">
+    <row r="3" ht="62.4" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -2372,7 +2507,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" ht="57" spans="1:7">
+    <row r="4" ht="62.4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -2395,7 +2530,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" ht="57" spans="1:7">
+    <row r="5" ht="62.4" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -2418,7 +2553,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" ht="57" spans="1:7">
+    <row r="6" ht="62.4" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
@@ -2441,7 +2576,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" ht="57" spans="1:7">
+    <row r="7" ht="62.4" spans="1:7">
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
@@ -2464,7 +2599,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" ht="27" spans="1:7">
+    <row r="8" ht="31.2" spans="1:7">
       <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
@@ -2487,7 +2622,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:11">
+    <row r="9" ht="15.6" spans="1:11">
       <c r="A9" s="3" t="s">
         <v>38</v>
       </c>
@@ -2513,7 +2648,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" ht="28.5" spans="1:8">
+    <row r="10" ht="31.2" spans="1:8">
       <c r="A10" s="3" t="s">
         <v>44</v>
       </c>
@@ -2537,7 +2672,7 @@
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" ht="27" spans="1:7">
+    <row r="11" ht="28.8" spans="1:7">
       <c r="A11" s="3" t="s">
         <v>49</v>
       </c>
@@ -2560,7 +2695,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:7">
+    <row r="12" ht="31.2" spans="1:7">
       <c r="A12" s="3" t="s">
         <v>53</v>
       </c>
@@ -2583,7 +2718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="1:7">
+    <row r="13" ht="31.2" spans="1:7">
       <c r="A13" s="3" t="s">
         <v>57</v>
       </c>
@@ -2606,7 +2741,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:7">
+    <row r="14" ht="31.2" spans="1:7">
       <c r="A14" s="3" t="s">
         <v>61</v>
       </c>
@@ -2629,7 +2764,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" ht="14.25" spans="1:7">
+    <row r="15" s="2" customFormat="1" ht="31.2" spans="1:7">
       <c r="A15" s="3" t="s">
         <v>65</v>
       </c>
@@ -2652,7 +2787,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" ht="42.75" spans="1:7">
+    <row r="16" ht="46.8" spans="1:7">
       <c r="A16" s="3" t="s">
         <v>67</v>
       </c>
@@ -2675,7 +2810,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" ht="42.75" spans="1:7">
+    <row r="17" ht="46.8" spans="1:7">
       <c r="A17" s="3" t="s">
         <v>73</v>
       </c>
@@ -2698,7 +2833,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" ht="42.75" spans="1:7">
+    <row r="18" ht="46.8" spans="1:7">
       <c r="A18" s="3" t="s">
         <v>78</v>
       </c>
@@ -2721,7 +2856,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" ht="42.75" spans="1:7">
+    <row r="19" ht="46.8" spans="1:7">
       <c r="A19" s="3" t="s">
         <v>81</v>
       </c>
@@ -2744,7 +2879,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" ht="42.75" spans="1:7">
+    <row r="20" ht="46.8" spans="1:7">
       <c r="A20" s="3" t="s">
         <v>84</v>
       </c>
@@ -2767,7 +2902,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" ht="42.75" spans="1:7">
+    <row r="21" ht="46.8" spans="1:7">
       <c r="A21" s="3" t="s">
         <v>87</v>
       </c>
@@ -2790,7 +2925,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" ht="42.75" spans="1:7">
+    <row r="22" ht="46.8" spans="1:7">
       <c r="A22" s="3" t="s">
         <v>90</v>
       </c>
@@ -2813,7 +2948,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" ht="42.75" spans="1:7">
+    <row r="23" ht="46.8" spans="1:7">
       <c r="A23" s="3" t="s">
         <v>93</v>
       </c>
@@ -2836,7 +2971,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" ht="42.75" spans="1:7">
+    <row r="24" ht="46.8" spans="1:7">
       <c r="A24" s="3" t="s">
         <v>96</v>
       </c>
@@ -2859,7 +2994,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" ht="42.75" spans="1:7">
+    <row r="25" ht="46.8" spans="1:7">
       <c r="A25" s="3" t="s">
         <v>99</v>
       </c>
@@ -2882,7 +3017,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" ht="42.75" spans="1:7">
+    <row r="26" ht="46.8" spans="1:7">
       <c r="A26" s="3" t="s">
         <v>102</v>
       </c>
@@ -2905,7 +3040,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" ht="42.75" spans="1:7">
+    <row r="27" ht="46.8" spans="1:7">
       <c r="A27" s="3" t="s">
         <v>105</v>
       </c>
@@ -2928,7 +3063,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" ht="42.75" spans="1:7">
+    <row r="28" ht="46.8" spans="1:7">
       <c r="A28" s="3" t="s">
         <v>108</v>
       </c>
@@ -2951,7 +3086,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" ht="42.75" spans="1:7">
+    <row r="29" ht="46.8" spans="1:7">
       <c r="A29" s="3" t="s">
         <v>111</v>
       </c>
@@ -2974,7 +3109,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" ht="42.75" spans="1:7">
+    <row r="30" ht="46.8" spans="1:7">
       <c r="A30" s="3" t="s">
         <v>114</v>
       </c>
@@ -2997,7 +3132,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" ht="42.75" spans="1:7">
+    <row r="31" ht="46.8" spans="1:7">
       <c r="A31" s="3" t="s">
         <v>117</v>
       </c>
@@ -3020,7 +3155,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" ht="42.75" spans="1:7">
+    <row r="32" ht="46.8" spans="1:7">
       <c r="A32" s="3" t="s">
         <v>120</v>
       </c>
@@ -3043,7 +3178,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" ht="27" spans="1:7">
+    <row r="33" ht="28.8" spans="1:7">
       <c r="A33" s="3" t="s">
         <v>123</v>
       </c>
@@ -3066,7 +3201,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="34" ht="27" spans="1:7">
+    <row r="34" ht="28.8" spans="1:7">
       <c r="A34" s="3" t="s">
         <v>129</v>
       </c>
@@ -3089,7 +3224,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="35" ht="27" spans="1:7">
+    <row r="35" ht="28.8" spans="1:7">
       <c r="A35" s="3" t="s">
         <v>131</v>
       </c>
@@ -3112,7 +3247,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" ht="40.5" spans="1:7">
+    <row r="36" ht="43.2" spans="1:7">
       <c r="A36" s="3" t="s">
         <v>135</v>
       </c>
@@ -3135,7 +3270,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="37" ht="28.5" spans="1:7">
+    <row r="37" ht="31.2" spans="1:7">
       <c r="A37" s="3" t="s">
         <v>142</v>
       </c>
@@ -3158,7 +3293,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" ht="28.5" spans="1:7">
+    <row r="38" ht="31.2" spans="1:7">
       <c r="A38" s="3" t="s">
         <v>146</v>
       </c>
@@ -3181,7 +3316,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" ht="28.5" spans="1:7">
+    <row r="39" ht="31.2" spans="1:7">
       <c r="A39" s="3" t="s">
         <v>148</v>
       </c>
@@ -3204,7 +3339,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" ht="28.5" spans="1:7">
+    <row r="40" ht="31.2" spans="1:7">
       <c r="A40" s="3" t="s">
         <v>151</v>
       </c>
@@ -3227,7 +3362,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="41" ht="28.5" spans="1:7">
+    <row r="41" ht="31.2" spans="1:7">
       <c r="A41" s="3" t="s">
         <v>154</v>
       </c>
@@ -3250,7 +3385,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" ht="40.5" spans="1:7">
+    <row r="42" ht="43.2" spans="1:7">
       <c r="A42" s="3" t="s">
         <v>156</v>
       </c>
@@ -3273,7 +3408,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" ht="40.5" spans="1:7">
+    <row r="43" ht="43.2" spans="1:7">
       <c r="A43" s="3" t="s">
         <v>161</v>
       </c>
@@ -3296,7 +3431,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" ht="40.5" spans="1:7">
+    <row r="44" ht="43.2" spans="1:7">
       <c r="A44" s="3" t="s">
         <v>164</v>
       </c>
@@ -3319,7 +3454,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" ht="40.5" spans="1:7">
+    <row r="45" ht="43.2" spans="1:7">
       <c r="A45" s="3" t="s">
         <v>167</v>
       </c>
@@ -3342,7 +3477,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="46" ht="40.5" spans="1:7">
+    <row r="46" ht="43.2" spans="1:7">
       <c r="A46" s="3" t="s">
         <v>170</v>
       </c>
@@ -3365,7 +3500,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" ht="40.5" spans="1:7">
+    <row r="47" ht="43.2" spans="1:7">
       <c r="A47" s="3" t="s">
         <v>173</v>
       </c>
@@ -3388,7 +3523,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="48" ht="40.5" spans="1:7">
+    <row r="48" ht="43.2" spans="1:7">
       <c r="A48" s="3" t="s">
         <v>176</v>
       </c>
@@ -3411,7 +3546,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="49" ht="40.5" spans="1:7">
+    <row r="49" ht="43.2" spans="1:7">
       <c r="A49" s="3" t="s">
         <v>179</v>
       </c>
@@ -3434,7 +3569,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" ht="40.5" spans="1:7">
+    <row r="50" ht="43.2" spans="1:7">
       <c r="A50" s="3" t="s">
         <v>182</v>
       </c>
@@ -3457,7 +3592,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="51" ht="40.5" spans="1:7">
+    <row r="51" ht="43.2" spans="1:7">
       <c r="A51" s="3" t="s">
         <v>187</v>
       </c>
@@ -3480,7 +3615,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="52" ht="27" spans="1:7">
+    <row r="52" ht="31.2" spans="1:7">
       <c r="A52" s="3" t="s">
         <v>189</v>
       </c>
@@ -3500,7 +3635,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="53" ht="40.5" spans="1:7">
+    <row r="53" ht="43.2" spans="1:7">
       <c r="A53" s="3" t="s">
         <v>195</v>
       </c>
@@ -3520,7 +3655,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="54" ht="28.5" spans="1:7">
+    <row r="54" ht="31.2" spans="1:7">
       <c r="A54" s="3" t="s">
         <v>199</v>
       </c>
@@ -3540,7 +3675,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="55" ht="42.75" spans="1:7">
+    <row r="55" ht="46.8" spans="1:7">
       <c r="A55" s="3" t="s">
         <v>203</v>
       </c>
@@ -3560,7 +3695,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="56" ht="42.75" spans="1:7">
+    <row r="56" ht="78" spans="1:7">
       <c r="A56" s="3" t="s">
         <v>206</v>
       </c>
@@ -3580,7 +3715,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="57" ht="54" spans="1:7">
+    <row r="57" ht="78" spans="1:7">
       <c r="A57" s="3" t="s">
         <v>209</v>
       </c>
@@ -3600,7 +3735,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="58" ht="40.5" spans="1:7">
+    <row r="58" ht="43.2" spans="1:7">
       <c r="A58" s="3" t="s">
         <v>212</v>
       </c>
@@ -3620,7 +3755,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="59" ht="40.5" spans="1:7">
+    <row r="59" ht="43.2" spans="1:7">
       <c r="A59" s="3" t="s">
         <v>215</v>
       </c>
@@ -3640,7 +3775,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="60" ht="27" spans="1:7">
+    <row r="60" ht="28.8" spans="1:7">
       <c r="A60" s="3" t="s">
         <v>219</v>
       </c>
@@ -3660,7 +3795,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="61" ht="40.5" spans="1:7">
+    <row r="61" ht="43.2" spans="1:7">
       <c r="A61" s="3" t="s">
         <v>222</v>
       </c>
@@ -3680,7 +3815,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="62" ht="54" spans="1:7">
+    <row r="62" ht="57.6" spans="1:7">
       <c r="A62" s="3" t="s">
         <v>226</v>
       </c>
@@ -3700,7 +3835,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="63" ht="28.5" spans="1:9">
+    <row r="63" ht="31.2" spans="1:9">
       <c r="A63" s="3" t="s">
         <v>231</v>
       </c>
@@ -3725,7 +3860,7 @@
       <c r="H63" s="10"/>
       <c r="I63" s="10"/>
     </row>
-    <row r="64" ht="28.5" spans="1:7">
+    <row r="64" ht="31.2" spans="1:7">
       <c r="A64" s="3" t="s">
         <v>235</v>
       </c>
@@ -3748,7 +3883,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="65" ht="28.5" spans="1:7">
+    <row r="65" ht="31.2" spans="1:7">
       <c r="A65" s="3" t="s">
         <v>238</v>
       </c>
@@ -3771,7 +3906,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="66" ht="28.5" spans="1:7">
+    <row r="66" ht="31.2" spans="1:7">
       <c r="A66" s="3" t="s">
         <v>242</v>
       </c>
@@ -3794,7 +3929,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="67" ht="14.25" spans="1:4">
+    <row r="67" ht="15.6" spans="1:4">
       <c r="A67" s="3" t="s">
         <v>246</v>
       </c>
@@ -3808,7 +3943,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="68" ht="40.5" spans="1:7">
+    <row r="68" ht="43.2" spans="1:7">
       <c r="A68" s="3" t="s">
         <v>250</v>
       </c>
@@ -3828,7 +3963,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="69" ht="67.5" spans="1:7">
+    <row r="69" ht="72" spans="1:7">
       <c r="A69" s="3" t="s">
         <v>255</v>
       </c>
@@ -3848,7 +3983,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="70" ht="54" spans="1:7">
+    <row r="70" ht="57.6" spans="1:7">
       <c r="A70" s="3" t="s">
         <v>260</v>
       </c>
@@ -3868,7 +4003,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="71" ht="42.75" spans="1:7">
+    <row r="71" ht="62.4" spans="1:7">
       <c r="A71" s="3" t="s">
         <v>265</v>
       </c>
@@ -3888,7 +4023,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="72" ht="28.5" spans="1:7">
+    <row r="72" ht="43.2" spans="1:7">
       <c r="A72" s="3" t="s">
         <v>270</v>
       </c>
@@ -3908,7 +4043,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="73" ht="42.75" spans="1:7">
+    <row r="73" ht="46.8" spans="1:7">
       <c r="A73" s="3" t="s">
         <v>275</v>
       </c>
@@ -3928,7 +4063,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="74" ht="28.5" spans="1:7">
+    <row r="74" ht="31.2" spans="1:7">
       <c r="A74" s="3" t="s">
         <v>281</v>
       </c>
@@ -3951,7 +4086,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="75" ht="28.5" spans="1:7">
+    <row r="75" ht="31.2" spans="1:7">
       <c r="A75" s="3" t="s">
         <v>286</v>
       </c>
@@ -3974,7 +4109,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="76" ht="28.5" spans="1:7">
+    <row r="76" ht="31.2" spans="1:7">
       <c r="A76" s="3" t="s">
         <v>289</v>
       </c>
@@ -3997,7 +4132,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="77" ht="28.5" spans="1:7">
+    <row r="77" ht="31.2" spans="1:7">
       <c r="A77" s="3" t="s">
         <v>294</v>
       </c>
@@ -4020,7 +4155,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="78" ht="28.5" spans="1:7">
+    <row r="78" ht="31.2" spans="1:7">
       <c r="A78" s="3" t="s">
         <v>298</v>
       </c>
@@ -4043,7 +4178,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="79" ht="28.5" spans="1:7">
+    <row r="79" ht="31.2" spans="1:7">
       <c r="A79" s="3" t="s">
         <v>302</v>
       </c>
@@ -4066,7 +4201,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="80" ht="28.5" spans="1:7">
+    <row r="80" ht="31.2" spans="1:7">
       <c r="A80" s="3" t="s">
         <v>306</v>
       </c>
@@ -4089,7 +4224,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="81" ht="28.5" spans="1:7">
+    <row r="81" ht="31.2" spans="1:7">
       <c r="A81" s="3" t="s">
         <v>310</v>
       </c>
@@ -4112,7 +4247,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="82" ht="28.5" spans="1:7">
+    <row r="82" ht="31.2" spans="1:7">
       <c r="A82" s="3" t="s">
         <v>314</v>
       </c>
@@ -4135,7 +4270,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="83" ht="28.5" spans="1:7">
+    <row r="83" ht="31.2" spans="1:7">
       <c r="A83" s="3" t="s">
         <v>318</v>
       </c>
@@ -4158,7 +4293,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="84" ht="28.5" spans="1:7">
+    <row r="84" ht="31.2" spans="1:7">
       <c r="A84" s="3" t="s">
         <v>321</v>
       </c>
@@ -4181,7 +4316,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="85" ht="81" spans="1:7">
+    <row r="85" ht="86.4" spans="1:7">
       <c r="A85" s="3" t="s">
         <v>324</v>
       </c>
@@ -4204,7 +4339,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="86" ht="28.5" spans="1:7">
+    <row r="86" ht="31.2" spans="1:7">
       <c r="A86" s="3" t="s">
         <v>327</v>
       </c>
@@ -4224,7 +4359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" ht="28.5" spans="1:4">
+    <row r="87" ht="46.8" spans="1:4">
       <c r="A87" s="3" t="s">
         <v>332</v>
       </c>
@@ -4238,7 +4373,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="88" ht="28.5" spans="1:7">
+    <row r="88" ht="46.8" spans="1:7">
       <c r="A88" s="3" t="s">
         <v>335</v>
       </c>
@@ -4258,7 +4393,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="89" ht="42.75" spans="1:7">
+    <row r="89" ht="46.8" spans="1:7">
       <c r="A89" s="3" t="s">
         <v>339</v>
       </c>
@@ -4279,7 +4414,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="90" ht="28.5" spans="1:4">
+    <row r="90" ht="46.8" spans="1:4">
       <c r="A90" s="3" t="s">
         <v>344</v>
       </c>
@@ -4293,7 +4428,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="91" ht="28.5" spans="1:4">
+    <row r="91" ht="46.8" spans="1:4">
       <c r="A91" s="3" t="s">
         <v>346</v>
       </c>
@@ -4307,7 +4442,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="92" ht="28.5" spans="2:4">
+    <row r="92" ht="46.8" spans="2:4">
       <c r="B92" s="2" t="s">
         <v>348</v>
       </c>
@@ -4318,7 +4453,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="93" ht="28.5" spans="2:7">
+    <row r="93" ht="31.2" spans="2:7">
       <c r="B93" s="7" t="s">
         <v>349</v>
       </c>
@@ -4335,7 +4470,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="94" ht="40.5" spans="2:10">
+    <row r="94" ht="43.2" spans="2:10">
       <c r="B94" s="2" t="s">
         <v>353</v>
       </c>
@@ -4358,7 +4493,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="95" ht="54" spans="2:10">
+    <row r="95" ht="57.6" spans="2:10">
       <c r="B95" s="2" t="s">
         <v>358</v>
       </c>
@@ -4381,7 +4516,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="96" ht="54" spans="2:10">
+    <row r="96" ht="57.6" spans="2:10">
       <c r="B96" s="2" t="s">
         <v>362</v>
       </c>
@@ -4404,7 +4539,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="97" ht="40.5" spans="2:10">
+    <row r="97" ht="43.2" spans="2:10">
       <c r="B97" s="2" t="s">
         <v>365</v>
       </c>
@@ -4427,7 +4562,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="98" ht="54" spans="2:7">
+    <row r="98" ht="57.6" spans="2:7">
       <c r="B98" s="2" t="s">
         <v>368</v>
       </c>
@@ -4447,7 +4582,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="99" ht="54" spans="2:7">
+    <row r="99" ht="57.6" spans="2:7">
       <c r="B99" s="2" t="s">
         <v>370</v>
       </c>
@@ -4467,7 +4602,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="100" ht="40.5" spans="2:7">
+    <row r="100" ht="43.2" spans="2:7">
       <c r="B100" s="2" t="s">
         <v>372</v>
       </c>
@@ -4487,7 +4622,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="101" ht="27" spans="2:7">
+    <row r="101" ht="28.8" spans="2:7">
       <c r="B101" s="2" t="s">
         <v>375</v>
       </c>
@@ -4504,7 +4639,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="102" ht="67.5" spans="2:7">
+    <row r="102" ht="72" spans="2:7">
       <c r="B102" s="7" t="s">
         <v>380</v>
       </c>
@@ -4524,7 +4659,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="103" ht="67.5" spans="2:7">
+    <row r="103" ht="72" spans="2:7">
       <c r="B103" s="2" t="s">
         <v>383</v>
       </c>
@@ -4544,7 +4679,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="104" ht="67.5" spans="2:7">
+    <row r="104" ht="72" spans="2:7">
       <c r="B104" s="2" t="s">
         <v>385</v>
       </c>
@@ -4564,7 +4699,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="105" ht="14.25" spans="2:7">
+    <row r="105" ht="15.6" spans="2:7">
       <c r="B105" s="2" t="s">
         <v>387</v>
       </c>
@@ -4581,7 +4716,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="106" ht="27" spans="2:7">
+    <row r="106" ht="28.8" spans="2:7">
       <c r="B106" s="2" t="s">
         <v>388</v>
       </c>
@@ -4591,12 +4726,275 @@
       <c r="D106" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="E106" s="2"/>
       <c r="F106" t="s">
         <v>41</v>
       </c>
       <c r="G106" t="s">
         <v>211</v>
+      </c>
+    </row>
+    <row r="107" ht="46.8" spans="2:4">
+      <c r="B107" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="108" ht="31.2" spans="2:4">
+      <c r="B108" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="D108" s="13" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="109" ht="31.2" spans="2:4">
+      <c r="B109" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="D109" s="13" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="110" ht="31.2" spans="2:4">
+      <c r="B110" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="D110" s="13" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="111" ht="31.2" spans="2:4">
+      <c r="B111" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="D111" s="13" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="112" ht="31.2" spans="2:4">
+      <c r="B112" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="D112" s="13" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="113" ht="31.2" spans="2:4">
+      <c r="B113" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="D113" s="13" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="114" ht="31.2" spans="2:4">
+      <c r="B114" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="C114" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="D114" s="13" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="115" ht="46.8" spans="2:4">
+      <c r="B115" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="C115" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="D115" s="13" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="116" ht="31.2" spans="2:4">
+      <c r="B116" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="C116" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="D116" s="13" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="117" ht="62.4" spans="2:4">
+      <c r="B117" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="C117" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="D117" s="13" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="118" ht="31.2" spans="2:4">
+      <c r="B118" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="C118" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="D118" s="13" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="119" ht="31.2" spans="2:4">
+      <c r="B119" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="C119" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="D119" s="13" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="120" ht="31.2" spans="2:4">
+      <c r="B120" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="C120" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="D120" s="14" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="121" ht="31.2" spans="2:4">
+      <c r="B121" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="C121" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="D121" s="13" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="122" ht="31.2" spans="2:4">
+      <c r="B122" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="C122" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="D122" s="13" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="123" ht="46.8" spans="2:4">
+      <c r="B123" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="C123" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="D123" s="13" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="124" ht="46.8" spans="2:4">
+      <c r="B124" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="C124" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="D124" s="14" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="125" ht="31.2" spans="2:4">
+      <c r="B125" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="C125" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="D125" s="14" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="126" ht="31.2" spans="2:4">
+      <c r="B126" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="C126" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="D126" s="14" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="127" ht="31.2" spans="2:4">
+      <c r="B127" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="C127" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="D127" s="14" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="128" ht="31.2" spans="2:4">
+      <c r="B128" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="C128" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="D128" s="14" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="129" ht="31.2" spans="2:4">
+      <c r="B129" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="C129" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="D129" s="14" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="130" ht="31.2" spans="2:4">
+      <c r="B130" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="C130" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="D130" s="14" t="s">
+        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -4615,7 +5013,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4632,7 +5030,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data/UI自动化用测试用例.xlsx
+++ b/data/UI自动化用测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22488" windowHeight="9227"/>
+    <workbookView windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="429">
   <si>
     <t>用例编号</t>
   </si>
@@ -1253,37 +1253,31 @@
     <t>通过个人中心修改邮箱入口进入成功</t>
   </si>
   <si>
+    <t>未登录状态下点击购物车页面跳转到登录页面成功</t>
+  </si>
+  <si>
+    <t>购物车</t>
+  </si>
+  <si>
+    <t>未登录状态，存在购物车按钮</t>
+  </si>
+  <si>
     <t>首页显示购物车图标，点击购物车，页面跳转到购物车页面</t>
   </si>
   <si>
-    <t>购物车</t>
-  </si>
-  <si>
     <t>页面正确显示</t>
   </si>
   <si>
-    <t>未登录状态下点击购物车页面跳转到登录页面成功</t>
-  </si>
-  <si>
-    <t>未登录状态，存在购物车按钮</t>
-  </si>
-  <si>
-    <t>登录状态下点击购物车跳转到购物车详情成功</t>
-  </si>
-  <si>
-    <t>登录状态，存在购物车按钮</t>
-  </si>
-  <si>
-    <t>当购物车内无商品时显示正确无误</t>
+    <t>购物车内无商品时点击相关文字跳转到首页成功</t>
   </si>
   <si>
     <t>登录状态，购物车无商品</t>
   </si>
   <si>
-    <t>购物车内无商品时点击相关文字跳转到首页成功</t>
-  </si>
-  <si>
     <t>购物车内包含商品时，购物车图标显示正确</t>
+  </si>
+  <si>
+    <t>购物车1</t>
   </si>
   <si>
     <t>登录状态，购物车包含商品</t>
@@ -1384,12 +1378,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1429,11 +1423,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9.8"/>
+      <color rgb="FF6A8759"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1443,32 +1436,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1483,20 +1466,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1505,7 +1481,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1513,7 +1489,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1529,32 +1513,40 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1566,8 +1558,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1582,25 +1582,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1612,7 +1642,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1630,19 +1666,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1654,13 +1702,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1672,19 +1738,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1696,73 +1756,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1773,6 +1773,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1794,82 +1868,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1881,149 +1881,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2063,14 +2063,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2420,21 +2414,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K130"/>
+  <dimension ref="A1:K128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107:D130"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.3796296296296" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.3833333333333" style="3" customWidth="1"/>
     <col min="2" max="2" width="29" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.8796296296296" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.6296296296296" style="2" customWidth="1"/>
-    <col min="5" max="5" width="83.1111111111111" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.8833333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.6333333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="83.1083333333333" style="2" customWidth="1"/>
     <col min="6" max="6" width="55.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="30.3796296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="30.3833333333333" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -2461,7 +2455,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="31.2" spans="1:7">
+    <row r="2" ht="28.5" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -2484,7 +2478,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" ht="62.4" spans="1:7">
+    <row r="3" ht="57" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -2507,7 +2501,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" ht="62.4" spans="1:7">
+    <row r="4" ht="57" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -2530,7 +2524,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" ht="62.4" spans="1:7">
+    <row r="5" ht="57" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -2553,7 +2547,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" ht="62.4" spans="1:7">
+    <row r="6" ht="57" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
@@ -2576,7 +2570,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" ht="62.4" spans="1:7">
+    <row r="7" ht="57" spans="1:7">
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
@@ -2599,7 +2593,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" ht="31.2" spans="1:7">
+    <row r="8" ht="27" spans="1:7">
       <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
@@ -2622,7 +2616,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="1:11">
+    <row r="9" ht="14.25" spans="1:11">
       <c r="A9" s="3" t="s">
         <v>38</v>
       </c>
@@ -2648,7 +2642,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" ht="31.2" spans="1:8">
+    <row r="10" ht="28.5" spans="1:8">
       <c r="A10" s="3" t="s">
         <v>44</v>
       </c>
@@ -2672,7 +2666,7 @@
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" ht="28.8" spans="1:7">
+    <row r="11" ht="27" spans="1:7">
       <c r="A11" s="3" t="s">
         <v>49</v>
       </c>
@@ -2695,7 +2689,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" ht="31.2" spans="1:7">
+    <row r="12" ht="14.25" spans="1:7">
       <c r="A12" s="3" t="s">
         <v>53</v>
       </c>
@@ -2718,7 +2712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="31.2" spans="1:7">
+    <row r="13" ht="14.25" spans="1:7">
       <c r="A13" s="3" t="s">
         <v>57</v>
       </c>
@@ -2741,7 +2735,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" ht="31.2" spans="1:7">
+    <row r="14" ht="14.25" spans="1:7">
       <c r="A14" s="3" t="s">
         <v>61</v>
       </c>
@@ -2764,7 +2758,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" ht="31.2" spans="1:7">
+    <row r="15" s="2" customFormat="1" ht="14.25" spans="1:7">
       <c r="A15" s="3" t="s">
         <v>65</v>
       </c>
@@ -2787,7 +2781,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" ht="46.8" spans="1:7">
+    <row r="16" ht="42.75" spans="1:7">
       <c r="A16" s="3" t="s">
         <v>67</v>
       </c>
@@ -2810,7 +2804,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" ht="46.8" spans="1:7">
+    <row r="17" ht="42.75" spans="1:7">
       <c r="A17" s="3" t="s">
         <v>73</v>
       </c>
@@ -2833,7 +2827,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" ht="46.8" spans="1:7">
+    <row r="18" ht="42.75" spans="1:7">
       <c r="A18" s="3" t="s">
         <v>78</v>
       </c>
@@ -2856,7 +2850,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" ht="46.8" spans="1:7">
+    <row r="19" ht="42.75" spans="1:7">
       <c r="A19" s="3" t="s">
         <v>81</v>
       </c>
@@ -2879,7 +2873,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" ht="46.8" spans="1:7">
+    <row r="20" ht="42.75" spans="1:7">
       <c r="A20" s="3" t="s">
         <v>84</v>
       </c>
@@ -2902,7 +2896,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" ht="46.8" spans="1:7">
+    <row r="21" ht="42.75" spans="1:7">
       <c r="A21" s="3" t="s">
         <v>87</v>
       </c>
@@ -2925,7 +2919,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" ht="46.8" spans="1:7">
+    <row r="22" ht="42.75" spans="1:7">
       <c r="A22" s="3" t="s">
         <v>90</v>
       </c>
@@ -2948,7 +2942,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" ht="46.8" spans="1:7">
+    <row r="23" ht="42.75" spans="1:7">
       <c r="A23" s="3" t="s">
         <v>93</v>
       </c>
@@ -2971,7 +2965,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" ht="46.8" spans="1:7">
+    <row r="24" ht="42.75" spans="1:7">
       <c r="A24" s="3" t="s">
         <v>96</v>
       </c>
@@ -2994,7 +2988,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" ht="46.8" spans="1:7">
+    <row r="25" ht="42.75" spans="1:7">
       <c r="A25" s="3" t="s">
         <v>99</v>
       </c>
@@ -3017,7 +3011,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" ht="46.8" spans="1:7">
+    <row r="26" ht="42.75" spans="1:7">
       <c r="A26" s="3" t="s">
         <v>102</v>
       </c>
@@ -3040,7 +3034,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" ht="46.8" spans="1:7">
+    <row r="27" ht="42.75" spans="1:7">
       <c r="A27" s="3" t="s">
         <v>105</v>
       </c>
@@ -3063,7 +3057,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" ht="46.8" spans="1:7">
+    <row r="28" ht="42.75" spans="1:7">
       <c r="A28" s="3" t="s">
         <v>108</v>
       </c>
@@ -3086,7 +3080,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" ht="46.8" spans="1:7">
+    <row r="29" ht="42.75" spans="1:7">
       <c r="A29" s="3" t="s">
         <v>111</v>
       </c>
@@ -3109,7 +3103,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" ht="46.8" spans="1:7">
+    <row r="30" ht="42.75" spans="1:7">
       <c r="A30" s="3" t="s">
         <v>114</v>
       </c>
@@ -3132,7 +3126,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" ht="46.8" spans="1:7">
+    <row r="31" ht="42.75" spans="1:7">
       <c r="A31" s="3" t="s">
         <v>117</v>
       </c>
@@ -3155,7 +3149,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" ht="46.8" spans="1:7">
+    <row r="32" ht="42.75" spans="1:7">
       <c r="A32" s="3" t="s">
         <v>120</v>
       </c>
@@ -3178,7 +3172,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" ht="28.8" spans="1:7">
+    <row r="33" ht="27" spans="1:7">
       <c r="A33" s="3" t="s">
         <v>123</v>
       </c>
@@ -3201,7 +3195,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="34" ht="28.8" spans="1:7">
+    <row r="34" ht="27" spans="1:7">
       <c r="A34" s="3" t="s">
         <v>129</v>
       </c>
@@ -3224,7 +3218,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="35" ht="28.8" spans="1:7">
+    <row r="35" ht="27" spans="1:7">
       <c r="A35" s="3" t="s">
         <v>131</v>
       </c>
@@ -3247,7 +3241,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" ht="43.2" spans="1:7">
+    <row r="36" ht="40.5" spans="1:7">
       <c r="A36" s="3" t="s">
         <v>135</v>
       </c>
@@ -3270,7 +3264,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="37" ht="31.2" spans="1:7">
+    <row r="37" ht="28.5" spans="1:7">
       <c r="A37" s="3" t="s">
         <v>142</v>
       </c>
@@ -3293,7 +3287,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" ht="31.2" spans="1:7">
+    <row r="38" ht="28.5" spans="1:7">
       <c r="A38" s="3" t="s">
         <v>146</v>
       </c>
@@ -3316,7 +3310,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" ht="31.2" spans="1:7">
+    <row r="39" ht="28.5" spans="1:7">
       <c r="A39" s="3" t="s">
         <v>148</v>
       </c>
@@ -3339,7 +3333,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" ht="31.2" spans="1:7">
+    <row r="40" ht="28.5" spans="1:7">
       <c r="A40" s="3" t="s">
         <v>151</v>
       </c>
@@ -3362,7 +3356,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="41" ht="31.2" spans="1:7">
+    <row r="41" ht="28.5" spans="1:7">
       <c r="A41" s="3" t="s">
         <v>154</v>
       </c>
@@ -3385,7 +3379,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" ht="43.2" spans="1:7">
+    <row r="42" ht="40.5" spans="1:7">
       <c r="A42" s="3" t="s">
         <v>156</v>
       </c>
@@ -3408,7 +3402,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" ht="43.2" spans="1:7">
+    <row r="43" ht="40.5" spans="1:7">
       <c r="A43" s="3" t="s">
         <v>161</v>
       </c>
@@ -3431,7 +3425,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" ht="43.2" spans="1:7">
+    <row r="44" ht="40.5" spans="1:7">
       <c r="A44" s="3" t="s">
         <v>164</v>
       </c>
@@ -3454,7 +3448,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" ht="43.2" spans="1:7">
+    <row r="45" ht="40.5" spans="1:7">
       <c r="A45" s="3" t="s">
         <v>167</v>
       </c>
@@ -3477,7 +3471,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="46" ht="43.2" spans="1:7">
+    <row r="46" ht="40.5" spans="1:7">
       <c r="A46" s="3" t="s">
         <v>170</v>
       </c>
@@ -3500,7 +3494,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" ht="43.2" spans="1:7">
+    <row r="47" ht="40.5" spans="1:7">
       <c r="A47" s="3" t="s">
         <v>173</v>
       </c>
@@ -3523,7 +3517,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="48" ht="43.2" spans="1:7">
+    <row r="48" ht="40.5" spans="1:7">
       <c r="A48" s="3" t="s">
         <v>176</v>
       </c>
@@ -3546,7 +3540,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="49" ht="43.2" spans="1:7">
+    <row r="49" ht="40.5" spans="1:7">
       <c r="A49" s="3" t="s">
         <v>179</v>
       </c>
@@ -3569,7 +3563,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" ht="43.2" spans="1:7">
+    <row r="50" ht="40.5" spans="1:7">
       <c r="A50" s="3" t="s">
         <v>182</v>
       </c>
@@ -3592,7 +3586,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="51" ht="43.2" spans="1:7">
+    <row r="51" ht="40.5" spans="1:7">
       <c r="A51" s="3" t="s">
         <v>187</v>
       </c>
@@ -3615,7 +3609,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="52" ht="31.2" spans="1:7">
+    <row r="52" ht="27" spans="1:7">
       <c r="A52" s="3" t="s">
         <v>189</v>
       </c>
@@ -3635,7 +3629,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="53" ht="43.2" spans="1:7">
+    <row r="53" ht="40.5" spans="1:7">
       <c r="A53" s="3" t="s">
         <v>195</v>
       </c>
@@ -3655,7 +3649,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="54" ht="31.2" spans="1:7">
+    <row r="54" ht="28.5" spans="1:7">
       <c r="A54" s="3" t="s">
         <v>199</v>
       </c>
@@ -3675,7 +3669,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="55" ht="46.8" spans="1:7">
+    <row r="55" ht="42.75" spans="1:7">
       <c r="A55" s="3" t="s">
         <v>203</v>
       </c>
@@ -3695,7 +3689,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="56" ht="78" spans="1:7">
+    <row r="56" ht="42.75" spans="1:7">
       <c r="A56" s="3" t="s">
         <v>206</v>
       </c>
@@ -3715,7 +3709,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="57" ht="78" spans="1:7">
+    <row r="57" ht="54" spans="1:7">
       <c r="A57" s="3" t="s">
         <v>209</v>
       </c>
@@ -3735,7 +3729,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="58" ht="43.2" spans="1:7">
+    <row r="58" ht="40.5" spans="1:7">
       <c r="A58" s="3" t="s">
         <v>212</v>
       </c>
@@ -3755,7 +3749,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="59" ht="43.2" spans="1:7">
+    <row r="59" ht="40.5" spans="1:7">
       <c r="A59" s="3" t="s">
         <v>215</v>
       </c>
@@ -3775,7 +3769,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="60" ht="28.8" spans="1:7">
+    <row r="60" ht="27" spans="1:7">
       <c r="A60" s="3" t="s">
         <v>219</v>
       </c>
@@ -3795,7 +3789,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="61" ht="43.2" spans="1:7">
+    <row r="61" ht="40.5" spans="1:7">
       <c r="A61" s="3" t="s">
         <v>222</v>
       </c>
@@ -3815,7 +3809,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="62" ht="57.6" spans="1:7">
+    <row r="62" ht="54" spans="1:7">
       <c r="A62" s="3" t="s">
         <v>226</v>
       </c>
@@ -3835,7 +3829,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="63" ht="31.2" spans="1:9">
+    <row r="63" ht="28.5" spans="1:9">
       <c r="A63" s="3" t="s">
         <v>231</v>
       </c>
@@ -3860,7 +3854,7 @@
       <c r="H63" s="10"/>
       <c r="I63" s="10"/>
     </row>
-    <row r="64" ht="31.2" spans="1:7">
+    <row r="64" ht="28.5" spans="1:7">
       <c r="A64" s="3" t="s">
         <v>235</v>
       </c>
@@ -3883,7 +3877,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="65" ht="31.2" spans="1:7">
+    <row r="65" ht="28.5" spans="1:7">
       <c r="A65" s="3" t="s">
         <v>238</v>
       </c>
@@ -3906,7 +3900,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="66" ht="31.2" spans="1:7">
+    <row r="66" ht="28.5" spans="1:7">
       <c r="A66" s="3" t="s">
         <v>242</v>
       </c>
@@ -3929,7 +3923,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="67" ht="15.6" spans="1:4">
+    <row r="67" ht="14.25" spans="1:4">
       <c r="A67" s="3" t="s">
         <v>246</v>
       </c>
@@ -3943,7 +3937,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="68" ht="43.2" spans="1:7">
+    <row r="68" ht="40.5" spans="1:7">
       <c r="A68" s="3" t="s">
         <v>250</v>
       </c>
@@ -3963,7 +3957,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="69" ht="72" spans="1:7">
+    <row r="69" ht="67.5" spans="1:7">
       <c r="A69" s="3" t="s">
         <v>255</v>
       </c>
@@ -3983,7 +3977,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="70" ht="57.6" spans="1:7">
+    <row r="70" ht="54" spans="1:7">
       <c r="A70" s="3" t="s">
         <v>260</v>
       </c>
@@ -4003,7 +3997,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="71" ht="62.4" spans="1:7">
+    <row r="71" ht="42.75" spans="1:7">
       <c r="A71" s="3" t="s">
         <v>265</v>
       </c>
@@ -4023,7 +4017,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="72" ht="43.2" spans="1:7">
+    <row r="72" ht="28.5" spans="1:7">
       <c r="A72" s="3" t="s">
         <v>270</v>
       </c>
@@ -4043,7 +4037,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="73" ht="46.8" spans="1:7">
+    <row r="73" ht="42.75" spans="1:7">
       <c r="A73" s="3" t="s">
         <v>275</v>
       </c>
@@ -4063,7 +4057,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="74" ht="31.2" spans="1:7">
+    <row r="74" ht="28.5" spans="1:7">
       <c r="A74" s="3" t="s">
         <v>281</v>
       </c>
@@ -4086,7 +4080,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="75" ht="31.2" spans="1:7">
+    <row r="75" ht="28.5" spans="1:7">
       <c r="A75" s="3" t="s">
         <v>286</v>
       </c>
@@ -4109,7 +4103,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="76" ht="31.2" spans="1:7">
+    <row r="76" ht="28.5" spans="1:7">
       <c r="A76" s="3" t="s">
         <v>289</v>
       </c>
@@ -4132,7 +4126,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="77" ht="31.2" spans="1:7">
+    <row r="77" ht="28.5" spans="1:7">
       <c r="A77" s="3" t="s">
         <v>294</v>
       </c>
@@ -4155,7 +4149,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="78" ht="31.2" spans="1:7">
+    <row r="78" ht="28.5" spans="1:7">
       <c r="A78" s="3" t="s">
         <v>298</v>
       </c>
@@ -4178,7 +4172,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="79" ht="31.2" spans="1:7">
+    <row r="79" ht="28.5" spans="1:7">
       <c r="A79" s="3" t="s">
         <v>302</v>
       </c>
@@ -4201,7 +4195,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="80" ht="31.2" spans="1:7">
+    <row r="80" ht="28.5" spans="1:7">
       <c r="A80" s="3" t="s">
         <v>306</v>
       </c>
@@ -4224,7 +4218,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="81" ht="31.2" spans="1:7">
+    <row r="81" ht="28.5" spans="1:7">
       <c r="A81" s="3" t="s">
         <v>310</v>
       </c>
@@ -4247,7 +4241,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="82" ht="31.2" spans="1:7">
+    <row r="82" ht="28.5" spans="1:7">
       <c r="A82" s="3" t="s">
         <v>314</v>
       </c>
@@ -4270,7 +4264,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="83" ht="31.2" spans="1:7">
+    <row r="83" ht="28.5" spans="1:7">
       <c r="A83" s="3" t="s">
         <v>318</v>
       </c>
@@ -4293,7 +4287,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="84" ht="31.2" spans="1:7">
+    <row r="84" ht="28.5" spans="1:7">
       <c r="A84" s="3" t="s">
         <v>321</v>
       </c>
@@ -4316,7 +4310,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="85" ht="86.4" spans="1:7">
+    <row r="85" ht="81" spans="1:7">
       <c r="A85" s="3" t="s">
         <v>324</v>
       </c>
@@ -4339,7 +4333,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="86" ht="31.2" spans="1:7">
+    <row r="86" ht="28.5" spans="1:7">
       <c r="A86" s="3" t="s">
         <v>327</v>
       </c>
@@ -4359,7 +4353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" ht="46.8" spans="1:4">
+    <row r="87" ht="28.5" spans="1:4">
       <c r="A87" s="3" t="s">
         <v>332</v>
       </c>
@@ -4373,7 +4367,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="88" ht="46.8" spans="1:7">
+    <row r="88" ht="28.5" spans="1:7">
       <c r="A88" s="3" t="s">
         <v>335</v>
       </c>
@@ -4393,7 +4387,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="89" ht="46.8" spans="1:7">
+    <row r="89" ht="42.75" spans="1:7">
       <c r="A89" s="3" t="s">
         <v>339</v>
       </c>
@@ -4414,7 +4408,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="90" ht="46.8" spans="1:4">
+    <row r="90" ht="28.5" spans="1:4">
       <c r="A90" s="3" t="s">
         <v>344</v>
       </c>
@@ -4428,7 +4422,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="91" ht="46.8" spans="1:4">
+    <row r="91" ht="28.5" spans="1:4">
       <c r="A91" s="3" t="s">
         <v>346</v>
       </c>
@@ -4442,7 +4436,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="92" ht="46.8" spans="2:4">
+    <row r="92" ht="28.5" spans="2:4">
       <c r="B92" s="2" t="s">
         <v>348</v>
       </c>
@@ -4453,7 +4447,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="93" ht="31.2" spans="2:7">
+    <row r="93" ht="28.5" spans="2:7">
       <c r="B93" s="7" t="s">
         <v>349</v>
       </c>
@@ -4470,7 +4464,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="94" ht="43.2" spans="2:10">
+    <row r="94" ht="40.5" spans="2:10">
       <c r="B94" s="2" t="s">
         <v>353</v>
       </c>
@@ -4493,7 +4487,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="95" ht="57.6" spans="2:10">
+    <row r="95" ht="54" spans="2:10">
       <c r="B95" s="2" t="s">
         <v>358</v>
       </c>
@@ -4516,7 +4510,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="96" ht="57.6" spans="2:10">
+    <row r="96" ht="54" spans="2:10">
       <c r="B96" s="2" t="s">
         <v>362</v>
       </c>
@@ -4539,7 +4533,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="97" ht="43.2" spans="2:10">
+    <row r="97" ht="40.5" spans="2:10">
       <c r="B97" s="2" t="s">
         <v>365</v>
       </c>
@@ -4562,7 +4556,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="98" ht="57.6" spans="2:7">
+    <row r="98" ht="54" spans="2:7">
       <c r="B98" s="2" t="s">
         <v>368</v>
       </c>
@@ -4582,7 +4576,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="99" ht="57.6" spans="2:7">
+    <row r="99" ht="54" spans="2:7">
       <c r="B99" s="2" t="s">
         <v>370</v>
       </c>
@@ -4602,7 +4596,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="100" ht="43.2" spans="2:7">
+    <row r="100" ht="40.5" spans="2:7">
       <c r="B100" s="2" t="s">
         <v>372</v>
       </c>
@@ -4622,7 +4616,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="101" ht="28.8" spans="2:7">
+    <row r="101" ht="27" spans="2:7">
       <c r="B101" s="2" t="s">
         <v>375</v>
       </c>
@@ -4639,7 +4633,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="102" ht="72" spans="2:7">
+    <row r="102" ht="67.5" spans="2:7">
       <c r="B102" s="7" t="s">
         <v>380</v>
       </c>
@@ -4659,7 +4653,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="103" ht="72" spans="2:7">
+    <row r="103" ht="67.5" spans="2:7">
       <c r="B103" s="2" t="s">
         <v>383</v>
       </c>
@@ -4679,7 +4673,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="104" ht="72" spans="2:7">
+    <row r="104" ht="67.5" spans="2:7">
       <c r="B104" s="2" t="s">
         <v>385</v>
       </c>
@@ -4699,7 +4693,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="105" ht="15.6" spans="2:7">
+    <row r="105" ht="14.25" spans="2:7">
       <c r="B105" s="2" t="s">
         <v>387</v>
       </c>
@@ -4716,7 +4710,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="106" ht="28.8" spans="2:7">
+    <row r="106" ht="27" spans="2:7">
       <c r="B106" s="2" t="s">
         <v>388</v>
       </c>
@@ -4733,268 +4727,252 @@
         <v>211</v>
       </c>
     </row>
-    <row r="107" ht="46.8" spans="2:4">
-      <c r="B107" s="13" t="s">
+    <row r="107" ht="28.5" spans="2:7">
+      <c r="B107" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="C107" s="13" t="s">
+      <c r="C107" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="D107" s="13" t="s">
+      <c r="D107" s="7" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="108" ht="31.2" spans="2:4">
-      <c r="B108" s="13" t="s">
+      <c r="F107" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G107" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="108" ht="28.5" spans="2:4">
+      <c r="B108" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="C108" s="13" t="s">
+      <c r="C108" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="D108" s="13" t="s">
+      <c r="D108" s="7" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="109" ht="31.2" spans="2:4">
-      <c r="B109" s="13" t="s">
+    <row r="109" ht="28.5" spans="2:4">
+      <c r="B109" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="C109" s="13" t="s">
+      <c r="C109" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="D109" s="13" t="s">
+      <c r="D109" s="7" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="110" ht="31.2" spans="2:4">
-      <c r="B110" s="13" t="s">
+    <row r="110" ht="28.5" spans="2:4">
+      <c r="B110" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="C110" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="D110" s="13" t="s">
+      <c r="C110" s="7" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="111" ht="31.2" spans="2:4">
-      <c r="B111" s="13" t="s">
+      <c r="D110" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="C111" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="D111" s="13" t="s">
+    </row>
+    <row r="111" ht="28.5" spans="2:4">
+      <c r="B111" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="C111" s="7" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="112" ht="31.2" spans="2:4">
-      <c r="B112" s="14" t="s">
-        <v>399</v>
-      </c>
-      <c r="C112" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="D112" s="13" t="s">
+      <c r="D111" s="7" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="113" ht="31.2" spans="2:4">
-      <c r="B113" s="14" t="s">
+    <row r="112" ht="28.5" spans="2:4">
+      <c r="B112" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="C113" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="D113" s="13" t="s">
+      <c r="C112" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="D112" s="7" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="114" ht="31.2" spans="2:4">
-      <c r="B114" s="14" t="s">
+    <row r="113" ht="42.75" spans="2:4">
+      <c r="B113" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="C114" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="D114" s="13" t="s">
+      <c r="C113" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="D113" s="7" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="115" ht="46.8" spans="2:4">
-      <c r="B115" s="14" t="s">
+    <row r="114" ht="28.5" spans="2:4">
+      <c r="B114" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="C115" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="D115" s="13" t="s">
+      <c r="C114" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="D114" s="7" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="116" ht="31.2" spans="2:4">
-      <c r="B116" s="14" t="s">
+    <row r="115" ht="42.75" spans="2:4">
+      <c r="B115" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="C116" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="D116" s="13" t="s">
+      <c r="C115" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="D115" s="7" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="117" ht="62.4" spans="2:4">
-      <c r="B117" s="14" t="s">
+    <row r="116" ht="28.5" spans="2:4">
+      <c r="B116" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="C117" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="D117" s="13" t="s">
+      <c r="C116" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="D116" s="7" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="118" ht="31.2" spans="2:4">
-      <c r="B118" s="14" t="s">
+    <row r="117" ht="28.5" spans="2:4">
+      <c r="B117" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="C118" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="D118" s="13" t="s">
+      <c r="C117" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="D117" s="7" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="119" ht="31.2" spans="2:4">
-      <c r="B119" s="14" t="s">
+    <row r="118" ht="28.5" spans="2:4">
+      <c r="B118" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="C119" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="D119" s="13" t="s">
+      <c r="C118" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="119" ht="28.5" spans="2:4">
+      <c r="B119" s="7" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="120" ht="31.2" spans="2:4">
-      <c r="B120" s="14" t="s">
+      <c r="C119" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="120" ht="28.5" spans="2:4">
+      <c r="B120" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="C120" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="D120" s="14" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="121" ht="31.2" spans="2:4">
-      <c r="B121" s="14" t="s">
+      <c r="C120" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="121" ht="42.75" spans="2:4">
+      <c r="B121" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="C121" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="D121" s="13" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="122" ht="31.2" spans="2:4">
-      <c r="B122" s="14" t="s">
+      <c r="C121" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="D121" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="C122" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="D122" s="13" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="123" ht="46.8" spans="2:4">
-      <c r="B123" s="14" t="s">
+    </row>
+    <row r="122" ht="28.5" spans="2:4">
+      <c r="B122" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="C123" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="D123" s="13" t="s">
+      <c r="C122" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="D122" s="7" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="124" ht="46.8" spans="2:4">
-      <c r="B124" s="14" t="s">
+    <row r="123" ht="28.5" spans="2:4">
+      <c r="B123" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="C124" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="D124" s="14" t="s">
+      <c r="C123" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="D123" s="7" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="125" ht="31.2" spans="2:4">
-      <c r="B125" s="14" t="s">
+    <row r="124" ht="28.5" spans="2:4">
+      <c r="B124" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="C125" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="D125" s="14" t="s">
+      <c r="C124" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="D124" s="7" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="126" ht="31.2" spans="2:4">
-      <c r="B126" s="14" t="s">
+    <row r="125" ht="28.5" spans="2:4">
+      <c r="B125" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="C126" s="15" t="s">
-        <v>390</v>
-      </c>
-      <c r="D126" s="14" t="s">
+      <c r="C125" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="D125" s="7" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="127" ht="31.2" spans="2:4">
-      <c r="B127" s="14" t="s">
+    <row r="126" ht="28.5" spans="2:4">
+      <c r="B126" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="C127" s="15" t="s">
-        <v>390</v>
-      </c>
-      <c r="D127" s="14" t="s">
+      <c r="C126" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="127" ht="28.5" spans="2:4">
+      <c r="B127" s="7" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="128" ht="31.2" spans="2:4">
-      <c r="B128" s="14" t="s">
+      <c r="C127" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="128" ht="28.5" spans="2:4">
+      <c r="B128" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="C128" s="15" t="s">
-        <v>390</v>
-      </c>
-      <c r="D128" s="14" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="129" ht="31.2" spans="2:4">
-      <c r="B129" s="14" t="s">
-        <v>429</v>
-      </c>
-      <c r="C129" s="15" t="s">
-        <v>390</v>
-      </c>
-      <c r="D129" s="14" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="130" ht="31.2" spans="2:4">
-      <c r="B130" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="C130" s="15" t="s">
-        <v>390</v>
-      </c>
-      <c r="D130" s="14" t="s">
-        <v>427</v>
+      <c r="C128" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -5013,7 +4991,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5030,7 +5008,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data/UI自动化用测试用例.xlsx
+++ b/data/UI自动化用测试用例.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="431">
   <si>
     <t>用例编号</t>
   </si>
@@ -1274,12 +1274,15 @@
     <t>登录状态，购物车无商品</t>
   </si>
   <si>
+    <t>class name=pointer.all</t>
+  </si>
+  <si>
+    <t>Full catalog</t>
+  </si>
+  <si>
     <t>购物车内包含商品时，购物车图标显示正确</t>
   </si>
   <si>
-    <t>购物车1</t>
-  </si>
-  <si>
     <t>登录状态，购物车包含商品</t>
   </si>
   <si>
@@ -1289,55 +1292,10 @@
     <t>登录状态，购物车数量超过99个</t>
   </si>
   <si>
-    <t>在商品详情页点击ADD Car添加到购物车成功</t>
-  </si>
-  <si>
-    <t>登录状态，存在商品</t>
-  </si>
-  <si>
-    <t>购物车包含相关商品时，在该商品详情页点击ADDCar 商品数量+1</t>
-  </si>
-  <si>
-    <t>登录状态，购物车存在相关商品</t>
-  </si>
-  <si>
-    <t>通过搜索出商品时，点击ADD Car添加到购物车成功</t>
-  </si>
-  <si>
-    <t>登录状态，存在相关商品</t>
-  </si>
-  <si>
-    <t>当购物车添加的商品等于商品库存时再次点击ADDcar,添加失败</t>
-  </si>
-  <si>
-    <t>登录状态，购物车内该商品数量已达商品库存数量</t>
-  </si>
-  <si>
-    <t>当该商品库存不足的时候添加到购物车失败</t>
-  </si>
-  <si>
-    <t>登录状态，该商品库存为0</t>
-  </si>
-  <si>
-    <t>当购物车存在商品时点击+商品数量+1</t>
-  </si>
-  <si>
-    <t>登录状态，购物车存在该商品</t>
-  </si>
-  <si>
-    <t>当购物车存在商品时点击- 商品数量-1</t>
-  </si>
-  <si>
-    <t>点击 数量栏输入数字快速添加商品数量成功</t>
-  </si>
-  <si>
-    <t>点击数量栏输入非数字添加商品数量失败</t>
-  </si>
-  <si>
-    <t>当商品添加数量等于商品库存时再次点击+号添加失败</t>
-  </si>
-  <si>
-    <t>登录状态，购物车商品数量等于改商品库存数量</t>
+    <t>class name=num</t>
+  </si>
+  <si>
+    <t>99+</t>
   </si>
   <si>
     <t>当商品添加数量为1时无法点击-号</t>
@@ -1346,16 +1304,7 @@
     <t>登录状态，购物车存在商品且数量为1</t>
   </si>
   <si>
-    <t>添加到购物车的商品无货时正确显示</t>
-  </si>
-  <si>
-    <t>购物车存在无货商品</t>
-  </si>
-  <si>
-    <t>添加到购物车的商品下架时正确的显示</t>
-  </si>
-  <si>
-    <t>购物车存在下架商品</t>
+    <t>class name=cart-btn-count.ant-btn</t>
   </si>
   <si>
     <t>勾选多个商品批量结算成功</t>
@@ -1364,13 +1313,70 @@
     <t>购物车存在多件商品</t>
   </si>
   <si>
-    <t>勾选多个商品时价格显示正确</t>
-  </si>
-  <si>
-    <t>勾选多个商品点击删除批量删除成功</t>
-  </si>
-  <si>
-    <t>点击ALL Choices 所有商品被勾选</t>
+    <t>点击ALL Choices 所有商品被勾选，点击删除删除成功</t>
+  </si>
+  <si>
+    <t>首页广告位点击页数可以跳转到指定广告位页面</t>
+  </si>
+  <si>
+    <t>广告位</t>
+  </si>
+  <si>
+    <t>存在多个广告位数据</t>
+  </si>
+  <si>
+    <t>点击广告位图片页面跳转到相关页面</t>
+  </si>
+  <si>
+    <t>广告位1</t>
+  </si>
+  <si>
+    <t>存在广告位，且跳转路径正确</t>
+  </si>
+  <si>
+    <t>class name=title.text-black.margin-bottom-sm</t>
+  </si>
+  <si>
+    <t>["JESUN Air Compre-5550","NEWGEAR Planetar-4143","Bauer Air Compre-6879"]</t>
+  </si>
+  <si>
+    <t>首页侧栏广告位正确显示</t>
+  </si>
+  <si>
+    <t>存在侧栏广告位</t>
+  </si>
+  <si>
+    <t>点击侧栏广告位页面正确跳转</t>
+  </si>
+  <si>
+    <t>存在侧栏广告位，跳转路径正确</t>
+  </si>
+  <si>
+    <t>Category recommendation 广告位正确显示</t>
+  </si>
+  <si>
+    <t>存在类别推荐广告</t>
+  </si>
+  <si>
+    <t>class="slick-slide slick-active slick-current"</t>
+  </si>
+  <si>
+    <t>点击Category recommendation 广告位正确跳转</t>
+  </si>
+  <si>
+    <t>存在类别推荐广告，跳转路径正确</t>
+  </si>
+  <si>
+    <t>导航栏广告位正确显示</t>
+  </si>
+  <si>
+    <t>存在导航栏广告</t>
+  </si>
+  <si>
+    <t>点击导航栏广告位正确跳转</t>
+  </si>
+  <si>
+    <t>存在导航栏广告，跳转路径正确无误</t>
   </si>
 </sst>
 </file>
@@ -1378,10 +1384,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1430,41 +1436,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1480,16 +1457,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1503,19 +1495,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1560,7 +1552,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1568,6 +1560,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1582,13 +1588,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1600,7 +1600,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1618,13 +1618,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1642,7 +1696,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1654,31 +1714,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1690,19 +1726,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1714,7 +1744,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1726,43 +1756,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1791,6 +1797,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1798,21 +1819,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1850,16 +1856,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1881,149 +1887,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2065,6 +2071,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2414,10 +2423,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K128"/>
+  <dimension ref="A1:K122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="E110" sqref="E110"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="G123" sqref="G123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4755,7 +4764,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="109" ht="28.5" spans="2:4">
+    <row r="109" ht="28.5" spans="2:7">
       <c r="B109" s="7" t="s">
         <v>394</v>
       </c>
@@ -4765,214 +4774,181 @@
       <c r="D109" s="7" t="s">
         <v>395</v>
       </c>
+      <c r="F109" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="110" ht="28.5" spans="2:4">
       <c r="B110" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="111" ht="28.5" spans="2:4">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="111" ht="28.5" spans="2:7">
       <c r="B111" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="112" ht="28.5" spans="2:4">
+        <v>401</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="112" ht="28.5" spans="2:7">
       <c r="B112" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="113" ht="42.75" spans="2:4">
+        <v>405</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="113" ht="28.5" spans="2:4">
       <c r="B113" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="114" ht="28.5" spans="2:4">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="114" ht="40.5" spans="2:7">
       <c r="B114" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="115" ht="42.75" spans="2:4">
-      <c r="B115" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="D115" s="7" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="116" ht="28.5" spans="2:4">
-      <c r="B116" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="D116" s="7" t="s">
+      <c r="F114" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="115" ht="28.5" spans="2:4">
+      <c r="B115" s="14" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="117" ht="28.5" spans="2:4">
-      <c r="B117" s="7" t="s">
+      <c r="C115" s="14" t="s">
         <v>411</v>
       </c>
-      <c r="C117" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="D117" s="7" t="s">
+      <c r="D115" s="14" t="s">
         <v>412</v>
       </c>
     </row>
+    <row r="116" ht="54" spans="2:7">
+      <c r="B116" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="C116" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="D116" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="117" ht="21" customHeight="1" spans="2:4">
+      <c r="B117" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="C117" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="D117" s="14" t="s">
+        <v>419</v>
+      </c>
+    </row>
     <row r="118" ht="28.5" spans="2:4">
-      <c r="B118" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="D118" s="7" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="119" ht="28.5" spans="2:4">
-      <c r="B119" s="7" t="s">
+      <c r="B118" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="C118" s="14" t="s">
         <v>414</v>
       </c>
-      <c r="C119" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="D119" s="7" t="s">
-        <v>412</v>
+      <c r="D118" s="14" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="119" ht="28.5" spans="2:6">
+      <c r="B119" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="C119" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="D119" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="120" ht="28.5" spans="2:4">
-      <c r="B120" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="121" ht="42.75" spans="2:4">
-      <c r="B121" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="D121" s="7" t="s">
-        <v>417</v>
+      <c r="B120" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="C120" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="D120" s="14" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="121" ht="14.25" spans="2:4">
+      <c r="B121" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="C121" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="D121" s="14" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="122" ht="28.5" spans="2:4">
-      <c r="B122" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="123" ht="28.5" spans="2:4">
-      <c r="B123" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="124" ht="28.5" spans="2:4">
-      <c r="B124" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="D124" s="7" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="125" ht="28.5" spans="2:4">
-      <c r="B125" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="C125" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="126" ht="28.5" spans="2:4">
-      <c r="B126" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="C126" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="D126" s="7" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="127" ht="28.5" spans="2:4">
-      <c r="B127" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="C127" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="D127" s="7" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="128" ht="28.5" spans="2:4">
-      <c r="B128" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="D128" s="7" t="s">
-        <v>425</v>
+      <c r="B122" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="C122" s="14">
+        <v>1</v>
+      </c>
+      <c r="D122" s="14" t="s">
+        <v>430</v>
       </c>
     </row>
   </sheetData>

--- a/data/UI自动化用测试用例.xlsx
+++ b/data/UI自动化用测试用例.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="451">
   <si>
     <t>用例编号</t>
   </si>
@@ -1325,51 +1325,63 @@
     <t>存在多个广告位数据</t>
   </si>
   <si>
+    <t>slick-slide slick-active slick-current</t>
+  </si>
+  <si>
     <t>点击广告位图片页面跳转到相关页面</t>
   </si>
   <si>
+    <t>存在广告位，且跳转路径正确</t>
+  </si>
+  <si>
+    <t>class name=title.text-black.margin-bottom-sm</t>
+  </si>
+  <si>
+    <t>["JESUN Air Compre-5550","NEWGEAR Planetar-4143","Bauer Air Compre-6879"]</t>
+  </si>
+  <si>
+    <t>首页侧栏广告位正确显示</t>
+  </si>
+  <si>
+    <t>存在侧栏广告位</t>
+  </si>
+  <si>
+    <t>class name=part-right</t>
+  </si>
+  <si>
+    <t>点击侧栏广告位页面正确跳转</t>
+  </si>
+  <si>
+    <t>存在侧栏广告位，跳转路径正确</t>
+  </si>
+  <si>
+    <t>YITENG Water Pum-8329</t>
+  </si>
+  <si>
+    <t>Category recommendation 广告位正确显示</t>
+  </si>
+  <si>
+    <t>存在类别推荐广告</t>
+  </si>
+  <si>
+    <t>class name=item-left</t>
+  </si>
+  <si>
+    <t>点击Category recommendation 广告位正确跳转</t>
+  </si>
+  <si>
+    <t>存在类别推荐广告，跳转路径正确</t>
+  </si>
+  <si>
+    <t>["HACH Transmitter-5832","ESA HMI VT300WA0-7433","HITACHI Contacto-3447"]</t>
+  </si>
+  <si>
+    <t>导航栏广告位正确显示</t>
+  </si>
+  <si>
     <t>广告位1</t>
   </si>
   <si>
-    <t>存在广告位，且跳转路径正确</t>
-  </si>
-  <si>
-    <t>class name=title.text-black.margin-bottom-sm</t>
-  </si>
-  <si>
-    <t>["JESUN Air Compre-5550","NEWGEAR Planetar-4143","Bauer Air Compre-6879"]</t>
-  </si>
-  <si>
-    <t>首页侧栏广告位正确显示</t>
-  </si>
-  <si>
-    <t>存在侧栏广告位</t>
-  </si>
-  <si>
-    <t>点击侧栏广告位页面正确跳转</t>
-  </si>
-  <si>
-    <t>存在侧栏广告位，跳转路径正确</t>
-  </si>
-  <si>
-    <t>Category recommendation 广告位正确显示</t>
-  </si>
-  <si>
-    <t>存在类别推荐广告</t>
-  </si>
-  <si>
-    <t>class="slick-slide slick-active slick-current"</t>
-  </si>
-  <si>
-    <t>点击Category recommendation 广告位正确跳转</t>
-  </si>
-  <si>
-    <t>存在类别推荐广告，跳转路径正确</t>
-  </si>
-  <si>
-    <t>导航栏广告位正确显示</t>
-  </si>
-  <si>
     <t>存在导航栏广告</t>
   </si>
   <si>
@@ -1377,6 +1389,54 @@
   </si>
   <si>
     <t>存在导航栏广告，跳转路径正确无误</t>
+  </si>
+  <si>
+    <t>未登录状态签到栏显示正确</t>
+  </si>
+  <si>
+    <t>签到</t>
+  </si>
+  <si>
+    <t>未登录状态</t>
+  </si>
+  <si>
+    <t>class name=atn-btn-orange.ant-btn</t>
+  </si>
+  <si>
+    <t>registered</t>
+  </si>
+  <si>
+    <t>页面存在签到栏正确显示</t>
+  </si>
+  <si>
+    <t>登录状态</t>
+  </si>
+  <si>
+    <t>Sign in</t>
+  </si>
+  <si>
+    <t>未签到状态签到成功</t>
+  </si>
+  <si>
+    <t>登录状态、未签到</t>
+  </si>
+  <si>
+    <t>css selector=body &gt; div.ant-message &gt; span</t>
+  </si>
+  <si>
+    <t>Check in succeeded</t>
+  </si>
+  <si>
+    <t>已签到状态签到失败</t>
+  </si>
+  <si>
+    <t>登录状态、已签到</t>
+  </si>
+  <si>
+    <t>css selector=#app &gt; div &gt; div.ui-container &gt; div.content &gt; div.index-time.flex.space-between.align-center.margin-bottom &gt; div.sign-part.bg-white.flex.space-between.align-center.border-radius-sm &gt; div.part-right &gt; button</t>
+  </si>
+  <si>
+    <t>Sign in successfully</t>
   </si>
 </sst>
 </file>
@@ -1384,10 +1444,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1436,6 +1496,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1449,24 +1516,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1474,14 +1541,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1518,14 +1577,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1552,7 +1603,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1565,15 +1624,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1585,6 +1645,24 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1600,13 +1678,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1618,13 +1738,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1636,79 +1786,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1720,19 +1798,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1744,7 +1810,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1756,19 +1822,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1793,21 +1853,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1856,6 +1901,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1870,15 +1939,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1887,10 +1947,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1899,137 +1959,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2071,6 +2131,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2423,10 +2486,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K122"/>
+  <dimension ref="A1:K126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="G123" sqref="G123"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2435,7 +2498,7 @@
     <col min="2" max="2" width="29" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.8833333333333" style="2" customWidth="1"/>
     <col min="4" max="4" width="17.6333333333333" style="2" customWidth="1"/>
-    <col min="5" max="5" width="83.1083333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="53.375" style="2" customWidth="1"/>
     <col min="6" max="6" width="55.25" style="2" customWidth="1"/>
     <col min="7" max="7" width="30.3833333333333" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
@@ -4854,25 +4917,28 @@
         <v>225</v>
       </c>
     </row>
-    <row r="115" ht="28.5" spans="2:4">
-      <c r="B115" s="14" t="s">
+    <row r="115" ht="28.5" spans="2:7">
+      <c r="B115" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="C115" s="14" t="s">
+      <c r="C115" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="D115" s="14" t="s">
+      <c r="D115" s="7" t="s">
         <v>412</v>
       </c>
+      <c r="G115" s="2" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="116" ht="54" spans="2:7">
-      <c r="B116" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="C116" s="14" t="s">
+      <c r="B116" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="D116" s="14" t="s">
+      <c r="C116" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="D116" s="7" t="s">
         <v>415</v>
       </c>
       <c r="F116" s="2" t="s">
@@ -4882,73 +4948,162 @@
         <v>417</v>
       </c>
     </row>
-    <row r="117" ht="21" customHeight="1" spans="2:4">
-      <c r="B117" s="14" t="s">
+    <row r="117" ht="21" customHeight="1" spans="2:7">
+      <c r="B117" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="C117" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="D117" s="14" t="s">
+      <c r="C117" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="D117" s="7" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="118" ht="28.5" spans="2:4">
-      <c r="B118" s="14" t="s">
+      <c r="F117" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="C118" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="D118" s="14" t="s">
+      <c r="G117" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="118" ht="28.5" spans="2:7">
+      <c r="B118" s="7" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="119" ht="28.5" spans="2:6">
-      <c r="B119" s="14" t="s">
+      <c r="C118" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="D118" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="C119" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="D119" s="14" t="s">
+      <c r="F118" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>423</v>
       </c>
+    </row>
+    <row r="119" ht="28.5" spans="2:7">
+      <c r="B119" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>425</v>
+      </c>
       <c r="F119" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="120" ht="28.5" spans="2:4">
-      <c r="B120" s="14" t="s">
-        <v>425</v>
-      </c>
-      <c r="C120" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="D120" s="14" t="s">
         <v>426</v>
       </c>
+      <c r="G119" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="120" ht="40.5" spans="2:7">
+      <c r="B120" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="121" ht="14.25" spans="2:4">
-      <c r="B121" s="14" t="s">
-        <v>427</v>
-      </c>
-      <c r="C121" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="D121" s="14" t="s">
-        <v>428</v>
+      <c r="B121" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="122" ht="28.5" spans="2:4">
-      <c r="B122" s="14" t="s">
-        <v>429</v>
-      </c>
-      <c r="C122" s="14">
-        <v>1</v>
-      </c>
-      <c r="D122" s="14" t="s">
-        <v>430</v>
+      <c r="B122" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="123" ht="14.25" spans="2:7">
+      <c r="B123" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="C123" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="D123" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="124" ht="14.25" spans="2:7">
+      <c r="B124" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="C124" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="D124" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="125" ht="14.25" spans="2:7">
+      <c r="B125" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="C125" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="D125" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="126" ht="67.5" spans="2:7">
+      <c r="B126" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="C126" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="D126" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>450</v>
       </c>
     </row>
   </sheetData>

--- a/data/UI自动化用测试用例.xlsx
+++ b/data/UI自动化用测试用例.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="490">
   <si>
     <t>用例编号</t>
   </si>
@@ -535,7 +535,7 @@
     <t>42</t>
   </si>
   <si>
-    <t>输入7位纯数字修改失败</t>
+    <t>输入7位纯数字修改成功</t>
   </si>
   <si>
     <t>useraccount=a979172251@163.com
@@ -545,7 +545,7 @@
     <t>43</t>
   </si>
   <si>
-    <t>输入7位英文小写密码修改失败</t>
+    <t>输入7位英文小写密码修改成功</t>
   </si>
   <si>
     <t>useraccount=a979172251@163.com
@@ -555,7 +555,7 @@
     <t>44</t>
   </si>
   <si>
-    <t>输入7位英文大写密码修改失败</t>
+    <t>输入7位英文大写密码修改成功</t>
   </si>
   <si>
     <t>useraccount=a979172251@163.com
@@ -565,7 +565,7 @@
     <t>45</t>
   </si>
   <si>
-    <t>输入7位特殊字符密码修改失败</t>
+    <t>输入7位特殊字符密码修改成功</t>
   </si>
   <si>
     <t>useraccount=a979172251@163.com
@@ -1155,7 +1155,7 @@
   <si>
     <t>reason=Model error
 text=123412412
-img=C:\Users\admin\PycharmProjects\pythonProject\okmarts_ui_test\data\Emblème-LG.jpg</t>
+img=C:\Users\admin\PycharmProjects\pythonProject\okmarts_ui_test\data\1.jpg</t>
   </si>
   <si>
     <t>Model error</t>
@@ -1177,7 +1177,7 @@
   <si>
     <t>reason=Wrong order inform ation
 text=123412412
-img=C:\Users\admin\PycharmProjects\pythonProject\okmarts_ui_test\data\Emblème-LG.jpg</t>
+img=C:\Users\admin\PycharmProjects\pythonProject\okmarts_ui_test\data\1.jpg</t>
   </si>
   <si>
     <t>使用other提交退货单成功</t>
@@ -1185,7 +1185,7 @@
   <si>
     <t>reason=other
 text=123412412
-img=C:\Users\admin\PycharmProjects\pythonProject\okmarts_ui_test\data\Emblème-LG.jpg</t>
+img=C:\Users\admin\PycharmProjects\pythonProject\okmarts_ui_test\data\1.jpg</t>
   </si>
   <si>
     <t>使用视频文件提交退货单失败</t>
@@ -1437,6 +1437,123 @@
   </si>
   <si>
     <t>Sign in successfully</t>
+  </si>
+  <si>
+    <t>点击View details 跳转至优惠券页面成功</t>
+  </si>
+  <si>
+    <t>优惠券</t>
+  </si>
+  <si>
+    <t>登陆状态，个人信息页面</t>
+  </si>
+  <si>
+    <t>class name=text-tit-lg.flex</t>
+  </si>
+  <si>
+    <t>Coupon details</t>
+  </si>
+  <si>
+    <t>选择UNused显示未使用优惠券</t>
+  </si>
+  <si>
+    <t>登陆状态，在优惠券页面，且存在使用和未使用优惠券</t>
+  </si>
+  <si>
+    <t>unused</t>
+  </si>
+  <si>
+    <t>选择used显示已使用优惠券</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>点击Points Mall，页面成功跳转到积分商城页面</t>
+  </si>
+  <si>
+    <t>优惠券1</t>
+  </si>
+  <si>
+    <t>登录状态，在个人信息页面</t>
+  </si>
+  <si>
+    <t>class name=text-tit-lg.flex.margin-bottom-xs</t>
+  </si>
+  <si>
+    <t>Points Mall</t>
+  </si>
+  <si>
+    <t>选择优惠券兑换成功</t>
+  </si>
+  <si>
+    <t>登录状态，在积分商城页面，存在足够积分、优惠券</t>
+  </si>
+  <si>
+    <t>兑换库存不足优惠券兑换失败</t>
+  </si>
+  <si>
+    <t>登录状态，在积分商城页面，存在足够积分</t>
+  </si>
+  <si>
+    <t>使用积分不足账户兑换优惠券兑换失败</t>
+  </si>
+  <si>
+    <t>登录状态，在积分商城页面，存在足够优惠券</t>
+  </si>
+  <si>
+    <t>无法使用过期优惠券进行结算</t>
+  </si>
+  <si>
+    <t>存在已过期优惠券，购物车存在商品</t>
+  </si>
+  <si>
+    <t>使用未使用优惠券进行结算结算成功</t>
+  </si>
+  <si>
+    <t>存在未使用优惠券，购物车存在商品</t>
+  </si>
+  <si>
+    <t>点击优惠券使用帮助查看页面成功</t>
+  </si>
+  <si>
+    <t>存在于积分商城页面</t>
+  </si>
+  <si>
+    <t>不存在优惠卷时页面正确显示</t>
+  </si>
+  <si>
+    <t>不存在优惠卷</t>
+  </si>
+  <si>
+    <t>存在优惠卷时页面正确显示</t>
+  </si>
+  <si>
+    <t>存在优惠卷</t>
+  </si>
+  <si>
+    <t>存在多条优惠卷时页面正确显示</t>
+  </si>
+  <si>
+    <t>存在30条以上优惠卷</t>
+  </si>
+  <si>
+    <t>连续点击兑换兑换一张优惠卷</t>
+  </si>
+  <si>
+    <t>在积分兑换页面</t>
+  </si>
+  <si>
+    <t>兑换成功后积分正确减少</t>
+  </si>
+  <si>
+    <t>兑换失败后积分无变化</t>
+  </si>
+  <si>
+    <t>当支付金额小于优惠券时使用优惠券支付失败</t>
+  </si>
+  <si>
+    <t>商品总支付金额小于优惠券金额</t>
   </si>
 </sst>
 </file>
@@ -1444,12 +1561,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1495,8 +1612,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1510,24 +1641,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1539,8 +1684,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1554,9 +1700,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1564,29 +1709,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1602,25 +1724,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1632,8 +1739,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1648,7 +1771,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1660,19 +1939,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1684,151 +1951,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1839,6 +1962,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1887,7 +2034,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1896,31 +2043,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1947,10 +2070,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1959,137 +2082,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2132,11 +2255,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2486,10 +2606,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K126"/>
+  <dimension ref="A1:K144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="E131" sqref="E131"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3491,10 +3611,10 @@
         <v>163</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" ht="40.5" spans="1:7">
@@ -3514,10 +3634,10 @@
         <v>166</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" ht="40.5" spans="1:7">
@@ -3537,10 +3657,10 @@
         <v>169</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" ht="40.5" spans="1:7">
@@ -3560,10 +3680,10 @@
         <v>172</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" ht="40.5" spans="1:7">
@@ -4382,7 +4502,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="85" ht="81" spans="1:7">
+    <row r="85" ht="135" spans="1:7">
       <c r="A85" s="3" t="s">
         <v>324</v>
       </c>
@@ -4668,7 +4788,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="100" ht="40.5" spans="2:7">
+    <row r="100" ht="54" spans="2:7">
       <c r="B100" s="2" t="s">
         <v>372</v>
       </c>
@@ -5039,13 +5159,13 @@
       </c>
     </row>
     <row r="123" ht="14.25" spans="2:7">
-      <c r="B123" s="14" t="s">
+      <c r="B123" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="C123" s="14" t="s">
+      <c r="C123" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="D123" s="14" t="s">
+      <c r="D123" s="7" t="s">
         <v>437</v>
       </c>
       <c r="F123" s="2" t="s">
@@ -5056,13 +5176,13 @@
       </c>
     </row>
     <row r="124" ht="14.25" spans="2:7">
-      <c r="B124" s="15" t="s">
+      <c r="B124" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="C124" s="14" t="s">
+      <c r="C124" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="D124" s="15" t="s">
+      <c r="D124" s="7" t="s">
         <v>441</v>
       </c>
       <c r="F124" s="2" t="s">
@@ -5073,13 +5193,13 @@
       </c>
     </row>
     <row r="125" ht="14.25" spans="2:7">
-      <c r="B125" s="14" t="s">
+      <c r="B125" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="C125" s="14" t="s">
+      <c r="C125" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="D125" s="14" t="s">
+      <c r="D125" s="7" t="s">
         <v>444</v>
       </c>
       <c r="F125" s="2" t="s">
@@ -5090,13 +5210,13 @@
       </c>
     </row>
     <row r="126" ht="67.5" spans="2:7">
-      <c r="B126" s="14" t="s">
+      <c r="B126" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="C126" s="14" t="s">
+      <c r="C126" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="D126" s="14" t="s">
+      <c r="D126" s="7" t="s">
         <v>448</v>
       </c>
       <c r="F126" s="2" t="s">
@@ -5105,6 +5225,216 @@
       <c r="G126" s="2" t="s">
         <v>450</v>
       </c>
+    </row>
+    <row r="127" ht="28.5" spans="2:7">
+      <c r="B127" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="128" ht="42.75" spans="2:5">
+      <c r="B128" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="129" ht="42.75" spans="2:5">
+      <c r="B129" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="130" ht="28.5" spans="2:7">
+      <c r="B130" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="G130" s="14" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="131" ht="42.75" spans="2:4">
+      <c r="B131" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="132" ht="42.75" spans="2:4">
+      <c r="B132" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="133" ht="42.75" spans="2:4">
+      <c r="B133" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="134" ht="42.75" spans="2:4">
+      <c r="B134" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="135" ht="42.75" spans="2:4">
+      <c r="B135" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="136" ht="28.5" spans="2:4">
+      <c r="B136" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="137" ht="14.25" spans="2:4">
+      <c r="B137" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="138" ht="14.25" spans="2:4">
+      <c r="B138" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="139" ht="28.5" spans="2:4">
+      <c r="B139" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="140" ht="14.25" spans="2:4">
+      <c r="B140" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="141" ht="14.25" spans="2:4">
+      <c r="B141" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="D141" s="7" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="142" ht="14.25" spans="2:4">
+      <c r="B142" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="143" ht="28.5" spans="2:4">
+      <c r="B143" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="144" ht="14.25" spans="2:4">
+      <c r="B144" s="7"/>
+      <c r="C144" s="7"/>
+      <c r="D144" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/UI自动化用测试用例.xlsx
+++ b/data/UI自动化用测试用例.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="465">
   <si>
     <t>用例编号</t>
   </si>
@@ -380,7 +380,7 @@
   </si>
   <si>
     <t>useraccount=a883774917@163.com
-password=123asd！@#</t>
+password=123asd!@#$</t>
   </si>
   <si>
     <t>29</t>
@@ -390,7 +390,7 @@
   </si>
   <si>
     <t>useraccount=a883774917@163.com
-password=123ASD！@#</t>
+password=123ASD!@#$</t>
   </si>
   <si>
     <t>30</t>
@@ -400,7 +400,7 @@
   </si>
   <si>
     <t>useraccount=a883774917@163.com
-password=asdASD!@#</t>
+password=asdASD!@#$</t>
   </si>
   <si>
     <t>31</t>
@@ -410,7 +410,7 @@
   </si>
   <si>
     <t>useraccount=a883774917@163.com
-password=123asdASD!@#</t>
+password=123asdASD!@#$</t>
   </si>
   <si>
     <t>32</t>
@@ -600,27 +600,6 @@
   <si>
     <t>useraccount=a979172251@163.com
 newpassword=a1234</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>更改密码成功后回退重新输入验证码</t>
-  </si>
-  <si>
-    <t>更改密码成功</t>
-  </si>
-  <si>
-    <t>css selector=#app &gt; div &gt; div.login-form-wrap &gt; div.login-form.margin-bottom &gt; form &gt; div:nth-child(1) &gt; div &gt; div &gt; span &gt; div &gt; div:nth-child(2) &gt; a</t>
-  </si>
-  <si>
-    <t>Send verification code to email</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>输入修改过的密码更改失败</t>
   </si>
   <si>
     <t>51</t>
@@ -1460,21 +1439,18 @@
     <t>登陆状态，在优惠券页面，且存在使用和未使用优惠券</t>
   </si>
   <si>
-    <t>unused</t>
+    <t>Unused</t>
   </si>
   <si>
     <t>选择used显示已使用优惠券</t>
   </si>
   <si>
-    <t>used</t>
+    <t>Used</t>
   </si>
   <si>
     <t>点击Points Mall，页面成功跳转到积分商城页面</t>
   </si>
   <si>
-    <t>优惠券1</t>
-  </si>
-  <si>
     <t>登录状态，在个人信息页面</t>
   </si>
   <si>
@@ -1487,31 +1463,13 @@
     <t>选择优惠券兑换成功</t>
   </si>
   <si>
-    <t>登录状态，在积分商城页面，存在足够积分、优惠券</t>
-  </si>
-  <si>
-    <t>兑换库存不足优惠券兑换失败</t>
-  </si>
-  <si>
-    <t>登录状态，在积分商城页面，存在足够积分</t>
-  </si>
-  <si>
     <t>使用积分不足账户兑换优惠券兑换失败</t>
   </si>
   <si>
     <t>登录状态，在积分商城页面，存在足够优惠券</t>
   </si>
   <si>
-    <t>无法使用过期优惠券进行结算</t>
-  </si>
-  <si>
-    <t>存在已过期优惠券，购物车存在商品</t>
-  </si>
-  <si>
-    <t>使用未使用优惠券进行结算结算成功</t>
-  </si>
-  <si>
-    <t>存在未使用优惠券，购物车存在商品</t>
+    <t>You do not have enough points</t>
   </si>
   <si>
     <t>点击优惠券使用帮助查看页面成功</t>
@@ -1520,40 +1478,7 @@
     <t>存在于积分商城页面</t>
   </si>
   <si>
-    <t>不存在优惠卷时页面正确显示</t>
-  </si>
-  <si>
-    <t>不存在优惠卷</t>
-  </si>
-  <si>
-    <t>存在优惠卷时页面正确显示</t>
-  </si>
-  <si>
-    <t>存在优惠卷</t>
-  </si>
-  <si>
-    <t>存在多条优惠卷时页面正确显示</t>
-  </si>
-  <si>
-    <t>存在30条以上优惠卷</t>
-  </si>
-  <si>
-    <t>连续点击兑换兑换一张优惠卷</t>
-  </si>
-  <si>
-    <t>在积分兑换页面</t>
-  </si>
-  <si>
-    <t>兑换成功后积分正确减少</t>
-  </si>
-  <si>
-    <t>兑换失败后积分无变化</t>
-  </si>
-  <si>
-    <t>当支付金额小于优惠券时使用优惠券支付失败</t>
-  </si>
-  <si>
-    <t>商品总支付金额小于优惠券金额</t>
+    <t>Coupon usage Help</t>
   </si>
 </sst>
 </file>
@@ -1561,10 +1486,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1618,45 +1543,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1670,7 +1558,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1678,15 +1581,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1701,6 +1610,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1708,10 +1632,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1724,10 +1656,18 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1740,23 +1680,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1771,19 +1696,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1801,7 +1732,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1813,13 +1840,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1831,127 +1876,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1962,30 +1887,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2006,11 +1907,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2039,11 +1947,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2062,6 +1976,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2070,10 +1995,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2082,133 +2007,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2606,10 +2531,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K144"/>
+  <dimension ref="A1:K132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3755,7 +3680,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" ht="40.5" spans="1:7">
+    <row r="50" ht="27" spans="1:7">
       <c r="A50" s="3" t="s">
         <v>182</v>
       </c>
@@ -3763,93 +3688,87 @@
         <v>183</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>137</v>
+        <v>184</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G50" s="2" t="s">
         <v>186</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="51" ht="40.5" spans="1:7">
       <c r="A51" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>137</v>
+        <v>184</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="52" ht="27" spans="1:7">
+        <v>190</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="52" ht="28.5" spans="1:7">
       <c r="A52" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="G52" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="53" ht="42.75" spans="1:7">
+      <c r="A53" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D53" s="7" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="53" ht="40.5" spans="1:7">
-      <c r="A53" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="F53" s="2" t="s">
-        <v>197</v>
+        <v>41</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="54" ht="28.5" spans="1:7">
+    <row r="54" ht="42.75" spans="1:7">
       <c r="A54" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="2" t="s">
         <v>200</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>201</v>
@@ -3858,18 +3777,18 @@
         <v>41</v>
       </c>
       <c r="G54" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="55" ht="54" spans="1:7">
+      <c r="A55" s="3" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="55" ht="42.75" spans="1:7">
-      <c r="A55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B55" s="7" t="s">
-        <v>204</v>
-      </c>
       <c r="C55" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>201</v>
@@ -3878,50 +3797,50 @@
         <v>41</v>
       </c>
       <c r="G55" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="56" ht="40.5" spans="1:7">
+      <c r="A56" s="3" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="56" ht="42.75" spans="1:7">
-      <c r="A56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="C56" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="57" ht="54" spans="1:7">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="57" ht="40.5" spans="1:7">
       <c r="A57" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="C57" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="58" ht="40.5" spans="1:7">
+    <row r="58" ht="27" spans="1:7">
       <c r="A58" s="3" t="s">
         <v>212</v>
       </c>
@@ -3929,7 +3848,7 @@
         <v>213</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>214</v>
@@ -3938,7 +3857,7 @@
         <v>41</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="59" ht="40.5" spans="1:7">
@@ -3949,7 +3868,7 @@
         <v>216</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>214</v>
@@ -3961,7 +3880,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="60" ht="27" spans="1:7">
+    <row r="60" ht="54" spans="1:7">
       <c r="A60" s="3" t="s">
         <v>219</v>
       </c>
@@ -3969,70 +3888,78 @@
         <v>220</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D60" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D60" s="7" t="s">
         <v>221</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>41</v>
+        <v>222</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="61" ht="40.5" spans="1:7">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="61" ht="28.5" spans="1:9">
       <c r="A61" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D61" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D61" s="7" t="s">
         <v>221</v>
       </c>
+      <c r="E61" s="2" t="s">
+        <v>226</v>
+      </c>
       <c r="F61" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="62" ht="54" spans="1:7">
+        <v>133</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+    </row>
+    <row r="62" ht="28.5" spans="1:7">
       <c r="A62" s="3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C62" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="63" ht="28.5" spans="1:9">
+    </row>
+    <row r="63" ht="28.5" spans="1:7">
       <c r="A63" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="2" t="s">
         <v>232</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>233</v>
@@ -4043,21 +3970,19 @@
       <c r="G63" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
     </row>
     <row r="64" ht="28.5" spans="1:7">
       <c r="A64" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="7" t="s">
         <v>236</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>237</v>
@@ -4066,486 +3991,474 @@
         <v>133</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="65" ht="28.5" spans="1:7">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="65" ht="14.25" spans="1:4">
       <c r="A65" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B65" s="2" t="s">
         <v>239</v>
       </c>
+      <c r="B65" s="7" t="s">
+        <v>240</v>
+      </c>
       <c r="C65" s="7" t="s">
-        <v>191</v>
+        <v>241</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G65" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="66" ht="40.5" spans="1:7">
+      <c r="A66" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C66" s="7" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="66" ht="28.5" spans="1:7">
-      <c r="A66" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>191</v>
-      </c>
       <c r="D66" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>133</v>
+        <v>246</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="67" ht="14.25" spans="1:4">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="67" ht="67.5" spans="1:7">
       <c r="A67" s="3" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="68" ht="40.5" spans="1:7">
+        <v>250</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="68" ht="54" spans="1:7">
       <c r="A68" s="3" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="69" ht="67.5" spans="1:7">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="69" ht="42.75" spans="1:7">
       <c r="A69" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="70" ht="54" spans="1:7">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="70" ht="28.5" spans="1:7">
       <c r="A70" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>264</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="71" ht="42.75" spans="1:7">
       <c r="A71" s="3" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="72" ht="28.5" spans="1:7">
       <c r="A72" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C72" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>248</v>
-      </c>
       <c r="D72" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>277</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>273</v>
+        <v>133</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="73" ht="42.75" spans="1:7">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="73" ht="28.5" spans="1:7">
       <c r="A73" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="B73" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D73" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="E73" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="D73" s="7" t="s">
-        <v>278</v>
-      </c>
       <c r="F73" s="2" t="s">
-        <v>279</v>
+        <v>133</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="74" ht="28.5" spans="1:7">
       <c r="A74" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="B74" s="7" t="s">
         <v>282</v>
       </c>
+      <c r="B74" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="C74" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E74" s="11" t="s">
         <v>284</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>133</v>
+        <v>285</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="75" ht="28.5" spans="1:7">
       <c r="A75" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="B75" s="2" t="s">
         <v>287</v>
       </c>
+      <c r="B75" s="7" t="s">
+        <v>288</v>
+      </c>
       <c r="C75" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>133</v>
+        <v>285</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="76" ht="28.5" spans="1:7">
       <c r="A76" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>292</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="77" ht="28.5" spans="1:7">
       <c r="A77" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="78" ht="28.5" spans="1:7">
       <c r="A78" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="B78" s="7" t="s">
         <v>299</v>
       </c>
+      <c r="B78" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="C78" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="79" ht="28.5" spans="1:7">
       <c r="A79" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="B79" s="7" t="s">
         <v>303</v>
       </c>
+      <c r="B79" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="C79" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="80" ht="28.5" spans="1:7">
       <c r="A80" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="81" ht="28.5" spans="1:7">
       <c r="A81" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="82" ht="28.5" spans="1:7">
       <c r="A82" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="7" t="s">
         <v>315</v>
       </c>
       <c r="C82" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="E82" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="D82" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="E82" s="11" t="s">
+      <c r="F82" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="F82" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="G82" s="2" t="s">
+    </row>
+    <row r="83" ht="135" spans="1:7">
+      <c r="A83" s="3" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="83" ht="28.5" spans="1:7">
-      <c r="A83" s="3" t="s">
+      <c r="B83" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="C83" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C83" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="E83" s="11" t="s">
-        <v>320</v>
-      </c>
       <c r="F83" s="2" t="s">
-        <v>292</v>
+        <v>133</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>313</v>
+        <v>278</v>
       </c>
     </row>
     <row r="84" ht="28.5" spans="1:7">
       <c r="A84" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B84" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="C84" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="C84" s="7" t="s">
-        <v>277</v>
-      </c>
       <c r="D84" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="85" ht="135" spans="1:7">
+        <v>324</v>
+      </c>
+      <c r="G84" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" ht="28.5" spans="1:4">
       <c r="A85" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>277</v>
+        <v>322</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
     </row>
     <row r="86" ht="28.5" spans="1:7">
       <c r="A86" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="D86" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="B86" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="D86" s="7" t="s">
+      <c r="F86" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="F86" s="2" t="s">
+      <c r="G86" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="G86" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" ht="28.5" spans="1:4">
+    </row>
+    <row r="87" ht="42.75" spans="1:7">
       <c r="A87" s="3" t="s">
         <v>332</v>
       </c>
@@ -4553,33 +4466,34 @@
         <v>333</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="88" ht="28.5" spans="1:7">
+      <c r="E87"/>
+      <c r="F87" t="s">
+        <v>335</v>
+      </c>
+      <c r="G87" s="12" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="88" ht="28.5" spans="1:4">
       <c r="A88" s="3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="89" ht="42.75" spans="1:7">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="89" ht="28.5" spans="1:4">
       <c r="A89" s="3" t="s">
         <v>339</v>
       </c>
@@ -4587,107 +4501,118 @@
         <v>340</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D89" s="7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="90" ht="28.5" spans="2:4">
+      <c r="B90" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="E89"/>
-      <c r="F89" t="s">
+      <c r="C90" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="91" ht="28.5" spans="2:7">
+      <c r="B91" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="G89" s="12" t="s">
+      <c r="C91" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="D91" s="7" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="90" ht="28.5" spans="1:4">
-      <c r="A90" s="3" t="s">
+      <c r="F91" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="G91" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="C90" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="91" ht="28.5" spans="1:4">
-      <c r="A91" s="3" t="s">
+    </row>
+    <row r="92" ht="40.5" spans="2:10">
+      <c r="B92" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="C92" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C91" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="92" ht="28.5" spans="2:4">
-      <c r="B92" s="2" t="s">
+      <c r="E92" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="C92" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="93" ht="28.5" spans="2:7">
-      <c r="B93" s="7" t="s">
+      <c r="F92" t="s">
+        <v>47</v>
+      </c>
+      <c r="G92" t="s">
         <v>349</v>
       </c>
+      <c r="J92" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="93" ht="54" spans="2:10">
+      <c r="B93" s="2" t="s">
+        <v>351</v>
+      </c>
       <c r="C93" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="G93" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="94" ht="40.5" spans="2:10">
+      <c r="F93" t="s">
+        <v>47</v>
+      </c>
+      <c r="G93" t="s">
+        <v>353</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="94" ht="54" spans="2:10">
       <c r="B94" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F94" t="s">
         <v>47</v>
       </c>
       <c r="G94" t="s">
-        <v>356</v>
+        <v>278</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="95" ht="54" spans="2:10">
+    <row r="95" ht="40.5" spans="2:10">
       <c r="B95" s="2" t="s">
         <v>358</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>359</v>
@@ -4696,474 +4621,462 @@
         <v>47</v>
       </c>
       <c r="G95" t="s">
+        <v>278</v>
+      </c>
+      <c r="J95" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="J95" s="2" t="s">
+    </row>
+    <row r="96" ht="54" spans="2:7">
+      <c r="B96" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="96" ht="54" spans="2:10">
-      <c r="B96" s="2" t="s">
+      <c r="C96" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>363</v>
       </c>
       <c r="F96" t="s">
         <v>47</v>
       </c>
       <c r="G96" t="s">
-        <v>285</v>
-      </c>
-      <c r="J96" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="97" ht="54" spans="2:7">
+      <c r="B97" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>364</v>
-      </c>
-    </row>
-    <row r="97" ht="40.5" spans="2:10">
-      <c r="B97" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>366</v>
       </c>
       <c r="F97" t="s">
         <v>47</v>
       </c>
       <c r="G97" t="s">
-        <v>285</v>
-      </c>
-      <c r="J97" s="2" t="s">
-        <v>367</v>
+        <v>278</v>
       </c>
     </row>
     <row r="98" ht="54" spans="2:7">
       <c r="B98" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F98" t="s">
         <v>47</v>
       </c>
       <c r="G98" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="99" ht="54" spans="2:7">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="99" ht="27" spans="2:7">
       <c r="B99" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="C99" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="E99" s="2" t="s">
+      <c r="F99" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="F99" t="s">
-        <v>47</v>
-      </c>
-      <c r="G99" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="100" ht="54" spans="2:7">
-      <c r="B100" s="2" t="s">
+      <c r="G99" s="2" t="s">
         <v>372</v>
       </c>
+    </row>
+    <row r="100" ht="67.5" spans="2:7">
+      <c r="B100" s="7" t="s">
+        <v>373</v>
+      </c>
       <c r="C100" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>354</v>
+        <v>369</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>370</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="F100" t="s">
-        <v>47</v>
-      </c>
-      <c r="G100" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="101" ht="27" spans="2:7">
+      <c r="F100" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="101" ht="67.5" spans="2:7">
       <c r="B101" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="F101" s="2" t="s">
+    </row>
+    <row r="102" ht="67.5" spans="2:7">
+      <c r="B102" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="G101" s="2" t="s">
+      <c r="C102" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>379</v>
-      </c>
-    </row>
-    <row r="102" ht="67.5" spans="2:7">
-      <c r="B102" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="C102" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="D102" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>381</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>133</v>
       </c>
       <c r="G102" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="103" ht="14.25" spans="2:7">
+      <c r="B103" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="104" ht="27" spans="2:7">
+      <c r="B104" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F104" t="s">
+        <v>41</v>
+      </c>
+      <c r="G104" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="105" ht="28.5" spans="2:7">
+      <c r="B105" s="7" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="103" ht="67.5" spans="2:7">
-      <c r="B103" s="2" t="s">
+      <c r="C105" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="C103" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="D103" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="E103" s="2" t="s">
+      <c r="D105" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="F103" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="104" ht="67.5" spans="2:7">
-      <c r="B104" s="2" t="s">
+      <c r="F105" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G105" s="13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="106" ht="28.5" spans="2:4">
+      <c r="B106" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="C104" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="E104" s="2" t="s">
+      <c r="C106" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D106" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="105" ht="14.25" spans="2:7">
-      <c r="B105" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="D105" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="106" ht="27" spans="2:7">
-      <c r="B106" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="D106" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F106" t="s">
-        <v>41</v>
-      </c>
-      <c r="G106" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="107" ht="28.5" spans="2:7">
       <c r="B107" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F107" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="G107" s="2" t="s">
         <v>390</v>
-      </c>
-      <c r="D107" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G107" s="13" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="108" ht="28.5" spans="2:4">
       <c r="B108" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D108" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="D108" s="7" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="109" ht="28.5" spans="2:7">
       <c r="B109" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D109" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="C109" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="D109" s="7" t="s">
+      <c r="F109" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="F109" s="2" t="s">
+      <c r="G109" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="G109" s="2" t="s">
+    </row>
+    <row r="110" ht="28.5" spans="2:7">
+      <c r="B110" s="7" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="110" ht="28.5" spans="2:4">
-      <c r="B110" s="7" t="s">
+      <c r="C110" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D110" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="C110" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="D110" s="7" t="s">
+      <c r="F110" s="2" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="111" ht="28.5" spans="2:7">
+      <c r="G110" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="111" ht="28.5" spans="2:4">
       <c r="B111" s="7" t="s">
         <v>400</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="D111" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="F111" s="2" t="s">
+    </row>
+    <row r="112" ht="40.5" spans="2:7">
+      <c r="B112" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="G111" s="2" t="s">
+      <c r="C112" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="113" ht="28.5" spans="2:7">
+      <c r="B113" s="7" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="112" ht="28.5" spans="2:7">
-      <c r="B112" s="7" t="s">
+      <c r="C113" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="C112" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="D112" s="7" t="s">
+      <c r="D113" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="F112" s="2" t="s">
+      <c r="G113" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="G112" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="113" ht="28.5" spans="2:4">
-      <c r="B113" s="7" t="s">
+    </row>
+    <row r="114" ht="54" spans="2:7">
+      <c r="B114" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="C113" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="114" ht="40.5" spans="2:7">
-      <c r="B114" s="7" t="s">
-        <v>409</v>
-      </c>
       <c r="C114" s="7" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="D114" s="7" t="s">
         <v>408</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>224</v>
+        <v>409</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="115" ht="28.5" spans="2:7">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="115" ht="21" customHeight="1" spans="2:7">
       <c r="B115" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="D115" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="G115" s="2" t="s">
+      <c r="F115" s="2" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="116" ht="54" spans="2:7">
+      <c r="G115" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="116" ht="28.5" spans="2:7">
       <c r="B116" s="7" t="s">
         <v>414</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>415</v>
       </c>
       <c r="F116" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="G116" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="G116" s="2" t="s">
+    </row>
+    <row r="117" ht="28.5" spans="2:7">
+      <c r="B117" s="7" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="117" ht="21" customHeight="1" spans="2:7">
-      <c r="B117" s="7" t="s">
+      <c r="C117" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="D117" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="C117" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="D117" s="7" t="s">
+      <c r="F117" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="F117" s="2" t="s">
+      <c r="G117" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="118" ht="40.5" spans="2:7">
+      <c r="B118" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="G117" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="118" ht="28.5" spans="2:7">
-      <c r="B118" s="7" t="s">
+      <c r="C118" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="D118" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="C118" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="D118" s="7" t="s">
+      <c r="F118" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F118" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="G118" s="2" t="s">
+    </row>
+    <row r="119" ht="14.25" spans="2:4">
+      <c r="B119" s="7" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="119" ht="28.5" spans="2:7">
-      <c r="B119" s="7" t="s">
+      <c r="C119" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="C119" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="D119" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="F119" s="2" t="s">
+    </row>
+    <row r="120" ht="28.5" spans="2:4">
+      <c r="B120" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="G119" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="120" ht="40.5" spans="2:7">
-      <c r="B120" s="7" t="s">
+      <c r="C120" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="D120" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="C120" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="D120" s="7" t="s">
+    </row>
+    <row r="121" ht="14.25" spans="2:7">
+      <c r="B121" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="F120" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="G120" s="2" t="s">
+      <c r="C121" s="7" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="121" ht="14.25" spans="2:4">
-      <c r="B121" s="7" t="s">
+      <c r="D121" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="C121" s="7" t="s">
+      <c r="F121" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="D121" s="7" t="s">
+      <c r="G121" s="2" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="122" ht="28.5" spans="2:4">
+    <row r="122" ht="14.25" spans="2:7">
       <c r="B122" s="7" t="s">
         <v>433</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D122" s="7" t="s">
         <v>434</v>
       </c>
+      <c r="F122" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="123" ht="14.25" spans="2:7">
       <c r="B123" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="D123" s="7" t="s">
         <v>437</v>
@@ -5175,266 +5088,136 @@
         <v>439</v>
       </c>
     </row>
-    <row r="124" ht="14.25" spans="2:7">
+    <row r="124" ht="67.5" spans="2:7">
       <c r="B124" s="7" t="s">
         <v>440</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="D124" s="7" t="s">
         <v>441</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="125" ht="14.25" spans="2:7">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="125" ht="28.5" spans="2:7">
       <c r="B125" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F125" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="126" ht="42.75" spans="2:5">
+      <c r="B126" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="C126" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="G125" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="126" ht="67.5" spans="2:7">
-      <c r="B126" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="C126" s="7" t="s">
-        <v>436</v>
-      </c>
       <c r="D126" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="G126" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="127" ht="28.5" spans="2:7">
+      <c r="E126" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="127" ht="42.75" spans="2:5">
       <c r="B127" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="D127" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F127" s="2" t="s">
+    </row>
+    <row r="128" ht="28.5" spans="2:7">
+      <c r="B128" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="G127" s="2" t="s">
+      <c r="C128" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="D128" s="7" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="128" ht="42.75" spans="2:5">
-      <c r="B128" s="7" t="s">
+      <c r="F128" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="C128" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="D128" s="7" t="s">
+      <c r="G128" s="14" t="s">
         <v>457</v>
       </c>
-      <c r="E128" s="2" t="s">
+    </row>
+    <row r="129" ht="28.5" spans="2:7">
+      <c r="B129" s="2" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="129" ht="42.75" spans="2:5">
-      <c r="B129" s="7" t="s">
+      <c r="C129" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="F129"/>
+      <c r="G129"/>
+    </row>
+    <row r="130" ht="42.75" spans="2:7">
+      <c r="B130" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="C129" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="D129" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="E129" s="2" t="s">
+      <c r="C130" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="D130" s="7" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="130" ht="28.5" spans="2:7">
-      <c r="B130" s="7" t="s">
+      <c r="F130" t="s">
+        <v>133</v>
+      </c>
+      <c r="G130" t="s">
         <v>461</v>
       </c>
-      <c r="C130" s="7" t="s">
+    </row>
+    <row r="131" ht="28.5" spans="2:7">
+      <c r="B131" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="D130" s="7" t="s">
+      <c r="C131" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="D131" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="F130" s="2" t="s">
+      <c r="F131" t="s">
+        <v>456</v>
+      </c>
+      <c r="G131" t="s">
         <v>464</v>
       </c>
-      <c r="G130" s="14" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="131" ht="42.75" spans="2:4">
-      <c r="B131" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="C131" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="D131" s="7" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="132" ht="42.75" spans="2:4">
-      <c r="B132" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="C132" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="D132" s="7" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="133" ht="42.75" spans="2:4">
-      <c r="B133" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="C133" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="D133" s="7" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="134" ht="42.75" spans="2:4">
-      <c r="B134" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="C134" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="D134" s="7" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="135" ht="42.75" spans="2:4">
-      <c r="B135" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="D135" s="7" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="136" ht="28.5" spans="2:4">
-      <c r="B136" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="C136" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="D136" s="7" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="137" ht="14.25" spans="2:4">
-      <c r="B137" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="D137" s="7" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="138" ht="14.25" spans="2:4">
-      <c r="B138" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="C138" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="D138" s="7" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="139" ht="28.5" spans="2:4">
-      <c r="B139" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="C139" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="D139" s="7" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="140" ht="14.25" spans="2:4">
-      <c r="B140" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="C140" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="D140" s="7" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="141" ht="14.25" spans="2:4">
-      <c r="B141" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="C141" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="D141" s="7" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="142" ht="14.25" spans="2:4">
-      <c r="B142" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="C142" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="D142" s="7" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="143" ht="28.5" spans="2:4">
-      <c r="B143" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="C143" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="D143" s="7" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="144" ht="14.25" spans="2:4">
-      <c r="B144" s="7"/>
-      <c r="C144" s="7"/>
-      <c r="D144" s="7"/>
+    </row>
+    <row r="132" ht="14.25" spans="2:4">
+      <c r="B132" s="7"/>
+      <c r="C132" s="7"/>
+      <c r="D132" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/UI自动化用测试用例.xlsx
+++ b/data/UI自动化用测试用例.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="485">
   <si>
     <t>用例编号</t>
   </si>
@@ -1479,6 +1479,66 @@
   </si>
   <si>
     <t>Coupon usage Help</t>
+  </si>
+  <si>
+    <t>点击change password页面跳转成功</t>
+  </si>
+  <si>
+    <t>修改密码</t>
+  </si>
+  <si>
+    <t>已登录，在个人中心页面</t>
+  </si>
+  <si>
+    <t>输入正确密码，验证码修改密码成功</t>
+  </si>
+  <si>
+    <t>存在密码修改页面</t>
+  </si>
+  <si>
+    <t>new_password=a123456</t>
+  </si>
+  <si>
+    <t>不输入密码，验证码修改密码失败</t>
+  </si>
+  <si>
+    <t>输入16位密码，修改密码成功</t>
+  </si>
+  <si>
+    <t>new_password=a123456789123456</t>
+  </si>
+  <si>
+    <t>输入6位密码，修改密码成功</t>
+  </si>
+  <si>
+    <t>new_password=a12345</t>
+  </si>
+  <si>
+    <t>输入5位密码，修改密码失败</t>
+  </si>
+  <si>
+    <t>new_password=a1234</t>
+  </si>
+  <si>
+    <t>class name=warning.flex.align-center</t>
+  </si>
+  <si>
+    <t>Password must be greater than 6 digits</t>
+  </si>
+  <si>
+    <t>输入特殊字符密码修改成功</t>
+  </si>
+  <si>
+    <t>new_password=a12345!@#$</t>
+  </si>
+  <si>
+    <t>输入错误验证码密码修改失败</t>
+  </si>
+  <si>
+    <t>Verification code error</t>
+  </si>
+  <si>
+    <t>不输入验证码修改密码失败</t>
   </si>
 </sst>
 </file>
@@ -1486,9 +1546,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -1544,7 +1604,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1557,6 +1632,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1565,15 +1641,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1594,13 +1671,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1610,24 +1680,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1647,6 +1717,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1655,17 +1732,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1674,14 +1742,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1696,7 +1756,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1708,7 +1792,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1720,7 +1828,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1732,7 +1852,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1744,19 +1876,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1768,25 +1906,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1798,85 +1930,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1907,9 +1967,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1917,8 +1994,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1941,23 +2018,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1976,17 +2047,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1995,10 +2055,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2007,133 +2067,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2177,11 +2237,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2531,10 +2591,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K132"/>
+  <dimension ref="A1:K147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="E124" sqref="E124"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="E142" sqref="E142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4471,8 +4531,8 @@
       <c r="D87" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="E87"/>
-      <c r="F87" t="s">
+      <c r="E87" s="12"/>
+      <c r="F87" s="12" t="s">
         <v>335</v>
       </c>
       <c r="G87" s="12" t="s">
@@ -4548,10 +4608,10 @@
       <c r="E92" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G92" s="12" t="s">
         <v>349</v>
       </c>
       <c r="J92" s="2" t="s">
@@ -4571,10 +4631,10 @@
       <c r="E93" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G93" s="12" t="s">
         <v>353</v>
       </c>
       <c r="J93" s="2" t="s">
@@ -4594,10 +4654,10 @@
       <c r="E94" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G94" s="12" t="s">
         <v>278</v>
       </c>
       <c r="J94" s="2" t="s">
@@ -4617,10 +4677,10 @@
       <c r="E95" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G95" s="12" t="s">
         <v>278</v>
       </c>
       <c r="J95" s="2" t="s">
@@ -4640,10 +4700,10 @@
       <c r="E96" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G96" s="12" t="s">
         <v>278</v>
       </c>
     </row>
@@ -4660,10 +4720,10 @@
       <c r="E97" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G97" s="12" t="s">
         <v>278</v>
       </c>
     </row>
@@ -4680,10 +4740,10 @@
       <c r="E98" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G98" s="12" t="s">
         <v>367</v>
       </c>
     </row>
@@ -4791,10 +4851,10 @@
       <c r="D104" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G104" s="12" t="s">
         <v>204</v>
       </c>
     </row>
@@ -5177,8 +5237,8 @@
       <c r="D129" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="F129"/>
-      <c r="G129"/>
+      <c r="F129" s="12"/>
+      <c r="G129" s="12"/>
     </row>
     <row r="130" ht="42.75" spans="2:7">
       <c r="B130" s="7" t="s">
@@ -5190,10 +5250,10 @@
       <c r="D130" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="F130" t="s">
+      <c r="F130" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="G130" t="s">
+      <c r="G130" s="12" t="s">
         <v>461</v>
       </c>
     </row>
@@ -5207,17 +5267,204 @@
       <c r="D131" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F131" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="G131" t="s">
+      <c r="G131" s="12" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="132" ht="14.25" spans="2:4">
-      <c r="B132" s="7"/>
-      <c r="C132" s="7"/>
-      <c r="D132" s="7"/>
+    <row r="132" ht="28.5" spans="2:7">
+      <c r="B132" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="133" ht="40.5" spans="2:7">
+      <c r="B133" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="134" ht="28.5" spans="2:7">
+      <c r="B134" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="135" ht="40.5" spans="2:7">
+      <c r="B135" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="136" ht="40.5" spans="2:7">
+      <c r="B136" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="137" ht="27" spans="2:7">
+      <c r="B137" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="138" ht="40.5" spans="2:7">
+      <c r="B138" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="139" ht="14.25" spans="2:7">
+      <c r="B139" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="140" ht="27" spans="2:7">
+      <c r="B140" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="141" spans="7:7">
+      <c r="G141" s="3"/>
+    </row>
+    <row r="142" spans="7:7">
+      <c r="G142" s="3"/>
+    </row>
+    <row r="143" spans="7:7">
+      <c r="G143" s="3"/>
+    </row>
+    <row r="144" spans="7:7">
+      <c r="G144" s="3"/>
+    </row>
+    <row r="145" spans="7:7">
+      <c r="G145" s="3"/>
+    </row>
+    <row r="146" spans="7:7">
+      <c r="G146" s="3"/>
+    </row>
+    <row r="147" spans="7:7">
+      <c r="G147" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/UI自动化用测试用例.xlsx
+++ b/data/UI自动化用测试用例.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="596">
   <si>
     <t>用例编号</t>
   </si>
@@ -602,133 +602,133 @@
 newpassword=a1234</t>
   </si>
   <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>网站左上角存在帮助中心入口</t>
+  </si>
+  <si>
+    <t>帮助中心</t>
+  </si>
+  <si>
+    <t>存在帮助中心按钮</t>
+  </si>
+  <si>
+    <t>css selector=#app &gt; div &gt; div.global-header &gt; div &gt; div.top-menu &gt; a:nth-child(3)</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>点击帮助中心页面成功跳转</t>
+  </si>
+  <si>
+    <t>css selector=#app &gt; div &gt; div.ui-container &gt; div.content.page-help-content &gt; div:nth-child(1) &gt; div.text-tit-lg</t>
+  </si>
+  <si>
+    <t>Self-Service</t>
+  </si>
+  <si>
     <t>51</t>
   </si>
   <si>
-    <t>网站左上角存在帮助中心入口</t>
-  </si>
-  <si>
-    <t>帮助中心</t>
-  </si>
-  <si>
-    <t>存在帮助中心按钮</t>
-  </si>
-  <si>
-    <t>css selector=#app &gt; div &gt; div.global-header &gt; div &gt; div.top-menu &gt; a:nth-child(3)</t>
-  </si>
-  <si>
-    <t>True</t>
+    <t>点击Retrieve Password页面跳转到登录页面</t>
+  </si>
+  <si>
+    <t>存在Retrieve Password入口</t>
+  </si>
+  <si>
+    <t>Sign-In</t>
   </si>
   <si>
     <t>52</t>
   </si>
   <si>
-    <t>点击帮助中心页面成功跳转</t>
-  </si>
-  <si>
-    <t>css selector=#app &gt; div &gt; div.ui-container &gt; div.content.page-help-content &gt; div:nth-child(1) &gt; div.text-tit-lg</t>
-  </si>
-  <si>
-    <t>Self-Service</t>
+    <t>登录状态点击Retrieve Password页面跳转到修改密码页面</t>
+  </si>
+  <si>
+    <t>Enter a new password</t>
   </si>
   <si>
     <t>53</t>
   </si>
   <si>
-    <t>点击Retrieve Password页面跳转到登录页面</t>
-  </si>
-  <si>
-    <t>存在Retrieve Password入口</t>
-  </si>
-  <si>
-    <t>Sign-In</t>
+    <t>点击Change Email Address(Need to log in first)页面成功跳转至登录页面</t>
+  </si>
+  <si>
+    <t>存在Change Email Address(Need to log in first)入口</t>
   </si>
   <si>
     <t>54</t>
   </si>
   <si>
-    <t>登录状态点击Retrieve Password页面跳转到修改密码页面</t>
-  </si>
-  <si>
-    <t>Enter a new password</t>
+    <t>登录状态点击Change Email Address(Need to log in first)页面成功跳转至邮箱修改页面</t>
+  </si>
+  <si>
+    <t>Modify email</t>
   </si>
   <si>
     <t>55</t>
   </si>
   <si>
-    <t>点击Change Email Address(Need to log in first)页面成功跳转至登录页面</t>
-  </si>
-  <si>
-    <t>存在Change Email Address(Need to log in first)入口</t>
+    <t>点击Auction payment balance页面正确跳转至登录页面</t>
+  </si>
+  <si>
+    <t>存在Auction payment balance入口</t>
   </si>
   <si>
     <t>56</t>
   </si>
   <si>
-    <t>登录状态点击Change Email Address(Need to log in first)页面成功跳转至邮箱修改页面</t>
-  </si>
-  <si>
-    <t>Modify email</t>
+    <t>登录状态点击点击Auction payment balance页面正确跳转至拍卖页面</t>
+  </si>
+  <si>
+    <t>class name=text-tit-lg.margin-right-xs</t>
+  </si>
+  <si>
+    <t>View Auction List</t>
   </si>
   <si>
     <t>57</t>
   </si>
   <si>
-    <t>点击Auction payment balance页面正确跳转至登录页面</t>
-  </si>
-  <si>
-    <t>存在Auction payment balance入口</t>
+    <t>点击 Order without payment页面正确跳转至登录页面</t>
+  </si>
+  <si>
+    <t>存在购物车入口</t>
   </si>
   <si>
     <t>58</t>
   </si>
   <si>
-    <t>登录状态点击点击Auction payment balance页面正确跳转至拍卖页面</t>
-  </si>
-  <si>
-    <t>class name=text-tit-lg.margin-right-xs</t>
-  </si>
-  <si>
-    <t>View Auction List</t>
+    <t>登录状态点击 Order without payment页面正确跳转至购物车页面</t>
+  </si>
+  <si>
+    <t>xpath=//*[@id="app"]/div/div/div[2]/div[1]/a</t>
+  </si>
+  <si>
+    <t>The shopping cart is still empty for the time being, go pick a few items right away</t>
   </si>
   <si>
     <t>59</t>
   </si>
   <si>
-    <t>点击 Order without payment页面正确跳转至登录页面</t>
-  </si>
-  <si>
-    <t>存在购物车入口</t>
+    <t>存在意见反馈模块</t>
+  </si>
+  <si>
+    <t>页面在帮助中心页面</t>
+  </si>
+  <si>
+    <t>css selector=#app &gt; div.page-myCenter.page-help.transparent-header.transparent &gt; div.ui-container &gt; div.content.page-help-content &gt; div.site-message.clearfix &gt; div.text-tit-lg.margin-bottom-xs</t>
+  </si>
+  <si>
+    <t>Site Message</t>
   </si>
   <si>
     <t>60</t>
-  </si>
-  <si>
-    <t>登录状态点击 Order without payment页面正确跳转至购物车页面</t>
-  </si>
-  <si>
-    <t>xpath=//*[@id="app"]/div/div/div[2]/div[1]/a</t>
-  </si>
-  <si>
-    <t>The shopping cart is still empty for the time being, go pick a few items right away</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>存在意见反馈模块</t>
-  </si>
-  <si>
-    <t>页面在帮助中心页面</t>
-  </si>
-  <si>
-    <t>css selector=#app &gt; div.page-myCenter.page-help.transparent-header.transparent &gt; div.ui-container &gt; div.content.page-help-content &gt; div.site-message.clearfix &gt; div.text-tit-lg.margin-bottom-xs</t>
-  </si>
-  <si>
-    <t>Site Message</t>
-  </si>
-  <si>
-    <t>62</t>
   </si>
   <si>
     <t>登录状态意见反馈不输入任何内容发送失败</t>
@@ -741,7 +741,7 @@
     <t>please enter the title</t>
   </si>
   <si>
-    <t>63</t>
+    <t>61</t>
   </si>
   <si>
     <t>登录状态意见反馈不输入标题发送失败</t>
@@ -751,7 +751,7 @@
 descript=aaaaaaaaaaaaaaaaaaaaaa</t>
   </si>
   <si>
-    <t>64</t>
+    <t>62</t>
   </si>
   <si>
     <t>登录状态意见反馈不输入内容发送失败</t>
@@ -764,7 +764,7 @@
     <t>please enter the content</t>
   </si>
   <si>
-    <t>65</t>
+    <t>63</t>
   </si>
   <si>
     <t>登录状态意见反馈输入正确内容发送成功</t>
@@ -777,274 +777,274 @@
     <t>send success</t>
   </si>
   <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>点击导航栏导航栏伸缩成功</t>
+  </si>
+  <si>
+    <t>导航栏</t>
+  </si>
+  <si>
+    <t>首页</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>点击Full catalog进入所有类别页面</t>
+  </si>
+  <si>
+    <t>每个类存在相应的产品</t>
+  </si>
+  <si>
+    <t>css selector=#app &gt; div &gt; div.ui-container &gt; div.content.category-content &gt; div.ant-breadcrumb &gt; span:nth-child(1) &gt; span.ant-breadcrumb-separator</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
     <t>66</t>
   </si>
   <si>
-    <t>点击导航栏导航栏伸缩成功</t>
-  </si>
-  <si>
-    <t>导航栏</t>
-  </si>
-  <si>
-    <t>首页</t>
+    <t>鼠标悬停至导航栏相应类别中，显示该类别所包含的品牌信息成功</t>
+  </si>
+  <si>
+    <t>页面在首页，存在类型、品牌</t>
+  </si>
+  <si>
+    <t>css selector=#app &gt; div &gt; div.global-header &gt; div &gt; div.menu-content &gt; div.menu-left &gt; div.menu-out &gt; div.menu-lv-1.text-xs.border-radius-sm &gt; ul &gt; li:nth-child(1) &gt; div &gt; div.lv-2-list &gt; div &gt; div:nth-child(1) &gt; a</t>
+  </si>
+  <si>
+    <t>PRX</t>
   </si>
   <si>
     <t>67</t>
   </si>
   <si>
-    <t>点击Full catalog进入所有类别页面</t>
-  </si>
-  <si>
-    <t>每个类存在相应的产品</t>
-  </si>
-  <si>
-    <t>css selector=#app &gt; div &gt; div.ui-container &gt; div.content.category-content &gt; div.ant-breadcrumb &gt; span:nth-child(1) &gt; span.ant-breadcrumb-separator</t>
-  </si>
-  <si>
-    <t>&gt;</t>
+    <t>点击二级分类商品品牌跳转至该品牌页中，且商品成功显示</t>
+  </si>
+  <si>
+    <t>页面存在首页，存在类别、品牌、商品</t>
+  </si>
+  <si>
+    <t>css selector=#app &gt; div &gt; div.ui-container &gt; div.content.search-content &gt; div.result-list-out &gt; div &gt; div:nth-child(1) &gt; div.info &gt; div.title.text-black.margin-bottom-xs &gt; a</t>
+  </si>
+  <si>
+    <t>Schneider Soft S-1591</t>
   </si>
   <si>
     <t>68</t>
   </si>
   <si>
-    <t>鼠标悬停至导航栏相应类别中，显示该类别所包含的品牌信息成功</t>
-  </si>
-  <si>
-    <t>页面在首页，存在类型、品牌</t>
-  </si>
-  <si>
-    <t>css selector=#app &gt; div &gt; div.global-header &gt; div &gt; div.menu-content &gt; div.menu-left &gt; div.menu-out &gt; div.menu-lv-1.text-xs.border-radius-sm &gt; ul &gt; li:nth-child(1) &gt; div &gt; div.lv-2-list &gt; div &gt; div:nth-child(1) &gt; a</t>
-  </si>
-  <si>
-    <t>PRX</t>
+    <t>该品牌下无商品，品牌页面正确显示</t>
+  </si>
+  <si>
+    <t>页面存在首页、存在类别、品牌、该品牌不存在商品</t>
+  </si>
+  <si>
+    <t>xpath=//*[@id="app"]/div/div[2]/div[1]/div[2]/div</t>
+  </si>
+  <si>
+    <t>Haven't any goods</t>
   </si>
   <si>
     <t>69</t>
   </si>
   <si>
-    <t>点击二级分类商品品牌跳转至该品牌页中，且商品成功显示</t>
-  </si>
-  <si>
-    <t>页面存在首页，存在类别、品牌、商品</t>
-  </si>
-  <si>
-    <t>css selector=#app &gt; div &gt; div.ui-container &gt; div.content.search-content &gt; div.result-list-out &gt; div &gt; div:nth-child(1) &gt; div.info &gt; div.title.text-black.margin-bottom-xs &gt; a</t>
-  </si>
-  <si>
-    <t>Schneider Soft S-1591</t>
+    <t>All Categories 页面可以点击类别快速移动到该类别所在页面位置</t>
+  </si>
+  <si>
+    <t>页面在ALL Categories页面</t>
+  </si>
+  <si>
+    <t>xpath=//*[@id="type7"]/div[2]/div[44]/a</t>
+  </si>
+  <si>
+    <t>PENTAIR</t>
   </si>
   <si>
     <t>70</t>
   </si>
   <si>
-    <t>该品牌下无商品，品牌页面正确显示</t>
-  </si>
-  <si>
-    <t>页面存在首页、存在类别、品牌、该品牌不存在商品</t>
-  </si>
-  <si>
-    <t>xpath=//*[@id="app"]/div/div[2]/div[1]/div[2]/div</t>
-  </si>
-  <si>
-    <t>Haven't any goods</t>
+    <t>点击Manage recipient information跳转到地址管理页面成功</t>
+  </si>
+  <si>
+    <t>地址管理</t>
+  </si>
+  <si>
+    <t>登陆状态</t>
+  </si>
+  <si>
+    <t>css selector=#app &gt; div &gt; div.ui-container &gt; div.content.flex.space-between &gt; div &gt; div.title-1.flex.align-center &gt; span</t>
+  </si>
+  <si>
+    <t>Set as Default address</t>
   </si>
   <si>
     <t>71</t>
   </si>
   <si>
-    <t>All Categories 页面可以点击类别快速移动到该类别所在页面位置</t>
-  </si>
-  <si>
-    <t>页面在ALL Categories页面</t>
-  </si>
-  <si>
-    <t>xpath=//*[@id="type7"]/div[2]/div[44]/a</t>
-  </si>
-  <si>
-    <t>PENTAIR</t>
+    <t>点击新增地址输入正确信息新增成功</t>
+  </si>
+  <si>
+    <t>登陆状态，地址管理页面</t>
+  </si>
+  <si>
+    <t>{"fistname":"fistname","lastname":"lastname","contactnumber":"contactnumber","coordinated_area1":"coordinated_area1","coordinated_area2":"coordinated_area2","coordinated_area3":"C2","coordinated_postalCode":"coordinated_postalCode","coordinated_addressLine":"coordinated_addressLine"}</t>
+  </si>
+  <si>
+    <t>success</t>
   </si>
   <si>
     <t>72</t>
   </si>
   <si>
-    <t>点击Manage recipient information跳转到地址管理页面成功</t>
-  </si>
-  <si>
-    <t>地址管理</t>
-  </si>
-  <si>
-    <t>登陆状态</t>
-  </si>
-  <si>
-    <t>css selector=#app &gt; div &gt; div.ui-container &gt; div.content.flex.space-between &gt; div &gt; div.title-1.flex.align-center &gt; span</t>
-  </si>
-  <si>
-    <t>Set as Default address</t>
+    <t>点击set the address 设置默认地址成功</t>
+  </si>
+  <si>
+    <t>change success</t>
   </si>
   <si>
     <t>73</t>
   </si>
   <si>
-    <t>点击新增地址输入正确信息新增成功</t>
-  </si>
-  <si>
-    <t>登陆状态，地址管理页面</t>
-  </si>
-  <si>
-    <t>{"fistname":"fistname","lastname":"lastname","contactnumber":"contactnumber","coordinated_area1":"coordinated_area1","coordinated_area2":"coordinated_area2","coordinated_area3":"C2","coordinated_postalCode":"coordinated_postalCode","coordinated_addressLine":"coordinated_addressLine"}</t>
-  </si>
-  <si>
-    <t>success</t>
+    <t>Address中provice不输入新增失败</t>
+  </si>
+  <si>
+    <t>{"fistname":"fistname","lastname":"lastname","contactnumber":"contactnumber","coordinated_area1":"","coordinated_area2":"coordinated_area2","coordinated_area3":"C2","coordinated_postalCode":"coordinated_postalCode","coordinated_addressLine":"coordinated_addressLine"}</t>
+  </si>
+  <si>
+    <t>class name=ant-form-explain</t>
+  </si>
+  <si>
+    <t>Please input province!</t>
   </si>
   <si>
     <t>74</t>
   </si>
   <si>
-    <t>点击set the address 设置默认地址成功</t>
-  </si>
-  <si>
-    <t>change success</t>
+    <t>address中city不输入新增失败</t>
+  </si>
+  <si>
+    <t>{"fistname":"fistname","lastname":"lastname","contactnumber":"contactnumber","coordinated_area1":"coordinated_area1","coordinated_area2":"","coordinated_area3":"C2","coordinated_postalCode":"coordinated_postalCode","coordinated_addressLine":"coordinated_addressLine"}</t>
+  </si>
+  <si>
+    <t>Please input city!</t>
   </si>
   <si>
     <t>75</t>
   </si>
   <si>
-    <t>Address中provice不输入新增失败</t>
-  </si>
-  <si>
-    <t>{"fistname":"fistname","lastname":"lastname","contactnumber":"contactnumber","coordinated_area1":"","coordinated_area2":"coordinated_area2","coordinated_area3":"C2","coordinated_postalCode":"coordinated_postalCode","coordinated_addressLine":"coordinated_addressLine"}</t>
-  </si>
-  <si>
-    <t>class name=ant-form-explain</t>
-  </si>
-  <si>
-    <t>Please input province!</t>
+    <t>address中country不选择新增失败</t>
+  </si>
+  <si>
+    <t>{"fistname":"fistname","lastname":"lastname","contactnumber":"contactnumber","coordinated_area1":"coordinated_area1","coordinated_area2":"coordinated_area2","coordinated_area3":"","coordinated_postalCode":"coordinated_postalCode","coordinated_addressLine":"coordinated_addressLine"}</t>
+  </si>
+  <si>
+    <t>Please input country!</t>
   </si>
   <si>
     <t>76</t>
   </si>
   <si>
-    <t>address中city不输入新增失败</t>
-  </si>
-  <si>
-    <t>{"fistname":"fistname","lastname":"lastname","contactnumber":"contactnumber","coordinated_area1":"coordinated_area1","coordinated_area2":"","coordinated_area3":"C2","coordinated_postalCode":"coordinated_postalCode","coordinated_addressLine":"coordinated_addressLine"}</t>
-  </si>
-  <si>
-    <t>Please input city!</t>
+    <t>post code不输入新增失败</t>
+  </si>
+  <si>
+    <t>{"fistname":"fistname","lastname":"lastname","contactnumber":"contactnumber","coordinated_area1":"coordinated_area1","coordinated_area2":"coordinated_area2","coordinated_area3":"C2","coordinated_postalCode":"","coordinated_addressLine":"coordinated_addressLine"}</t>
+  </si>
+  <si>
+    <t>Please input post code!</t>
   </si>
   <si>
     <t>77</t>
   </si>
   <si>
-    <t>address中country不选择新增失败</t>
-  </si>
-  <si>
-    <t>{"fistname":"fistname","lastname":"lastname","contactnumber":"contactnumber","coordinated_area1":"coordinated_area1","coordinated_area2":"coordinated_area2","coordinated_area3":"","coordinated_postalCode":"coordinated_postalCode","coordinated_addressLine":"coordinated_addressLine"}</t>
-  </si>
-  <si>
-    <t>Please input country!</t>
+    <t>address details 不输入新增失败</t>
+  </si>
+  <si>
+    <t>{"fistname":"fistname","lastname":"lastname","contactnumber":"contactnumber","coordinated_area1":"coordinated_area1","coordinated_area2":"coordinated_area2","coordinated_area3":"C2","coordinated_postalCode":"coordinated_postalCode","coordinated_addressLine":""}</t>
+  </si>
+  <si>
+    <t>Please input Address details!</t>
   </si>
   <si>
     <t>78</t>
   </si>
   <si>
-    <t>post code不输入新增失败</t>
-  </si>
-  <si>
-    <t>{"fistname":"fistname","lastname":"lastname","contactnumber":"contactnumber","coordinated_area1":"coordinated_area1","coordinated_area2":"coordinated_area2","coordinated_area3":"C2","coordinated_postalCode":"","coordinated_addressLine":"coordinated_addressLine"}</t>
-  </si>
-  <si>
-    <t>Please input post code!</t>
+    <t>不输入firstname新增失败</t>
+  </si>
+  <si>
+    <t>{"fistname":"","lastname":"lastname","contactnumber":"contactnumber","coordinated_area1":"coordinated_area1","coordinated_area2":"coordinated_area2","coordinated_area3":"C2","coordinated_postalCode":"coordinated_postalCode","coordinated_addressLine":"coordinated_addressLine"}</t>
+  </si>
+  <si>
+    <t>Please input your first Name!</t>
   </si>
   <si>
     <t>79</t>
   </si>
   <si>
-    <t>address details 不输入新增失败</t>
-  </si>
-  <si>
-    <t>{"fistname":"fistname","lastname":"lastname","contactnumber":"contactnumber","coordinated_area1":"coordinated_area1","coordinated_area2":"coordinated_area2","coordinated_area3":"C2","coordinated_postalCode":"coordinated_postalCode","coordinated_addressLine":""}</t>
-  </si>
-  <si>
-    <t>Please input Address details!</t>
+    <t>不输入lastname新增失败</t>
+  </si>
+  <si>
+    <t>{"fistname":"fistname","lastname":"","contactnumber":"contactnumber","coordinated_area1":"coordinated_area1","coordinated_area2":"coordinated_area2","coordinated_area3":"C2","coordinated_postalCode":"coordinated_postalCode","coordinated_addressLine":"coordinated_addressLine"}</t>
+  </si>
+  <si>
+    <t>Please input your first last Name!</t>
   </si>
   <si>
     <t>80</t>
   </si>
   <si>
-    <t>不输入firstname新增失败</t>
-  </si>
-  <si>
-    <t>{"fistname":"","lastname":"lastname","contactnumber":"contactnumber","coordinated_area1":"coordinated_area1","coordinated_area2":"coordinated_area2","coordinated_area3":"C2","coordinated_postalCode":"coordinated_postalCode","coordinated_addressLine":"coordinated_addressLine"}</t>
-  </si>
-  <si>
-    <t>Please input your first Name!</t>
+    <t>都为空新增失败</t>
+  </si>
+  <si>
+    <t>{"fistname":"","lastname":"","contactnumber":"","coordinated_area1":"","coordinated_area2":"","coordinated_area3":"","coordinated_postalCode":"","coordinated_addressLine":""}</t>
   </si>
   <si>
     <t>81</t>
   </si>
   <si>
-    <t>不输入lastname新增失败</t>
-  </si>
-  <si>
-    <t>{"fistname":"fistname","lastname":"","contactnumber":"contactnumber","coordinated_area1":"coordinated_area1","coordinated_area2":"coordinated_area2","coordinated_area3":"C2","coordinated_postalCode":"coordinated_postalCode","coordinated_addressLine":"coordinated_addressLine"}</t>
-  </si>
-  <si>
-    <t>Please input your first last Name!</t>
+    <t>点击垃圾桶删除地址成功</t>
+  </si>
+  <si>
+    <t>delete success</t>
   </si>
   <si>
     <t>82</t>
   </si>
   <si>
-    <t>都为空新增失败</t>
-  </si>
-  <si>
-    <t>{"fistname":"","lastname":"","contactnumber":"","coordinated_area1":"","coordinated_area2":"","coordinated_area3":"","coordinated_postalCode":"","coordinated_addressLine":""}</t>
+    <t>点击 Edit address 输入正确信息修改地址成功</t>
+  </si>
+  <si>
+    <t>[{"fistname":"fistname","lastname":"lastname","contactnumber":"contactnumber","coordinated_area1":"coordinated_area1","coordinated_area2":"coordinated_area2","coordinated_area3":"C2","coordinated_postalCode":"coordinated_postalCode","coordinated_addressLine":"coordinated_addressLine"},{"fistname":"2","lastname":"2","contactnumber":"2","coordinated_area1":"2","coordinated_area2":"2","coordinated_area3":"C2","coordinated_postalCode":"2","coordinated_addressLine":"2"}]</t>
   </si>
   <si>
     <t>83</t>
   </si>
   <si>
-    <t>点击垃圾桶删除地址成功</t>
-  </si>
-  <si>
-    <t>delete success</t>
+    <t>点击个人中心Order record 订单成功显示</t>
+  </si>
+  <si>
+    <t>订单管理</t>
+  </si>
+  <si>
+    <t>存在订单，登录状态</t>
+  </si>
+  <si>
+    <t>xpath=//*[@id="app"]/div/div[3]/div[1]/div/div[1]/div[2]/div/div[2]/div[1]</t>
   </si>
   <si>
     <t>84</t>
   </si>
   <si>
-    <t>点击 Edit address 输入正确信息修改地址成功</t>
-  </si>
-  <si>
-    <t>[{"fistname":"fistname","lastname":"lastname","contactnumber":"contactnumber","coordinated_area1":"coordinated_area1","coordinated_area2":"coordinated_area2","coordinated_area3":"C2","coordinated_postalCode":"coordinated_postalCode","coordinated_addressLine":"coordinated_addressLine"},{"fistname":"2","lastname":"2","contactnumber":"2","coordinated_area1":"2","coordinated_area2":"2","coordinated_area3":"C2","coordinated_postalCode":"2","coordinated_addressLine":"2"}]</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>点击个人中心Order record 订单成功显示</t>
-  </si>
-  <si>
-    <t>订单管理</t>
-  </si>
-  <si>
-    <t>存在订单，登录状态</t>
-  </si>
-  <si>
-    <t>xpath=//*[@id="app"]/div/div[3]/div[1]/div/div[1]/div[2]/div/div[2]/div[1]</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
     <t>点击订单中的商品名称跳转商品详情成功</t>
   </si>
   <si>
     <t>存在订单，登录状态，个人信息页面</t>
   </si>
   <si>
-    <t>96</t>
+    <t>85</t>
   </si>
   <si>
     <t>点击查看物流查看成功</t>
@@ -1056,7 +1056,7 @@
     <t>Logistics Modal</t>
   </si>
   <si>
-    <t>97</t>
+    <t>86</t>
   </si>
   <si>
     <t>未支付订单点击未支付跳转到支付页面</t>
@@ -1071,21 +1071,27 @@
     <t>Pay</t>
   </si>
   <si>
-    <t>98</t>
+    <t>87</t>
   </si>
   <si>
     <t>点击order data可以根据订单时间进行排序</t>
   </si>
   <si>
-    <t>99</t>
+    <t>88</t>
   </si>
   <si>
     <t>点击Total price可以根据订单金额进行排序</t>
   </si>
   <si>
+    <t>89</t>
+  </si>
+  <si>
     <t>通过关键字及全文查找可以成功查询相同名称的订单</t>
   </si>
   <si>
+    <t>90</t>
+  </si>
+  <si>
     <t>已签收订单点击退货申请进入退货页面成功</t>
   </si>
   <si>
@@ -1096,6 +1102,9 @@
   </si>
   <si>
     <t>Return application submission</t>
+  </si>
+  <si>
+    <t>91</t>
   </si>
   <si>
     <t>退货页面不输入任何内容提交退货单失败</t>
@@ -1115,6 +1124,9 @@
     <t>Quality issues</t>
   </si>
   <si>
+    <t>92</t>
+  </si>
+  <si>
     <t>退货页面不上传图片提交退货单失败</t>
   </si>
   <si>
@@ -1129,6 +1141,9 @@
     <t>Wrong order inform ation</t>
   </si>
   <si>
+    <t>93</t>
+  </si>
+  <si>
     <t>退货页面输入正确信息提交退货单成功</t>
   </si>
   <si>
@@ -1140,6 +1155,9 @@
     <t>Model error</t>
   </si>
   <si>
+    <t>94</t>
+  </si>
+  <si>
     <t>使用Quality issues提交退货单成功</t>
   </si>
   <si>
@@ -1151,6 +1169,9 @@
     <t>other</t>
   </si>
   <si>
+    <t>95</t>
+  </si>
+  <si>
     <t>使用Wrong order inform 提交退货单成功</t>
   </si>
   <si>
@@ -1159,6 +1180,9 @@
 img=C:\Users\admin\PycharmProjects\pythonProject\okmarts_ui_test\data\1.jpg</t>
   </si>
   <si>
+    <t>96</t>
+  </si>
+  <si>
     <t>使用other提交退货单成功</t>
   </si>
   <si>
@@ -1167,6 +1191,9 @@
 img=C:\Users\admin\PycharmProjects\pythonProject\okmarts_ui_test\data\1.jpg</t>
   </si>
   <si>
+    <t>97</t>
+  </si>
+  <si>
     <t>使用视频文件提交退货单失败</t>
   </si>
   <si>
@@ -1178,6 +1205,9 @@
     <t>fail</t>
   </si>
   <si>
+    <t>98</t>
+  </si>
+  <si>
     <t>点击账户名称进入个人信息修改页面成功</t>
   </si>
   <si>
@@ -1191,6 +1221,9 @@
   </si>
   <si>
     <t>Data modification</t>
+  </si>
+  <si>
+    <t>99</t>
   </si>
   <si>
     <t>输入正确信息修改成功</t>
@@ -1206,6 +1239,9 @@
     <t>Success!</t>
   </si>
   <si>
+    <t>100</t>
+  </si>
+  <si>
     <t>不输入任何内容修改成功</t>
   </si>
   <si>
@@ -1216,6 +1252,9 @@
 company=</t>
   </si>
   <si>
+    <t>101</t>
+  </si>
+  <si>
     <t>性别为screct修改成功</t>
   </si>
   <si>
@@ -1226,12 +1265,21 @@
 company=12345公司</t>
   </si>
   <si>
+    <t>102</t>
+  </si>
+  <si>
     <t>勾选订阅成功</t>
   </si>
   <si>
+    <t>103</t>
+  </si>
+  <si>
     <t>通过个人中心修改邮箱入口进入成功</t>
   </si>
   <si>
+    <t>104</t>
+  </si>
+  <si>
     <t>未登录状态下点击购物车页面跳转到登录页面成功</t>
   </si>
   <si>
@@ -1241,12 +1289,18 @@
     <t>未登录状态，存在购物车按钮</t>
   </si>
   <si>
+    <t>105</t>
+  </si>
+  <si>
     <t>首页显示购物车图标，点击购物车，页面跳转到购物车页面</t>
   </si>
   <si>
     <t>页面正确显示</t>
   </si>
   <si>
+    <t>106</t>
+  </si>
+  <si>
     <t>购物车内无商品时点击相关文字跳转到首页成功</t>
   </si>
   <si>
@@ -1259,12 +1313,18 @@
     <t>Full catalog</t>
   </si>
   <si>
+    <t>107</t>
+  </si>
+  <si>
     <t>购物车内包含商品时，购物车图标显示正确</t>
   </si>
   <si>
     <t>登录状态，购物车包含商品</t>
   </si>
   <si>
+    <t>108</t>
+  </si>
+  <si>
     <t>购物车数量大于99时，购物车略缩图显示99+</t>
   </si>
   <si>
@@ -1277,6 +1337,9 @@
     <t>99+</t>
   </si>
   <si>
+    <t>109</t>
+  </si>
+  <si>
     <t>当商品添加数量为1时无法点击-号</t>
   </si>
   <si>
@@ -1286,15 +1349,24 @@
     <t>class name=cart-btn-count.ant-btn</t>
   </si>
   <si>
+    <t>110</t>
+  </si>
+  <si>
     <t>勾选多个商品批量结算成功</t>
   </si>
   <si>
     <t>购物车存在多件商品</t>
   </si>
   <si>
+    <t>111</t>
+  </si>
+  <si>
     <t>点击ALL Choices 所有商品被勾选，点击删除删除成功</t>
   </si>
   <si>
+    <t>112</t>
+  </si>
+  <si>
     <t>首页广告位点击页数可以跳转到指定广告位页面</t>
   </si>
   <si>
@@ -1307,6 +1379,9 @@
     <t>slick-slide slick-active slick-current</t>
   </si>
   <si>
+    <t>113</t>
+  </si>
+  <si>
     <t>点击广告位图片页面跳转到相关页面</t>
   </si>
   <si>
@@ -1319,6 +1394,9 @@
     <t>["JESUN Air Compre-5550","NEWGEAR Planetar-4143","Bauer Air Compre-6879"]</t>
   </si>
   <si>
+    <t>114</t>
+  </si>
+  <si>
     <t>首页侧栏广告位正确显示</t>
   </si>
   <si>
@@ -1328,6 +1406,9 @@
     <t>class name=part-right</t>
   </si>
   <si>
+    <t>115</t>
+  </si>
+  <si>
     <t>点击侧栏广告位页面正确跳转</t>
   </si>
   <si>
@@ -1337,6 +1418,9 @@
     <t>YITENG Water Pum-8329</t>
   </si>
   <si>
+    <t>116</t>
+  </si>
+  <si>
     <t>Category recommendation 广告位正确显示</t>
   </si>
   <si>
@@ -1346,6 +1430,9 @@
     <t>class name=item-left</t>
   </si>
   <si>
+    <t>117</t>
+  </si>
+  <si>
     <t>点击Category recommendation 广告位正确跳转</t>
   </si>
   <si>
@@ -1355,6 +1442,9 @@
     <t>["HACH Transmitter-5832","ESA HMI VT300WA0-7433","HITACHI Contacto-3447"]</t>
   </si>
   <si>
+    <t>118</t>
+  </si>
+  <si>
     <t>导航栏广告位正确显示</t>
   </si>
   <si>
@@ -1364,12 +1454,18 @@
     <t>存在导航栏广告</t>
   </si>
   <si>
+    <t>119</t>
+  </si>
+  <si>
     <t>点击导航栏广告位正确跳转</t>
   </si>
   <si>
     <t>存在导航栏广告，跳转路径正确无误</t>
   </si>
   <si>
+    <t>120</t>
+  </si>
+  <si>
     <t>未登录状态签到栏显示正确</t>
   </si>
   <si>
@@ -1385,6 +1481,9 @@
     <t>registered</t>
   </si>
   <si>
+    <t>121</t>
+  </si>
+  <si>
     <t>页面存在签到栏正确显示</t>
   </si>
   <si>
@@ -1394,6 +1493,9 @@
     <t>Sign in</t>
   </si>
   <si>
+    <t>122</t>
+  </si>
+  <si>
     <t>未签到状态签到成功</t>
   </si>
   <si>
@@ -1406,6 +1508,9 @@
     <t>Check in succeeded</t>
   </si>
   <si>
+    <t>123</t>
+  </si>
+  <si>
     <t>已签到状态签到失败</t>
   </si>
   <si>
@@ -1418,6 +1523,9 @@
     <t>Sign in successfully</t>
   </si>
   <si>
+    <t>124</t>
+  </si>
+  <si>
     <t>点击View details 跳转至优惠券页面成功</t>
   </si>
   <si>
@@ -1433,6 +1541,9 @@
     <t>Coupon details</t>
   </si>
   <si>
+    <t>125</t>
+  </si>
+  <si>
     <t>选择UNused显示未使用优惠券</t>
   </si>
   <si>
@@ -1442,12 +1553,18 @@
     <t>Unused</t>
   </si>
   <si>
+    <t>126</t>
+  </si>
+  <si>
     <t>选择used显示已使用优惠券</t>
   </si>
   <si>
     <t>Used</t>
   </si>
   <si>
+    <t>127</t>
+  </si>
+  <si>
     <t>点击Points Mall，页面成功跳转到积分商城页面</t>
   </si>
   <si>
@@ -1460,9 +1577,15 @@
     <t>Points Mall</t>
   </si>
   <si>
+    <t>128</t>
+  </si>
+  <si>
     <t>选择优惠券兑换成功</t>
   </si>
   <si>
+    <t>129</t>
+  </si>
+  <si>
     <t>使用积分不足账户兑换优惠券兑换失败</t>
   </si>
   <si>
@@ -1472,6 +1595,9 @@
     <t>You do not have enough points</t>
   </si>
   <si>
+    <t>130</t>
+  </si>
+  <si>
     <t>点击优惠券使用帮助查看页面成功</t>
   </si>
   <si>
@@ -1481,6 +1607,9 @@
     <t>Coupon usage Help</t>
   </si>
   <si>
+    <t>131</t>
+  </si>
+  <si>
     <t>点击change password页面跳转成功</t>
   </si>
   <si>
@@ -1490,6 +1619,9 @@
     <t>已登录，在个人中心页面</t>
   </si>
   <si>
+    <t>132</t>
+  </si>
+  <si>
     <t>输入正确密码，验证码修改密码成功</t>
   </si>
   <si>
@@ -1499,21 +1631,33 @@
     <t>new_password=a123456</t>
   </si>
   <si>
+    <t>133</t>
+  </si>
+  <si>
     <t>不输入密码，验证码修改密码失败</t>
   </si>
   <si>
+    <t>134</t>
+  </si>
+  <si>
     <t>输入16位密码，修改密码成功</t>
   </si>
   <si>
     <t>new_password=a123456789123456</t>
   </si>
   <si>
+    <t>135</t>
+  </si>
+  <si>
     <t>输入6位密码，修改密码成功</t>
   </si>
   <si>
     <t>new_password=a12345</t>
   </si>
   <si>
+    <t>136</t>
+  </si>
+  <si>
     <t>输入5位密码，修改密码失败</t>
   </si>
   <si>
@@ -1526,19 +1670,208 @@
     <t>Password must be greater than 6 digits</t>
   </si>
   <si>
+    <t>137</t>
+  </si>
+  <si>
     <t>输入特殊字符密码修改成功</t>
   </si>
   <si>
     <t>new_password=a12345!@#$</t>
   </si>
   <si>
+    <t>138</t>
+  </si>
+  <si>
     <t>输入错误验证码密码修改失败</t>
   </si>
   <si>
     <t>Verification code error</t>
   </si>
   <si>
+    <t>139</t>
+  </si>
+  <si>
     <t>不输入验证码修改密码失败</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>首页存在搜索栏</t>
+  </si>
+  <si>
+    <t>搜索</t>
+  </si>
+  <si>
+    <t>页面在首页</t>
+  </si>
+  <si>
+    <t>class name=ant-input-group.ant-input-group-compact</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>不输入任何内容点击查询弹出错误提示</t>
+  </si>
+  <si>
+    <t>存在相应商品数据</t>
+  </si>
+  <si>
+    <t>No information was entered</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>点击All Categories 输入商品全称查询成功</t>
+  </si>
+  <si>
+    <t>search_info=Goetze Safety Va-4149</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>点击All Categories 输入部分商品名称模糊查询成功</t>
+  </si>
+  <si>
+    <t>search_info=Goetze Safety Va</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>随机选择一个类型模糊搜索成功</t>
+  </si>
+  <si>
+    <t>search_info=12</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>随机选择一个类型全文搜索成功</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>连续全文查询五次商品结果是否相同</t>
+  </si>
+  <si>
+    <t>search_info=Copeland Compres-3256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">css selector=div[class="title text-black margin-bottom-xs "] &gt; a </t>
+  </si>
+  <si>
+    <t>Copeland Compres-3256</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>点击All Categories 输入商品全称点击回车查询成功</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>鼠标点击搜索栏，弹出热门搜索，选择相关选项，显示该选项的产品成功</t>
+  </si>
+  <si>
+    <t>EMG</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>搜索栏输入超长字符串搜索失败</t>
+  </si>
+  <si>
+    <t>search_info=aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
+  </si>
+  <si>
+    <t>class name=tableData-out.nodata.text-black</t>
+  </si>
+  <si>
+    <t>The keywords you search are not included yet, try other keywords</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>搜索出商品后使用High price first排序，显示正确</t>
+  </si>
+  <si>
+    <t>搜索1</t>
+  </si>
+  <si>
+    <t>搜索出商品后，存在相关数据</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>搜索出商品后使用Low price first排序，显示正确</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>搜索出商品后点击显示方式更改显示方式成功</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>搜索出商品后点击相应查询进入商品详情页成功</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>通过筛选器Brand筛选到商品成功</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>通过筛选器Types of筛选到商品成功</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>通过筛选器ORIGIN筛选到商品成功</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>通过筛选器Brand和Types of 组合筛选商品成功</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>通过筛选器Brand和ORIGIN 组合筛选商品成功</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>通过筛选器types of和ORIGIN 组合筛选商品成功</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>通过筛选器Brand，Types of ,ORIGIN组合筛选商品成功</t>
   </si>
 </sst>
 </file>
@@ -2197,7 +2530,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2242,6 +2575,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2591,10 +2930,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K147"/>
+  <dimension ref="A1:K161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="E142" sqref="E142"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="E153" sqref="E153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4567,9 +4906,12 @@
         <v>327</v>
       </c>
     </row>
-    <row r="90" ht="28.5" spans="2:4">
+    <row r="90" ht="28.5" spans="1:4">
+      <c r="A90" s="3" t="s">
+        <v>341</v>
+      </c>
       <c r="B90" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>322</v>
@@ -4578,81 +4920,93 @@
         <v>327</v>
       </c>
     </row>
-    <row r="91" ht="28.5" spans="2:7">
+    <row r="91" ht="28.5" spans="1:7">
+      <c r="A91" s="3" t="s">
+        <v>343</v>
+      </c>
       <c r="B91" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>322</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="92" ht="40.5" spans="2:10">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="92" ht="40.5" spans="1:10">
+      <c r="A92" s="3" t="s">
+        <v>348</v>
+      </c>
       <c r="B92" s="2" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>322</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="F92" s="12" t="s">
         <v>47</v>
       </c>
       <c r="G92" s="12" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="93" ht="54" spans="2:10">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="93" ht="54" spans="1:10">
+      <c r="A93" s="3" t="s">
+        <v>354</v>
+      </c>
       <c r="B93" s="2" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>322</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="F93" s="12" t="s">
         <v>47</v>
       </c>
       <c r="G93" s="12" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="94" ht="54" spans="2:10">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="94" ht="54" spans="1:10">
+      <c r="A94" s="3" t="s">
+        <v>359</v>
+      </c>
       <c r="B94" s="2" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>322</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="F94" s="12" t="s">
         <v>47</v>
@@ -4661,21 +5015,24 @@
         <v>278</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="95" ht="40.5" spans="2:10">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="95" ht="40.5" spans="1:10">
+      <c r="A95" s="3" t="s">
+        <v>363</v>
+      </c>
       <c r="B95" s="2" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>322</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="F95" s="12" t="s">
         <v>47</v>
@@ -4684,21 +5041,24 @@
         <v>278</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="96" ht="54" spans="2:7">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="96" ht="54" spans="1:7">
+      <c r="A96" s="3" t="s">
+        <v>367</v>
+      </c>
       <c r="B96" s="2" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>322</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="F96" s="12" t="s">
         <v>47</v>
@@ -4707,18 +5067,21 @@
         <v>278</v>
       </c>
     </row>
-    <row r="97" ht="54" spans="2:7">
+    <row r="97" ht="54" spans="1:7">
+      <c r="A97" s="3" t="s">
+        <v>370</v>
+      </c>
       <c r="B97" s="2" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>322</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="F97" s="12" t="s">
         <v>47</v>
@@ -4727,129 +5090,150 @@
         <v>278</v>
       </c>
     </row>
-    <row r="98" ht="54" spans="2:7">
+    <row r="98" ht="54" spans="1:7">
+      <c r="A98" s="3" t="s">
+        <v>373</v>
+      </c>
       <c r="B98" s="2" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>322</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="F98" s="12" t="s">
         <v>47</v>
       </c>
       <c r="G98" s="12" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="99" ht="27" spans="2:7">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="99" ht="27" spans="1:7">
+      <c r="A99" s="3" t="s">
+        <v>377</v>
+      </c>
       <c r="B99" s="2" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="100" ht="67.5" spans="2:7">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="100" ht="67.5" spans="1:7">
+      <c r="A100" s="3" t="s">
+        <v>383</v>
+      </c>
       <c r="B100" s="7" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>133</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="101" ht="67.5" spans="2:7">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="101" ht="67.5" spans="1:7">
+      <c r="A101" s="3" t="s">
+        <v>387</v>
+      </c>
       <c r="B101" s="2" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>133</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="102" ht="67.5" spans="2:7">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="102" ht="67.5" spans="1:7">
+      <c r="A102" s="3" t="s">
+        <v>390</v>
+      </c>
       <c r="B102" s="2" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>133</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="103" ht="14.25" spans="2:7">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="103" ht="14.25" spans="1:7">
+      <c r="A103" s="3" t="s">
+        <v>393</v>
+      </c>
       <c r="B103" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="D103" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="D103" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>47</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="104" ht="27" spans="2:7">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="104" ht="27" spans="1:7">
+      <c r="A104" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="B104" s="2" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="F104" s="12" t="s">
         <v>41</v>
@@ -4858,15 +5242,18 @@
         <v>204</v>
       </c>
     </row>
-    <row r="105" ht="28.5" spans="2:7">
+    <row r="105" ht="28.5" spans="1:7">
+      <c r="A105" s="3" t="s">
+        <v>397</v>
+      </c>
       <c r="B105" s="7" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>41</v>
@@ -4875,99 +5262,120 @@
         <v>195</v>
       </c>
     </row>
-    <row r="106" ht="28.5" spans="2:4">
+    <row r="106" ht="28.5" spans="1:4">
+      <c r="A106" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="B106" s="7" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="107" ht="28.5" spans="2:7">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="107" ht="28.5" spans="1:7">
+      <c r="A107" s="3" t="s">
+        <v>404</v>
+      </c>
       <c r="B107" s="7" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="108" ht="28.5" spans="2:4">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="108" ht="28.5" spans="1:4">
+      <c r="A108" s="3" t="s">
+        <v>409</v>
+      </c>
       <c r="B108" s="7" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="109" ht="28.5" spans="2:7">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="109" ht="28.5" spans="1:7">
+      <c r="A109" s="3" t="s">
+        <v>412</v>
+      </c>
       <c r="B109" s="7" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="110" ht="28.5" spans="2:7">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="110" ht="28.5" spans="1:7">
+      <c r="A110" s="3" t="s">
+        <v>417</v>
+      </c>
       <c r="B110" s="7" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>399</v>
+        <v>420</v>
       </c>
       <c r="G110" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="111" ht="28.5" spans="2:4">
+    <row r="111" ht="28.5" spans="1:4">
+      <c r="A111" s="3" t="s">
+        <v>421</v>
+      </c>
       <c r="B111" s="7" t="s">
-        <v>400</v>
+        <v>422</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="112" ht="40.5" spans="2:7">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="112" ht="40.5" spans="1:7">
+      <c r="A112" s="3" t="s">
+        <v>424</v>
+      </c>
       <c r="B112" s="7" t="s">
-        <v>402</v>
+        <v>425</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>401</v>
+        <v>423</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>217</v>
@@ -4976,313 +5384,373 @@
         <v>218</v>
       </c>
     </row>
-    <row r="113" ht="28.5" spans="2:7">
+    <row r="113" ht="28.5" spans="1:7">
+      <c r="A113" s="3" t="s">
+        <v>426</v>
+      </c>
       <c r="B113" s="7" t="s">
-        <v>403</v>
+        <v>427</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="114" ht="54" spans="2:7">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="114" ht="54" spans="1:7">
+      <c r="A114" s="3" t="s">
+        <v>431</v>
+      </c>
       <c r="B114" s="7" t="s">
-        <v>407</v>
+        <v>432</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>408</v>
+        <v>433</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>409</v>
+        <v>434</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="115" ht="21" customHeight="1" spans="2:7">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="115" ht="21" customHeight="1" spans="1:7">
+      <c r="A115" s="3" t="s">
+        <v>436</v>
+      </c>
       <c r="B115" s="7" t="s">
-        <v>411</v>
+        <v>437</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>412</v>
+        <v>438</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>413</v>
+        <v>439</v>
       </c>
       <c r="G115" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="116" ht="28.5" spans="2:7">
+    <row r="116" ht="28.5" spans="1:7">
+      <c r="A116" s="3" t="s">
+        <v>440</v>
+      </c>
       <c r="B116" s="7" t="s">
-        <v>414</v>
+        <v>441</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>415</v>
+        <v>442</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>409</v>
+        <v>434</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="117" ht="28.5" spans="2:7">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="117" ht="28.5" spans="1:7">
+      <c r="A117" s="3" t="s">
+        <v>444</v>
+      </c>
       <c r="B117" s="7" t="s">
-        <v>417</v>
+        <v>445</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>418</v>
+        <v>446</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>419</v>
+        <v>447</v>
       </c>
       <c r="G117" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="118" ht="40.5" spans="2:7">
+    <row r="118" ht="40.5" spans="1:7">
+      <c r="A118" s="3" t="s">
+        <v>448</v>
+      </c>
       <c r="B118" s="7" t="s">
-        <v>420</v>
+        <v>449</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>409</v>
+        <v>434</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="119" ht="14.25" spans="2:4">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="119" ht="14.25" spans="1:4">
+      <c r="A119" s="3" t="s">
+        <v>452</v>
+      </c>
       <c r="B119" s="7" t="s">
-        <v>423</v>
+        <v>453</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>424</v>
+        <v>454</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="120" ht="28.5" spans="2:4">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="120" ht="28.5" spans="1:4">
+      <c r="A120" s="3" t="s">
+        <v>456</v>
+      </c>
       <c r="B120" s="7" t="s">
-        <v>426</v>
+        <v>457</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>424</v>
+        <v>454</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="121" ht="14.25" spans="2:7">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="121" ht="14.25" spans="1:7">
+      <c r="A121" s="3" t="s">
+        <v>459</v>
+      </c>
       <c r="B121" s="7" t="s">
-        <v>428</v>
+        <v>460</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>429</v>
+        <v>461</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>430</v>
+        <v>462</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>431</v>
+        <v>463</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="122" ht="14.25" spans="2:7">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="122" ht="14.25" spans="1:7">
+      <c r="A122" s="3" t="s">
+        <v>465</v>
+      </c>
       <c r="B122" s="7" t="s">
-        <v>433</v>
+        <v>466</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>429</v>
+        <v>461</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>434</v>
+        <v>467</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>431</v>
+        <v>463</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="123" ht="14.25" spans="2:7">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="123" ht="14.25" spans="1:7">
+      <c r="A123" s="3" t="s">
+        <v>469</v>
+      </c>
       <c r="B123" s="7" t="s">
-        <v>436</v>
+        <v>470</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>429</v>
+        <v>461</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>437</v>
+        <v>471</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>438</v>
+        <v>472</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="124" ht="67.5" spans="2:7">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="124" ht="67.5" spans="1:7">
+      <c r="A124" s="3" t="s">
+        <v>474</v>
+      </c>
       <c r="B124" s="7" t="s">
-        <v>440</v>
+        <v>475</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>429</v>
+        <v>461</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>441</v>
+        <v>476</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>442</v>
+        <v>477</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="125" ht="28.5" spans="2:7">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="125" ht="28.5" spans="1:7">
+      <c r="A125" s="3" t="s">
+        <v>479</v>
+      </c>
       <c r="B125" s="7" t="s">
-        <v>444</v>
+        <v>480</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>445</v>
+        <v>481</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>446</v>
+        <v>482</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="126" ht="42.75" spans="2:5">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="126" ht="42.75" spans="1:5">
+      <c r="A126" s="3" t="s">
+        <v>485</v>
+      </c>
       <c r="B126" s="7" t="s">
-        <v>449</v>
+        <v>486</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>445</v>
+        <v>481</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>450</v>
+        <v>487</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="127" ht="42.75" spans="2:5">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="127" ht="42.75" spans="1:5">
+      <c r="A127" s="3" t="s">
+        <v>489</v>
+      </c>
       <c r="B127" s="7" t="s">
-        <v>452</v>
+        <v>490</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>445</v>
+        <v>481</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>450</v>
+        <v>487</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="128" ht="28.5" spans="2:7">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="128" ht="28.5" spans="1:7">
+      <c r="A128" s="3" t="s">
+        <v>492</v>
+      </c>
       <c r="B128" s="7" t="s">
-        <v>454</v>
+        <v>493</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>445</v>
+        <v>481</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>455</v>
+        <v>494</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>456</v>
+        <v>495</v>
       </c>
       <c r="G128" s="14" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="129" ht="28.5" spans="2:7">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="129" ht="28.5" spans="1:7">
+      <c r="A129" s="3" t="s">
+        <v>497</v>
+      </c>
       <c r="B129" s="2" t="s">
-        <v>458</v>
+        <v>498</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>445</v>
+        <v>481</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>455</v>
+        <v>494</v>
       </c>
       <c r="F129" s="12"/>
       <c r="G129" s="12"/>
     </row>
-    <row r="130" ht="42.75" spans="2:7">
+    <row r="130" ht="42.75" spans="1:7">
+      <c r="A130" s="3" t="s">
+        <v>499</v>
+      </c>
       <c r="B130" s="7" t="s">
-        <v>459</v>
+        <v>500</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>445</v>
+        <v>481</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>460</v>
+        <v>501</v>
       </c>
       <c r="F130" s="12" t="s">
         <v>133</v>
       </c>
       <c r="G130" s="12" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="131" ht="28.5" spans="2:7">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="131" ht="28.5" spans="1:7">
+      <c r="A131" s="3" t="s">
+        <v>503</v>
+      </c>
       <c r="B131" s="7" t="s">
-        <v>462</v>
+        <v>504</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>445</v>
+        <v>481</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>463</v>
+        <v>505</v>
       </c>
       <c r="F131" s="12" t="s">
-        <v>456</v>
+        <v>495</v>
       </c>
       <c r="G131" s="12" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="132" ht="28.5" spans="2:7">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="132" ht="28.5" spans="1:7">
+      <c r="A132" s="3" t="s">
+        <v>507</v>
+      </c>
       <c r="B132" s="7" t="s">
-        <v>465</v>
+        <v>508</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>41</v>
@@ -5291,18 +5759,21 @@
         <v>198</v>
       </c>
     </row>
-    <row r="133" ht="40.5" spans="2:7">
+    <row r="133" ht="40.5" spans="1:7">
+      <c r="A133" s="3" t="s">
+        <v>511</v>
+      </c>
       <c r="B133" s="7" t="s">
-        <v>468</v>
+        <v>512</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>469</v>
+        <v>513</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>470</v>
+        <v>514</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>140</v>
@@ -5311,15 +5782,18 @@
         <v>141</v>
       </c>
     </row>
-    <row r="134" ht="28.5" spans="2:7">
+    <row r="134" ht="28.5" spans="1:7">
+      <c r="A134" s="3" t="s">
+        <v>515</v>
+      </c>
       <c r="B134" s="7" t="s">
-        <v>471</v>
+        <v>516</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>469</v>
+        <v>513</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>145</v>
@@ -5328,18 +5802,21 @@
         <v>37</v>
       </c>
     </row>
-    <row r="135" ht="40.5" spans="2:7">
+    <row r="135" ht="40.5" spans="1:7">
+      <c r="A135" s="3" t="s">
+        <v>517</v>
+      </c>
       <c r="B135" s="7" t="s">
-        <v>472</v>
+        <v>518</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>469</v>
+        <v>513</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>473</v>
+        <v>519</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>140</v>
@@ -5348,18 +5825,21 @@
         <v>141</v>
       </c>
     </row>
-    <row r="136" ht="40.5" spans="2:7">
+    <row r="136" ht="40.5" spans="1:7">
+      <c r="A136" s="3" t="s">
+        <v>520</v>
+      </c>
       <c r="B136" s="7" t="s">
-        <v>474</v>
+        <v>521</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>469</v>
+        <v>513</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>475</v>
+        <v>522</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>140</v>
@@ -5368,38 +5848,44 @@
         <v>141</v>
       </c>
     </row>
-    <row r="137" ht="27" spans="2:7">
+    <row r="137" ht="27" spans="1:7">
+      <c r="A137" s="3" t="s">
+        <v>523</v>
+      </c>
       <c r="B137" s="7" t="s">
-        <v>476</v>
+        <v>524</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>469</v>
+        <v>513</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>477</v>
+        <v>525</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>478</v>
+        <v>526</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="138" ht="40.5" spans="2:7">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="138" ht="40.5" spans="1:7">
+      <c r="A138" s="3" t="s">
+        <v>528</v>
+      </c>
       <c r="B138" s="7" t="s">
-        <v>480</v>
+        <v>529</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>469</v>
+        <v>513</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>481</v>
+        <v>530</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>140</v>
@@ -5408,35 +5894,41 @@
         <v>141</v>
       </c>
     </row>
-    <row r="139" ht="14.25" spans="2:7">
+    <row r="139" ht="14.25" spans="1:7">
+      <c r="A139" s="3" t="s">
+        <v>531</v>
+      </c>
       <c r="B139" s="7" t="s">
-        <v>482</v>
+        <v>532</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>469</v>
+        <v>513</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>470</v>
+        <v>514</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>47</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="140" ht="27" spans="2:7">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="140" ht="27" spans="1:7">
+      <c r="A140" s="3" t="s">
+        <v>534</v>
+      </c>
       <c r="B140" s="7" t="s">
-        <v>484</v>
+        <v>535</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>469</v>
+        <v>513</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>145</v>
@@ -5445,26 +5937,357 @@
         <v>37</v>
       </c>
     </row>
-    <row r="141" spans="7:7">
-      <c r="G141" s="3"/>
-    </row>
-    <row r="142" spans="7:7">
-      <c r="G142" s="3"/>
-    </row>
-    <row r="143" spans="7:7">
+    <row r="141" ht="14.25" spans="1:7">
+      <c r="A141" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="B141" s="15" t="s">
+        <v>537</v>
+      </c>
+      <c r="C141" s="15" t="s">
+        <v>538</v>
+      </c>
+      <c r="D141" s="15" t="s">
+        <v>539</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="142" ht="28.5" spans="1:7">
+      <c r="A142" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="B142" s="15" t="s">
+        <v>542</v>
+      </c>
+      <c r="C142" s="15" t="s">
+        <v>538</v>
+      </c>
+      <c r="D142" s="15" t="s">
+        <v>543</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="143" ht="28.5" spans="1:7">
+      <c r="A143" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="B143" s="15" t="s">
+        <v>546</v>
+      </c>
+      <c r="C143" s="15" t="s">
+        <v>538</v>
+      </c>
+      <c r="D143" s="15" t="s">
+        <v>543</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>547</v>
+      </c>
       <c r="G143" s="3"/>
     </row>
-    <row r="144" spans="7:7">
+    <row r="144" ht="28.5" spans="1:7">
+      <c r="A144" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="B144" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="C144" s="15" t="s">
+        <v>538</v>
+      </c>
+      <c r="D144" s="15" t="s">
+        <v>543</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>550</v>
+      </c>
       <c r="G144" s="3"/>
     </row>
-    <row r="145" spans="7:7">
+    <row r="145" ht="14.25" spans="1:7">
+      <c r="A145" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="B145" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="C145" s="15" t="s">
+        <v>538</v>
+      </c>
+      <c r="D145" s="15" t="s">
+        <v>543</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>553</v>
+      </c>
       <c r="G145" s="3"/>
     </row>
-    <row r="146" spans="7:7">
+    <row r="146" ht="14.25" spans="1:7">
+      <c r="A146" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="B146" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="C146" s="15" t="s">
+        <v>538</v>
+      </c>
+      <c r="D146" s="15" t="s">
+        <v>543</v>
+      </c>
       <c r="G146" s="3"/>
     </row>
-    <row r="147" spans="7:7">
-      <c r="G147" s="3"/>
+    <row r="147" ht="28.5" spans="1:7">
+      <c r="A147" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="B147" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="C147" s="15" t="s">
+        <v>538</v>
+      </c>
+      <c r="D147" s="15" t="s">
+        <v>543</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="148" ht="28.5" spans="1:7">
+      <c r="A148" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="B148" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="C148" s="15" t="s">
+        <v>538</v>
+      </c>
+      <c r="D148" s="15" t="s">
+        <v>543</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="149" ht="42.75" spans="1:5">
+      <c r="A149" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="B149" s="15" t="s">
+        <v>564</v>
+      </c>
+      <c r="C149" s="15" t="s">
+        <v>538</v>
+      </c>
+      <c r="D149" s="15" t="s">
+        <v>543</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="150" ht="54" spans="1:7">
+      <c r="A150" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="B150" s="15" t="s">
+        <v>567</v>
+      </c>
+      <c r="C150" s="15" t="s">
+        <v>538</v>
+      </c>
+      <c r="D150" s="15" t="s">
+        <v>543</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="151" ht="28.5" spans="1:5">
+      <c r="A151" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="B151" s="15" t="s">
+        <v>572</v>
+      </c>
+      <c r="C151" s="15" t="s">
+        <v>573</v>
+      </c>
+      <c r="D151" s="15" t="s">
+        <v>574</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="152" ht="28.5" spans="1:4">
+      <c r="A152" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="B152" s="15" t="s">
+        <v>577</v>
+      </c>
+      <c r="C152" s="15" t="s">
+        <v>573</v>
+      </c>
+      <c r="D152" s="15" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="153" ht="28.5" spans="1:4">
+      <c r="A153" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="B153" s="15" t="s">
+        <v>579</v>
+      </c>
+      <c r="C153" s="15" t="s">
+        <v>573</v>
+      </c>
+      <c r="D153" s="15" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="154" ht="28.5" spans="1:4">
+      <c r="A154" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="B154" s="15" t="s">
+        <v>581</v>
+      </c>
+      <c r="C154" s="15" t="s">
+        <v>573</v>
+      </c>
+      <c r="D154" s="15" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="155" ht="28.5" spans="1:4">
+      <c r="A155" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="B155" s="15" t="s">
+        <v>583</v>
+      </c>
+      <c r="C155" s="15" t="s">
+        <v>573</v>
+      </c>
+      <c r="D155" s="15" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="156" ht="28.5" spans="1:4">
+      <c r="A156" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="B156" s="15" t="s">
+        <v>585</v>
+      </c>
+      <c r="C156" s="15" t="s">
+        <v>573</v>
+      </c>
+      <c r="D156" s="15" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="157" ht="28.5" spans="1:4">
+      <c r="A157" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="B157" s="16" t="s">
+        <v>587</v>
+      </c>
+      <c r="C157" s="15" t="s">
+        <v>573</v>
+      </c>
+      <c r="D157" s="15" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="158" ht="28.5" spans="1:4">
+      <c r="A158" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="B158" s="16" t="s">
+        <v>589</v>
+      </c>
+      <c r="C158" s="15" t="s">
+        <v>573</v>
+      </c>
+      <c r="D158" s="15" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="159" ht="28.5" spans="1:4">
+      <c r="A159" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="B159" s="16" t="s">
+        <v>591</v>
+      </c>
+      <c r="C159" s="15" t="s">
+        <v>573</v>
+      </c>
+      <c r="D159" s="15" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="160" ht="28.5" spans="1:4">
+      <c r="A160" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="B160" s="16" t="s">
+        <v>593</v>
+      </c>
+      <c r="C160" s="15" t="s">
+        <v>573</v>
+      </c>
+      <c r="D160" s="15" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="161" ht="28.5" spans="1:4">
+      <c r="A161" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="B161" s="16" t="s">
+        <v>595</v>
+      </c>
+      <c r="C161" s="15" t="s">
+        <v>573</v>
+      </c>
+      <c r="D161" s="15" t="s">
+        <v>543</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/UI自动化用测试用例.xlsx
+++ b/data/UI自动化用测试用例.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="585">
   <si>
     <t>用例编号</t>
   </si>
@@ -1745,7 +1745,7 @@
     <t>随机选择一个类型模糊搜索成功</t>
   </si>
   <si>
-    <t>search_info=12</t>
+    <t>search_info=1</t>
   </si>
   <si>
     <t>145</t>
@@ -1805,33 +1805,24 @@
     <t>搜索出商品后使用High price first排序，显示正确</t>
   </si>
   <si>
-    <t>搜索1</t>
-  </si>
-  <si>
     <t>搜索出商品后，存在相关数据</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>151</t>
   </si>
   <si>
     <t>搜索出商品后使用Low price first排序，显示正确</t>
   </si>
   <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>搜索出商品后点击显示方式更改显示方式成功</t>
-  </si>
-  <si>
     <t>153</t>
   </si>
   <si>
     <t>搜索出商品后点击相应查询进入商品详情页成功</t>
   </si>
   <si>
+    <t>search_info=Parker Coil</t>
+  </si>
+  <si>
     <t>154</t>
   </si>
   <si>
@@ -1844,34 +1835,10 @@
     <t>通过筛选器Types of筛选到商品成功</t>
   </si>
   <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>通过筛选器ORIGIN筛选到商品成功</t>
-  </si>
-  <si>
     <t>157</t>
   </si>
   <si>
     <t>通过筛选器Brand和Types of 组合筛选商品成功</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>通过筛选器Brand和ORIGIN 组合筛选商品成功</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>通过筛选器types of和ORIGIN 组合筛选商品成功</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>通过筛选器Brand，Types of ,ORIGIN组合筛选商品成功</t>
   </si>
 </sst>
 </file>
@@ -1879,9 +1846,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -1936,6 +1903,36 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1950,7 +1947,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1958,24 +1954,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1989,48 +1970,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2050,10 +1993,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2065,8 +2009,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2074,7 +2026,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2089,7 +2056,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2101,31 +2080,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2143,7 +2098,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2155,19 +2170,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2179,13 +2182,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2197,13 +2200,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2215,19 +2212,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2239,25 +2224,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2269,7 +2236,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2280,6 +2247,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2300,10 +2291,32 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2326,57 +2339,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2388,10 +2355,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2400,137 +2367,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2575,12 +2542,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2930,10 +2891,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K161"/>
+  <dimension ref="A1:K156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="E153" sqref="E153"/>
+    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="F156" sqref="F156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5941,13 +5902,13 @@
       <c r="A141" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="B141" s="15" t="s">
+      <c r="B141" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="C141" s="15" t="s">
+      <c r="C141" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="D141" s="15" t="s">
+      <c r="D141" s="7" t="s">
         <v>539</v>
       </c>
       <c r="F141" s="2" t="s">
@@ -5961,13 +5922,13 @@
       <c r="A142" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="B142" s="15" t="s">
+      <c r="B142" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="C142" s="15" t="s">
+      <c r="C142" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="D142" s="15" t="s">
+      <c r="D142" s="7" t="s">
         <v>543</v>
       </c>
       <c r="F142" s="2" t="s">
@@ -5981,13 +5942,13 @@
       <c r="A143" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="B143" s="15" t="s">
+      <c r="B143" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="C143" s="15" t="s">
+      <c r="C143" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="D143" s="15" t="s">
+      <c r="D143" s="7" t="s">
         <v>543</v>
       </c>
       <c r="E143" s="2" t="s">
@@ -5999,13 +5960,13 @@
       <c r="A144" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="B144" s="15" t="s">
+      <c r="B144" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="C144" s="15" t="s">
+      <c r="C144" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="D144" s="15" t="s">
+      <c r="D144" s="7" t="s">
         <v>543</v>
       </c>
       <c r="E144" s="2" t="s">
@@ -6017,13 +5978,13 @@
       <c r="A145" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="B145" s="15" t="s">
+      <c r="B145" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="C145" s="15" t="s">
+      <c r="C145" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="D145" s="15" t="s">
+      <c r="D145" s="7" t="s">
         <v>543</v>
       </c>
       <c r="E145" s="2" t="s">
@@ -6035,14 +5996,17 @@
       <c r="A146" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="B146" s="15" t="s">
+      <c r="B146" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="C146" s="15" t="s">
+      <c r="C146" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="D146" s="15" t="s">
+      <c r="D146" s="7" t="s">
         <v>543</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>553</v>
       </c>
       <c r="G146" s="3"/>
     </row>
@@ -6050,13 +6014,13 @@
       <c r="A147" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="B147" s="15" t="s">
+      <c r="B147" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="C147" s="15" t="s">
+      <c r="C147" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="D147" s="15" t="s">
+      <c r="D147" s="7" t="s">
         <v>543</v>
       </c>
       <c r="E147" s="2" t="s">
@@ -6073,13 +6037,13 @@
       <c r="A148" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="B148" s="15" t="s">
+      <c r="B148" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="C148" s="15" t="s">
+      <c r="C148" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="D148" s="15" t="s">
+      <c r="D148" s="7" t="s">
         <v>543</v>
       </c>
       <c r="E148" s="2" t="s">
@@ -6096,13 +6060,13 @@
       <c r="A149" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="B149" s="15" t="s">
+      <c r="B149" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="C149" s="15" t="s">
+      <c r="C149" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="D149" s="15" t="s">
+      <c r="D149" s="7" t="s">
         <v>543</v>
       </c>
       <c r="E149" s="2" t="s">
@@ -6113,13 +6077,13 @@
       <c r="A150" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="B150" s="15" t="s">
+      <c r="B150" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="C150" s="15" t="s">
+      <c r="C150" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="D150" s="15" t="s">
+      <c r="D150" s="7" t="s">
         <v>543</v>
       </c>
       <c r="E150" s="2" t="s">
@@ -6136,157 +6100,102 @@
       <c r="A151" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="B151" s="15" t="s">
+      <c r="B151" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="C151" s="15" t="s">
+      <c r="C151" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="D151" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="D151" s="15" t="s">
+      <c r="E151" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="152" ht="28.5" spans="1:5">
+      <c r="A152" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="E151" s="2" t="s">
+      <c r="B152" s="7" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="152" ht="28.5" spans="1:4">
-      <c r="A152" s="3" t="s">
+      <c r="C152" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="D152" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="153" ht="28.5" spans="1:5">
+      <c r="A153" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="B152" s="15" t="s">
+      <c r="B153" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="C152" s="15" t="s">
+      <c r="C153" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="D153" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="D152" s="15" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="153" ht="28.5" spans="1:4">
-      <c r="A153" s="3" t="s">
+      <c r="E153" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="B153" s="15" t="s">
+    </row>
+    <row r="154" ht="28.5" spans="1:5">
+      <c r="A154" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="C153" s="15" t="s">
+      <c r="B154" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="D154" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="D153" s="15" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="154" ht="28.5" spans="1:4">
-      <c r="A154" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="B154" s="15" t="s">
+      <c r="E154" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="155" ht="28.5" spans="1:5">
+      <c r="A155" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="C154" s="15" t="s">
+      <c r="B155" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="D155" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="D154" s="15" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="155" ht="28.5" spans="1:4">
-      <c r="A155" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="B155" s="15" t="s">
+      <c r="E155" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="156" ht="28.5" spans="1:5">
+      <c r="A156" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="C155" s="15" t="s">
-        <v>573</v>
-      </c>
-      <c r="D155" s="15" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="156" ht="28.5" spans="1:4">
-      <c r="A156" s="3" t="s">
+      <c r="B156" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="B156" s="15" t="s">
-        <v>585</v>
-      </c>
-      <c r="C156" s="15" t="s">
-        <v>573</v>
-      </c>
-      <c r="D156" s="15" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="157" ht="28.5" spans="1:4">
-      <c r="A157" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="B157" s="16" t="s">
-        <v>587</v>
-      </c>
-      <c r="C157" s="15" t="s">
-        <v>573</v>
-      </c>
-      <c r="D157" s="15" t="s">
+      <c r="C156" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="D156" s="7" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="158" ht="28.5" spans="1:4">
-      <c r="A158" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="B158" s="16" t="s">
-        <v>589</v>
-      </c>
-      <c r="C158" s="15" t="s">
-        <v>573</v>
-      </c>
-      <c r="D158" s="15" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="159" ht="28.5" spans="1:4">
-      <c r="A159" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="B159" s="16" t="s">
-        <v>591</v>
-      </c>
-      <c r="C159" s="15" t="s">
-        <v>573</v>
-      </c>
-      <c r="D159" s="15" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="160" ht="28.5" spans="1:4">
-      <c r="A160" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="B160" s="16" t="s">
-        <v>593</v>
-      </c>
-      <c r="C160" s="15" t="s">
-        <v>573</v>
-      </c>
-      <c r="D160" s="15" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="161" ht="28.5" spans="1:4">
-      <c r="A161" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="B161" s="16" t="s">
-        <v>595</v>
-      </c>
-      <c r="C161" s="15" t="s">
-        <v>573</v>
-      </c>
-      <c r="D161" s="15" t="s">
-        <v>543</v>
+      <c r="E156" s="2" t="s">
+        <v>553</v>
       </c>
     </row>
   </sheetData>

--- a/data/UI自动化用测试用例.xlsx
+++ b/data/UI自动化用测试用例.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="614">
   <si>
     <t>用例编号</t>
   </si>
@@ -816,7 +816,7 @@
     <t>css selector=#app &gt; div &gt; div.global-header &gt; div &gt; div.menu-content &gt; div.menu-left &gt; div.menu-out &gt; div.menu-lv-1.text-xs.border-radius-sm &gt; ul &gt; li:nth-child(1) &gt; div &gt; div.lv-2-list &gt; div &gt; div:nth-child(1) &gt; a</t>
   </si>
   <si>
-    <t>PRX</t>
+    <t>7OCEAN</t>
   </si>
   <si>
     <t>67</t>
@@ -831,7 +831,7 @@
     <t>css selector=#app &gt; div &gt; div.ui-container &gt; div.content.search-content &gt; div.result-list-out &gt; div &gt; div:nth-child(1) &gt; div.info &gt; div.title.text-black.margin-bottom-xs &gt; a</t>
   </si>
   <si>
-    <t>Schneider Soft S-1591</t>
+    <t>Honeywell Transm-8739</t>
   </si>
   <si>
     <t>68</t>
@@ -847,21 +847,6 @@
   </si>
   <si>
     <t>Haven't any goods</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>All Categories 页面可以点击类别快速移动到该类别所在页面位置</t>
-  </si>
-  <si>
-    <t>页面在ALL Categories页面</t>
-  </si>
-  <si>
-    <t>xpath=//*[@id="type7"]/div[2]/div[44]/a</t>
-  </si>
-  <si>
-    <t>PENTAIR</t>
   </si>
   <si>
     <t>70</t>
@@ -1152,6 +1137,9 @@
 img=C:\Users\admin\PycharmProjects\pythonProject\okmarts_ui_test\data\1.jpg</t>
   </si>
   <si>
+    <t>add success</t>
+  </si>
+  <si>
     <t>Model error</t>
   </si>
   <si>
@@ -1200,9 +1188,6 @@
     <t>reason=other
 text=123412412
 img=C:\Users\admin\PycharmProjects\pythonProject\okmarts_ui_test\data\test 8.mp4</t>
-  </si>
-  <si>
-    <t>fail</t>
   </si>
   <si>
     <t>98</t>
@@ -1388,10 +1373,10 @@
     <t>存在广告位，且跳转路径正确</t>
   </si>
   <si>
-    <t>class name=title.text-black.margin-bottom-sm</t>
-  </si>
-  <si>
-    <t>["JESUN Air Compre-5550","NEWGEAR Planetar-4143","Bauer Air Compre-6879"]</t>
+    <t>["class name=text-tit-lg.flex","class name=help","class name=text-tit-lg.flex.margin-bottom-xs"]</t>
+  </si>
+  <si>
+    <t>["Unread notification","Coupon usage help","Coupon usage Help"]</t>
   </si>
   <si>
     <t>114</t>
@@ -1415,7 +1400,10 @@
     <t>存在侧栏广告位，跳转路径正确</t>
   </si>
   <si>
-    <t>YITENG Water Pum-8329</t>
+    <t>class name=text-tit-lg.flex</t>
+  </si>
+  <si>
+    <t>Coupon details</t>
   </si>
   <si>
     <t>116</t>
@@ -1439,7 +1427,10 @@
     <t>存在类别推荐广告，跳转路径正确</t>
   </si>
   <si>
-    <t>["HACH Transmitter-5832","ESA HMI VT300WA0-7433","HITACHI Contacto-3447"]</t>
+    <t>["class name=text-tit-lg.flex.align-center","class name=content.ant-empty","class name=text-tit-lg.flex"]</t>
+  </si>
+  <si>
+    <t>["Favorites","The shopping cart is still empty for the time being, go pick a few items right away","Order record"]</t>
   </si>
   <si>
     <t>118</t>
@@ -1535,12 +1526,6 @@
     <t>登陆状态，个人信息页面</t>
   </si>
   <si>
-    <t>class name=text-tit-lg.flex</t>
-  </si>
-  <si>
-    <t>Coupon details</t>
-  </si>
-  <si>
     <t>125</t>
   </si>
   <si>
@@ -1839,6 +1824,108 @@
   </si>
   <si>
     <t>通过筛选器Brand和Types of 组合筛选商品成功</t>
+  </si>
+  <si>
+    <t>在购物车中点击结算进入到结算页面成功</t>
+  </si>
+  <si>
+    <t>支付1</t>
+  </si>
+  <si>
+    <t>购物车存在商品</t>
+  </si>
+  <si>
+    <t>css selector=#app &gt; div &gt; div.ui-container &gt; div.content.flex.space-between &gt; div.payTotal-out &gt; div &gt; div:nth-child(8) &gt; span.label</t>
+  </si>
+  <si>
+    <t>stimated TotalEst. total</t>
+  </si>
+  <si>
+    <t>在商品详情页面点击立即购买进入到结算页面成功</t>
+  </si>
+  <si>
+    <t>在商品详情页面</t>
+  </si>
+  <si>
+    <t>结算页面无地址存在点击立即支付弹出错误提示</t>
+  </si>
+  <si>
+    <t>页面在结算页面，不存在地址</t>
+  </si>
+  <si>
+    <t>class name=ant-alert-description</t>
+  </si>
+  <si>
+    <t>Please fill in the delivery address first</t>
+  </si>
+  <si>
+    <t>结算页面无地址点击添加添加成功</t>
+  </si>
+  <si>
+    <t>xpath=//*[@id="app"]/div/div[2]/div[1]/div[1]/div[2]/div[1]/div[3]/a</t>
+  </si>
+  <si>
+    <t>Edit address</t>
+  </si>
+  <si>
+    <t>存在地址数据点击结算进入结算支付页面成功</t>
+  </si>
+  <si>
+    <t>存在地址数据</t>
+  </si>
+  <si>
+    <t>更换地址后点击立即结算支付成功</t>
+  </si>
+  <si>
+    <t>支付</t>
+  </si>
+  <si>
+    <t>存在多条地址数据</t>
+  </si>
+  <si>
+    <t>不使用优惠卷进入结算进入结算支付页成功</t>
+  </si>
+  <si>
+    <t>存在优惠卷</t>
+  </si>
+  <si>
+    <t>结算完成后点击支付页面成功跳转到银联登录页面</t>
+  </si>
+  <si>
+    <t>页面在结算页面</t>
+  </si>
+  <si>
+    <t>id=headerText</t>
+  </si>
+  <si>
+    <t>用PayPal付款</t>
+  </si>
+  <si>
+    <t>输入备注信息进行结算页面</t>
+  </si>
+  <si>
+    <t>页面在订单结算页</t>
+  </si>
+  <si>
+    <t>支付成功后点击back to homepage跳转到首页</t>
+  </si>
+  <si>
+    <t>支付成功页面</t>
+  </si>
+  <si>
+    <t>xpath=//*[@id="app"]/div/div[1]/div/div[2]/div[1]/div[1]/div[2]/ul/li[11]</t>
+  </si>
+  <si>
+    <t>使用信用卡支付成功</t>
+  </si>
+  <si>
+    <t>信用卡余额充足</t>
+  </si>
+  <si>
+    <t>class name=text-tit-lg.margin-bottom-xs</t>
+  </si>
+  <si>
+    <t>Payment successful</t>
   </si>
 </sst>
 </file>
@@ -1903,9 +1990,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1913,6 +2006,36 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1933,24 +2056,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1994,14 +2104,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -2017,21 +2119,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -2041,7 +2128,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2056,7 +2143,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2068,7 +2155,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2080,13 +2173,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2098,13 +2197,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2116,7 +2233,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2134,12 +2263,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2152,19 +2275,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2176,19 +2305,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2200,43 +2317,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2247,6 +2334,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2269,31 +2380,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2313,15 +2400,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2333,6 +2411,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2355,10 +2442,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2367,133 +2454,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2891,10 +2978,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K156"/>
+  <dimension ref="A1:K166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="F156" sqref="F156"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="E168" sqref="E168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3748,7 +3835,7 @@
       <c r="B37" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="2" t="s">
         <v>137</v>
       </c>
       <c r="D37" s="7" t="s">
@@ -3771,7 +3858,7 @@
       <c r="B38" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="2" t="s">
         <v>137</v>
       </c>
       <c r="D38" s="7" t="s">
@@ -3794,7 +3881,7 @@
       <c r="B39" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="2" t="s">
         <v>137</v>
       </c>
       <c r="D39" s="7" t="s">
@@ -3817,7 +3904,7 @@
       <c r="B40" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="2" t="s">
         <v>137</v>
       </c>
       <c r="D40" s="7" t="s">
@@ -3840,7 +3927,7 @@
       <c r="B41" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="2" t="s">
         <v>137</v>
       </c>
       <c r="D41" s="7" t="s">
@@ -3863,7 +3950,7 @@
       <c r="B42" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="2" t="s">
         <v>137</v>
       </c>
       <c r="D42" s="7" t="s">
@@ -3886,7 +3973,7 @@
       <c r="B43" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="2" t="s">
         <v>137</v>
       </c>
       <c r="D43" s="7" t="s">
@@ -3909,7 +3996,7 @@
       <c r="B44" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="2" t="s">
         <v>137</v>
       </c>
       <c r="D44" s="7" t="s">
@@ -3932,7 +4019,7 @@
       <c r="B45" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="2" t="s">
         <v>137</v>
       </c>
       <c r="D45" s="7" t="s">
@@ -3955,7 +4042,7 @@
       <c r="B46" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="2" t="s">
         <v>137</v>
       </c>
       <c r="D46" s="7" t="s">
@@ -3978,7 +4065,7 @@
       <c r="B47" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="2" t="s">
         <v>137</v>
       </c>
       <c r="D47" s="7" t="s">
@@ -4001,7 +4088,7 @@
       <c r="B48" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="2" t="s">
         <v>137</v>
       </c>
       <c r="D48" s="7" t="s">
@@ -4024,7 +4111,7 @@
       <c r="B49" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="2" t="s">
         <v>137</v>
       </c>
       <c r="D49" s="7" t="s">
@@ -4448,41 +4535,44 @@
         <v>262</v>
       </c>
     </row>
-    <row r="70" ht="28.5" spans="1:7">
+    <row r="70" ht="42.75" spans="1:7">
       <c r="A70" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="7" t="s">
         <v>264</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="D70" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="71" ht="28.5" spans="1:7">
+      <c r="A71" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C71" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="71" ht="42.75" spans="1:7">
-      <c r="A71" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>271</v>
       </c>
+      <c r="E71" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F71" s="2" t="s">
-        <v>272</v>
+        <v>133</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>273</v>
@@ -4492,43 +4582,43 @@
       <c r="A72" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="2" t="s">
         <v>275</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>133</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="73" ht="28.5" spans="1:7">
       <c r="A73" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="E73" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="F73" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="E73" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>281</v>
@@ -4538,233 +4628,230 @@
       <c r="A74" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="7" t="s">
         <v>283</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E74" s="11" t="s">
         <v>284</v>
       </c>
       <c r="F74" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="75" ht="28.5" spans="1:7">
       <c r="A75" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B75" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="C75" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="E75" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="C75" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="E75" s="11" t="s">
+      <c r="F75" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G75" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="76" ht="28.5" spans="1:7">
       <c r="A76" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B76" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="C76" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="E76" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="C76" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="E76" s="11" t="s">
+      <c r="F76" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="77" ht="28.5" spans="1:7">
       <c r="A77" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="C77" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="E77" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="C77" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="E77" s="11" t="s">
+      <c r="F77" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="78" ht="28.5" spans="1:7">
       <c r="A78" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="C78" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="E78" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="C78" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="E78" s="11" t="s">
+      <c r="F78" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="79" ht="28.5" spans="1:7">
       <c r="A79" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="C79" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="E79" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="C79" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="E79" s="11" t="s">
+      <c r="F79" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="80" ht="28.5" spans="1:7">
       <c r="A80" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="C80" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="E80" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="C80" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="E80" s="11" t="s">
-        <v>309</v>
-      </c>
       <c r="F80" s="2" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
     </row>
     <row r="81" ht="28.5" spans="1:7">
       <c r="A81" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B81" s="2" t="s">
+    </row>
+    <row r="82" ht="135" spans="1:7">
+      <c r="A82" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="C81" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="E81" s="11" t="s">
+      <c r="B82" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="F81" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="82" ht="28.5" spans="1:7">
-      <c r="A82" s="3" t="s">
+      <c r="C82" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="E82" s="11" t="s">
-        <v>277</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>133</v>
       </c>
       <c r="G82" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="83" ht="28.5" spans="1:7">
+      <c r="A83" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B83" s="7" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="83" ht="135" spans="1:7">
-      <c r="A83" s="3" t="s">
+      <c r="C83" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="D83" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="C83" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="E83" s="2" t="s">
+      <c r="F83" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="F83" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="84" ht="28.5" spans="1:7">
+      <c r="G83" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" ht="28.5" spans="1:4">
       <c r="A84" s="3" t="s">
         <v>320</v>
       </c>
@@ -4772,53 +4859,54 @@
         <v>321</v>
       </c>
       <c r="C84" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D84" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="D84" s="7" t="s">
+    </row>
+    <row r="85" ht="28.5" spans="1:7">
+      <c r="A85" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="F84" s="2" t="s">
+      <c r="B85" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="G84" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" ht="28.5" spans="1:4">
-      <c r="A85" s="3" t="s">
+      <c r="C85" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F85" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="G85" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C85" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="D85" s="7" t="s">
+    </row>
+    <row r="86" ht="42.75" spans="1:7">
+      <c r="A86" s="3" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="86" ht="28.5" spans="1:7">
-      <c r="A86" s="3" t="s">
+      <c r="B86" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="C86" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D86" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="C86" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="F86" s="2" t="s">
+      <c r="E86" s="12"/>
+      <c r="F86" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="G86" s="2" t="s">
+      <c r="G86" s="12" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="87" ht="42.75" spans="1:7">
+    <row r="87" ht="28.5" spans="1:4">
       <c r="A87" s="3" t="s">
         <v>332</v>
       </c>
@@ -4826,93 +4914,98 @@
         <v>333</v>
       </c>
       <c r="C87" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D87" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="E87" s="12"/>
-      <c r="F87" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="G87" s="12" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="88" ht="28.5" spans="1:4">
       <c r="A88" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C88" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D88" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="89" ht="28.5" spans="1:4">
       <c r="A89" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="90" ht="28.5" spans="1:7">
+      <c r="A90" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B90" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="C90" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D90" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="C89" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="90" ht="28.5" spans="1:4">
-      <c r="A90" s="3" t="s">
+      <c r="F90" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="G90" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="C90" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="91" ht="28.5" spans="1:7">
+    </row>
+    <row r="91" ht="40.5" spans="1:10">
       <c r="A91" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B91" s="2" t="s">
         <v>344</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="D91" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="F91" s="2" t="s">
+      <c r="E91" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="G91" s="2" t="s">
+      <c r="F91" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G91" s="12" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="92" ht="40.5" spans="1:10">
+      <c r="J91" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="92" ht="54" spans="1:10">
       <c r="A92" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>351</v>
@@ -4935,10 +5028,10 @@
         <v>355</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>356</v>
@@ -4953,7 +5046,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="94" ht="54" spans="1:10">
+    <row r="94" ht="40.5" spans="1:10">
       <c r="A94" s="3" t="s">
         <v>359</v>
       </c>
@@ -4961,10 +5054,10 @@
         <v>360</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>361</v>
@@ -4973,13 +5066,13 @@
         <v>47</v>
       </c>
       <c r="G94" s="12" t="s">
-        <v>278</v>
+        <v>357</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="95" ht="40.5" spans="1:10">
+    <row r="95" ht="54" spans="1:7">
       <c r="A95" s="3" t="s">
         <v>363</v>
       </c>
@@ -4987,10 +5080,10 @@
         <v>364</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>365</v>
@@ -4999,245 +5092,239 @@
         <v>47</v>
       </c>
       <c r="G95" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="J95" s="2" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
     </row>
     <row r="96" ht="54" spans="1:7">
       <c r="A96" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="C96" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C96" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>369</v>
-      </c>
       <c r="F96" s="12" t="s">
-        <v>47</v>
+        <v>133</v>
       </c>
       <c r="G96" s="12" t="s">
-        <v>278</v>
+        <v>357</v>
       </c>
     </row>
     <row r="97" ht="54" spans="1:7">
       <c r="A97" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="C97" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C97" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="E97" s="2" t="s">
+      <c r="F97" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="G97" s="12" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="98" ht="27" spans="1:7">
+      <c r="A98" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="F97" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G97" s="12" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="98" ht="54" spans="1:7">
-      <c r="A98" s="3" t="s">
+      <c r="B98" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="C98" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C98" s="7" t="s">
-        <v>322</v>
-      </c>
       <c r="D98" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="E98" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="F98" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G98" s="12" t="s">
+      <c r="F98" s="2" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="99" ht="27" spans="1:7">
+      <c r="G98" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="99" ht="67.5" spans="1:7">
       <c r="A99" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="B99" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="B99" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="C99" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>380</v>
       </c>
       <c r="F99" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>381</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="100" ht="67.5" spans="1:7">
       <c r="A100" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="C100" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>385</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>133</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="101" ht="67.5" spans="1:7">
       <c r="A101" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>387</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="D101" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>389</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>133</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="102" ht="67.5" spans="1:7">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="102" ht="14.25" spans="1:7">
       <c r="A102" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="103" ht="27" spans="1:7">
+      <c r="A103" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B103" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C102" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="D102" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="E102" s="2" t="s">
+      <c r="C103" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F103" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G103" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="104" ht="28.5" spans="1:7">
+      <c r="A104" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="F102" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="103" ht="14.25" spans="1:7">
-      <c r="A103" s="3" t="s">
+      <c r="B104" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="C104" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="C103" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="D103" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="104" ht="27" spans="1:7">
-      <c r="A104" s="3" t="s">
+      <c r="D104" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="F104" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G104" s="13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="105" ht="28.5" spans="1:4">
+      <c r="A105" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="C104" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="F104" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G104" s="12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="105" ht="28.5" spans="1:7">
-      <c r="A105" s="3" t="s">
+      <c r="B105" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="C105" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="D105" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="C105" s="7" t="s">
+    </row>
+    <row r="106" ht="28.5" spans="1:7">
+      <c r="A106" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="D105" s="7" t="s">
+      <c r="B106" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="F105" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G105" s="13" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="106" ht="28.5" spans="1:4">
-      <c r="A106" s="3" t="s">
+      <c r="C106" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="D106" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="B106" s="7" t="s">
+      <c r="F106" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="C106" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="D106" s="7" t="s">
+      <c r="G106" s="2" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="107" ht="28.5" spans="1:7">
+    <row r="107" ht="28.5" spans="1:4">
       <c r="A107" s="3" t="s">
         <v>404</v>
       </c>
@@ -5245,29 +5332,29 @@
         <v>405</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="F107" s="2" t="s">
+    </row>
+    <row r="108" ht="28.5" spans="1:7">
+      <c r="A108" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="G107" s="2" t="s">
+      <c r="B108" s="7" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="108" ht="28.5" spans="1:4">
-      <c r="A108" s="3" t="s">
+      <c r="C108" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="D108" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="F108" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="C108" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="D108" s="7" t="s">
+      <c r="G108" s="2" t="s">
         <v>411</v>
       </c>
     </row>
@@ -5279,7 +5366,7 @@
         <v>413</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>414</v>
@@ -5287,65 +5374,62 @@
       <c r="F109" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="G109" s="2" t="s">
+      <c r="G109" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="110" ht="28.5" spans="1:4">
+      <c r="A110" s="3" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="110" ht="28.5" spans="1:7">
-      <c r="A110" s="3" t="s">
+      <c r="B110" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="B110" s="7" t="s">
+      <c r="C110" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="D110" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="C110" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="D110" s="7" t="s">
+    </row>
+    <row r="111" ht="40.5" spans="1:7">
+      <c r="A111" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="F110" s="2" t="s">
+      <c r="B111" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="G110" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="111" ht="28.5" spans="1:4">
-      <c r="A111" s="3" t="s">
+      <c r="C111" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="112" ht="28.5" spans="1:7">
+      <c r="A112" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="B111" s="7" t="s">
+      <c r="B112" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="C111" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="D111" s="7" t="s">
+      <c r="C112" s="7" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="112" ht="40.5" spans="1:7">
-      <c r="A112" s="3" t="s">
+      <c r="D112" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="B112" s="7" t="s">
+      <c r="G112" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="C112" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="D112" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="113" ht="28.5" spans="1:7">
+    </row>
+    <row r="113" ht="40.5" spans="1:7">
       <c r="A113" s="3" t="s">
         <v>426</v>
       </c>
@@ -5353,16 +5437,19 @@
         <v>427</v>
       </c>
       <c r="C113" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="D113" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="D113" s="7" t="s">
+      <c r="F113" s="2" t="s">
         <v>429</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="114" ht="54" spans="1:7">
+    <row r="114" ht="21" customHeight="1" spans="1:7">
       <c r="A114" s="3" t="s">
         <v>431</v>
       </c>
@@ -5370,7 +5457,7 @@
         <v>432</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D114" s="7" t="s">
         <v>433</v>
@@ -5378,28 +5465,28 @@
       <c r="F114" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="G114" s="2" t="s">
+      <c r="G114" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="115" ht="28.5" spans="1:7">
+      <c r="A115" s="3" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="115" ht="21" customHeight="1" spans="1:7">
-      <c r="A115" s="3" t="s">
+      <c r="B115" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="B115" s="7" t="s">
+      <c r="C115" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="D115" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="C115" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="D115" s="7" t="s">
+      <c r="F115" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="F115" s="2" t="s">
+      <c r="G115" s="2" t="s">
         <v>439</v>
-      </c>
-      <c r="G115" s="3" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="116" ht="28.5" spans="1:7">
@@ -5410,19 +5497,19 @@
         <v>441</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>442</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="G116" s="2" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="117" ht="28.5" spans="1:7">
+      <c r="G116" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="117" ht="67.5" spans="1:7">
       <c r="A117" s="3" t="s">
         <v>444</v>
       </c>
@@ -5430,7 +5517,7 @@
         <v>445</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D117" s="7" t="s">
         <v>446</v>
@@ -5438,45 +5525,39 @@
       <c r="F117" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="G117" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="118" ht="40.5" spans="1:7">
+      <c r="G117" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="118" ht="14.25" spans="1:4">
       <c r="A118" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>428</v>
+        <v>451</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="G118" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="119" ht="28.5" spans="1:4">
+      <c r="A119" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="C119" s="7" t="s">
         <v>451</v>
-      </c>
-    </row>
-    <row r="119" ht="14.25" spans="1:4">
-      <c r="A119" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="C119" s="7" t="s">
-        <v>454</v>
       </c>
       <c r="D119" s="7" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="120" ht="28.5" spans="1:4">
+    <row r="120" ht="14.25" spans="1:7">
       <c r="A120" s="3" t="s">
         <v>456</v>
       </c>
@@ -5484,143 +5565,149 @@
         <v>457</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="121" ht="14.25" spans="1:7">
       <c r="A121" s="3" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B121" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="F121" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="C121" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="D121" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>463</v>
-      </c>
       <c r="G121" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="122" ht="14.25" spans="1:7">
       <c r="A122" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="123" ht="14.25" spans="1:7">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="123" ht="67.5" spans="1:7">
       <c r="A123" s="3" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="124" ht="67.5" spans="1:7">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="124" ht="28.5" spans="1:7">
       <c r="A124" s="3" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>477</v>
+        <v>438</v>
       </c>
       <c r="G124" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="125" ht="42.75" spans="1:5">
+      <c r="A125" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="C125" s="7" t="s">
         <v>478</v>
-      </c>
-    </row>
-    <row r="125" ht="28.5" spans="1:7">
-      <c r="A125" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="C125" s="7" t="s">
-        <v>481</v>
       </c>
       <c r="D125" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="F125" s="2" t="s">
+      <c r="E125" s="2" t="s">
         <v>483</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="126" ht="42.75" spans="1:5">
       <c r="A126" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="B126" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="B126" s="7" t="s">
+      <c r="C126" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="C126" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="D126" s="7" t="s">
+    </row>
+    <row r="127" ht="28.5" spans="1:7">
+      <c r="A127" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="E126" s="2" t="s">
+      <c r="B127" s="7" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="127" ht="42.75" spans="1:5">
-      <c r="A127" s="3" t="s">
+      <c r="C127" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="D127" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="B127" s="7" t="s">
+      <c r="F127" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="C127" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="D127" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="E127" s="2" t="s">
+      <c r="G127" s="14" t="s">
         <v>491</v>
       </c>
     </row>
@@ -5628,156 +5715,159 @@
       <c r="A128" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="B128" s="7" t="s">
+      <c r="B128" s="2" t="s">
         <v>493</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D128" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="F128" s="12"/>
+      <c r="G128" s="12"/>
+    </row>
+    <row r="129" ht="42.75" spans="1:7">
+      <c r="A129" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="F128" s="2" t="s">
+      <c r="B129" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="G128" s="14" t="s">
+      <c r="C129" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="D129" s="7" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="129" ht="28.5" spans="1:7">
-      <c r="A129" s="3" t="s">
+      <c r="F129" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="G129" s="12" t="s">
         <v>497</v>
       </c>
-      <c r="B129" s="2" t="s">
+    </row>
+    <row r="130" ht="28.5" spans="1:7">
+      <c r="A130" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="C129" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="D129" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="F129" s="12"/>
-      <c r="G129" s="12"/>
-    </row>
-    <row r="130" ht="42.75" spans="1:7">
-      <c r="A130" s="3" t="s">
+      <c r="B130" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="B130" s="7" t="s">
+      <c r="C130" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="D130" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="C130" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="D130" s="7" t="s">
+      <c r="F130" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="G130" s="12" t="s">
         <v>501</v>
-      </c>
-      <c r="F130" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G130" s="12" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="131" ht="28.5" spans="1:7">
       <c r="A131" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B131" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="B131" s="7" t="s">
+      <c r="C131" s="7" t="s">
         <v>504</v>
-      </c>
-      <c r="C131" s="7" t="s">
-        <v>481</v>
       </c>
       <c r="D131" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="F131" s="12" t="s">
-        <v>495</v>
-      </c>
-      <c r="G131" s="12" t="s">
+      <c r="F131" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="132" ht="40.5" spans="1:7">
+      <c r="A132" s="3" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="132" ht="28.5" spans="1:7">
-      <c r="A132" s="3" t="s">
+      <c r="B132" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="B132" s="7" t="s">
+      <c r="C132" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="D132" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="C132" s="7" t="s">
+      <c r="E132" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D132" s="7" t="s">
+      <c r="F132" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="133" ht="28.5" spans="1:7">
+      <c r="A133" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="F132" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="133" ht="40.5" spans="1:7">
-      <c r="A133" s="3" t="s">
+      <c r="B133" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="B133" s="7" t="s">
+      <c r="C133" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="134" ht="40.5" spans="1:7">
+      <c r="A134" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="C133" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="D133" s="7" t="s">
+      <c r="B134" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="E133" s="2" t="s">
+      <c r="C134" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="F133" s="2" t="s">
+      <c r="F134" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="G133" s="2" t="s">
+      <c r="G134" s="2" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="134" ht="28.5" spans="1:7">
-      <c r="A134" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="C134" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="D134" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G134" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="135" ht="40.5" spans="1:7">
       <c r="A135" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>517</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="D135" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>519</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>140</v>
@@ -5786,30 +5876,30 @@
         <v>141</v>
       </c>
     </row>
-    <row r="136" ht="40.5" spans="1:7">
+    <row r="136" ht="27" spans="1:7">
       <c r="A136" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="B136" s="7" t="s">
+      <c r="F136" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="C136" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="D136" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="E136" s="2" t="s">
+      <c r="G136" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="F136" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="137" ht="27" spans="1:7">
+    </row>
+    <row r="137" ht="40.5" spans="1:7">
       <c r="A137" s="3" t="s">
         <v>523</v>
       </c>
@@ -5817,88 +5907,85 @@
         <v>524</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>525</v>
       </c>
       <c r="F137" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="138" ht="14.25" spans="1:7">
+      <c r="A138" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="G137" s="3" t="s">
+      <c r="B138" s="7" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="138" ht="40.5" spans="1:7">
-      <c r="A138" s="3" t="s">
+      <c r="C138" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G138" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="B138" s="7" t="s">
+    </row>
+    <row r="139" ht="27" spans="1:7">
+      <c r="A139" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="C138" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="D138" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="E138" s="2" t="s">
+      <c r="B139" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="F138" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="139" ht="14.25" spans="1:7">
-      <c r="A139" s="3" t="s">
+      <c r="C139" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="140" ht="14.25" spans="1:7">
+      <c r="A140" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="B139" s="7" t="s">
+      <c r="B140" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="C139" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="D139" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G139" s="3" t="s">
+      <c r="C140" s="7" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="140" ht="27" spans="1:7">
-      <c r="A140" s="3" t="s">
+      <c r="D140" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="B140" s="7" t="s">
+      <c r="F140" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="C140" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="D140" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="G140" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="141" ht="14.25" spans="1:7">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="141" ht="28.5" spans="1:7">
       <c r="A141" s="3" t="s">
         <v>536</v>
       </c>
@@ -5906,109 +5993,112 @@
         <v>537</v>
       </c>
       <c r="C141" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="D141" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="D141" s="7" t="s">
+      <c r="F141" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G141" s="3" t="s">
         <v>539</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="G141" s="3" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="142" ht="28.5" spans="1:7">
       <c r="A142" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="B142" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="B142" s="7" t="s">
+      <c r="C142" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="C142" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="D142" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G142" s="3" t="s">
-        <v>544</v>
-      </c>
+      <c r="G142" s="3"/>
     </row>
     <row r="143" ht="28.5" spans="1:7">
       <c r="A143" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="B143" s="7" t="s">
+      <c r="G143" s="3"/>
+    </row>
+    <row r="144" ht="14.25" spans="1:7">
+      <c r="A144" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="C143" s="7" t="s">
+      <c r="B144" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="D144" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="D143" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="G143" s="3"/>
-    </row>
-    <row r="144" ht="28.5" spans="1:7">
-      <c r="A144" s="3" t="s">
+      <c r="E144" s="2" t="s">
         <v>548</v>
-      </c>
-      <c r="B144" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="C144" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="D144" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>550</v>
       </c>
       <c r="G144" s="3"/>
     </row>
     <row r="145" ht="14.25" spans="1:7">
       <c r="A145" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="G145" s="3"/>
+    </row>
+    <row r="146" ht="28.5" spans="1:7">
+      <c r="A146" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="B145" s="7" t="s">
+      <c r="B146" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="C145" s="7" t="s">
+      <c r="C146" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="D146" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="D145" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="G145" s="3"/>
-    </row>
-    <row r="146" ht="14.25" spans="1:7">
-      <c r="A146" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="B146" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="C146" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="D146" s="7" t="s">
-        <v>543</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="G146" s="3"/>
+      <c r="F146" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="147" ht="28.5" spans="1:7">
       <c r="A147" s="3" t="s">
@@ -6018,62 +6108,62 @@
         <v>557</v>
       </c>
       <c r="C147" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="D147" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="D147" s="7" t="s">
-        <v>543</v>
-      </c>
       <c r="E147" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="148" ht="42.75" spans="1:5">
+      <c r="A148" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="F147" s="2" t="s">
+      <c r="B148" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="G147" s="2" t="s">
+      <c r="C148" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="148" ht="28.5" spans="1:7">
-      <c r="A148" s="3" t="s">
+    <row r="149" ht="54" spans="1:7">
+      <c r="A149" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="B148" s="7" t="s">
+      <c r="B149" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="C148" s="7" t="s">
+      <c r="C149" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="D149" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="D148" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="149" ht="42.75" spans="1:5">
-      <c r="A149" s="3" t="s">
+      <c r="E149" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="B149" s="7" t="s">
+      <c r="F149" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="C149" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="D149" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="E149" s="2" t="s">
+      <c r="G149" s="2" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="150" ht="54" spans="1:7">
+    <row r="150" ht="28.5" spans="1:5">
       <c r="A150" s="3" t="s">
         <v>566</v>
       </c>
@@ -6081,121 +6171,285 @@
         <v>567</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>543</v>
+        <v>568</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>570</v>
+        <v>548</v>
       </c>
     </row>
     <row r="151" ht="28.5" spans="1:5">
       <c r="A151" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="152" ht="28.5" spans="1:5">
       <c r="A152" s="3" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="D152" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>573</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="153" ht="28.5" spans="1:5">
       <c r="A153" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>578</v>
+        <v>548</v>
       </c>
     </row>
     <row r="154" ht="28.5" spans="1:5">
       <c r="A154" s="3" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="155" ht="28.5" spans="1:5">
       <c r="A155" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="156" ht="40.5" spans="2:7">
+      <c r="B156" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="C156" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="B155" s="7" t="s">
+      <c r="D156" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="C155" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="D155" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="156" ht="28.5" spans="1:5">
-      <c r="A156" s="3" t="s">
+      <c r="F156" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="B156" s="7" t="s">
+      <c r="G156" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="C156" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="D156" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>553</v>
+    </row>
+    <row r="157" ht="40.5" spans="2:7">
+      <c r="B157" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="158" ht="28.5" spans="2:7">
+      <c r="B158" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="159" ht="28.5" spans="2:7">
+      <c r="B159" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="160" ht="28.5" spans="2:7">
+      <c r="B160" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="D160" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="161" ht="28.5" spans="2:7">
+      <c r="B161" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="D161" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="162" ht="28.5" spans="2:7">
+      <c r="B162" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="D162" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="163" ht="28.5" spans="2:7">
+      <c r="B163" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="D163" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="164" ht="14.25" spans="2:7">
+      <c r="B164" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="D164" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="165" ht="28.5" spans="2:7">
+      <c r="B165" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="D165" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="166" ht="14.25" spans="2:7">
+      <c r="B166" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="D166" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>613</v>
       </c>
     </row>
   </sheetData>
